--- a/ZRK SYS 2023.xlsx
+++ b/ZRK SYS 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD2B803-AFE2-413B-A170-E9FD6B80B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61C0FE-0F17-460A-984D-95E4C7CD86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWS" sheetId="45" r:id="rId1"/>
@@ -50,7 +50,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CORREOS!$B$6:$F$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Inventario!$F$1:$F$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$B$4:$G$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3320" uniqueCount="1773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="1775">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5014,9 +5014,6 @@
     <t>Usuarios de SIZ</t>
   </si>
   <si>
-    <t>DEPTO</t>
-  </si>
-  <si>
     <t>MARIA GUADALUPE</t>
   </si>
   <si>
@@ -5063,9 +5060,6 @@
   </si>
   <si>
     <t>1751</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
   </si>
   <si>
     <t>33 2014 3442</t>
@@ -5665,6 +5659,18 @@
   </si>
   <si>
     <t>Escritorio Remoto</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>CUEVA RAMIREZ</t>
+  </si>
+  <si>
+    <t>4.0 SOPORTE SAP</t>
+  </si>
+  <si>
+    <t>ANTES DEL 2024</t>
   </si>
 </sst>
 </file>
@@ -5675,7 +5681,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="73">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6130,8 +6136,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6294,8 +6315,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor rgb="FFCCFF66"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="68">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -7084,6 +7111,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF3333FF"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF3333FF"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF3333FF"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF3333FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7106,7 +7148,7 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7880,9 +7922,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8310,6 +8349,12 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8334,12 +8379,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8396,6 +8435,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="28" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="27" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -10418,7 +10463,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
+      <xdr:colOff>876301</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38046</xdr:rowOff>
     </xdr:to>
@@ -15896,2355 +15941,2382 @@
   <sheetPr codeName="Hoja3">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="343" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="343" customWidth="1"/>
-    <col min="3" max="3" width="14" style="343" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="343" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" style="343" customWidth="1"/>
-    <col min="6" max="6" width="29" style="411" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="412" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="343" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="343"/>
+    <col min="1" max="1" width="3.5703125" style="342" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="342" customWidth="1"/>
+    <col min="3" max="3" width="14" style="342" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="342" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="342" customWidth="1"/>
+    <col min="6" max="6" width="29" style="410" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="411" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="342" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="342"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="F1" s="435"/>
+      <c r="F1" s="434"/>
     </row>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="B2" s="438" t="s">
+      <c r="B2" s="437" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C2" s="437"/>
+      <c r="D2" s="437"/>
+      <c r="E2" s="437"/>
+      <c r="F2" s="437"/>
+      <c r="G2" s="437"/>
+      <c r="H2" s="437"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.25">
+      <c r="B3" s="438" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C3" s="438"/>
+      <c r="D3" s="438"/>
+      <c r="E3" s="438"/>
+      <c r="F3" s="438"/>
+      <c r="G3" s="438"/>
+      <c r="H3" s="438"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75">
+      <c r="C4" s="435"/>
+      <c r="D4" s="436" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E4" s="435">
+        <f>MAX(B6:B146)</f>
+        <v>45043</v>
+      </c>
+      <c r="F4" s="435"/>
+      <c r="G4" s="435"/>
+      <c r="H4" s="435"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="C5" s="435"/>
+      <c r="D5" s="436" t="s">
         <v>1769</v>
       </c>
-      <c r="C2" s="438"/>
-      <c r="D2" s="438"/>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="438"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25">
-      <c r="B3" s="439" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C3" s="439"/>
-      <c r="D3" s="439"/>
-      <c r="E3" s="439"/>
-      <c r="F3" s="439"/>
-      <c r="G3" s="439"/>
-      <c r="H3" s="439"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="C4" s="436"/>
-      <c r="D4" s="437" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E4" s="436">
-        <f>MAX(B6:B145)</f>
-        <v>45043</v>
-      </c>
-      <c r="F4" s="436"/>
-      <c r="G4" s="436"/>
-      <c r="H4" s="436"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="C5" s="436"/>
-      <c r="D5" s="437" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E5" s="436">
-        <f>MIN(B6:B145)</f>
+      <c r="E5" s="435">
+        <f>MIN(B6:B146)</f>
         <v>43613</v>
       </c>
-      <c r="F5" s="436"/>
-      <c r="G5" s="436"/>
-      <c r="H5" s="436"/>
-    </row>
-    <row r="6" spans="1:10" s="348" customFormat="1" ht="30">
-      <c r="A6" s="344"/>
-      <c r="B6" s="345" t="s">
+      <c r="F5" s="435"/>
+      <c r="G5" s="435"/>
+      <c r="H5" s="435"/>
+    </row>
+    <row r="6" spans="1:10" s="347" customFormat="1" ht="30">
+      <c r="A6" s="343"/>
+      <c r="B6" s="495" t="s">
         <v>1447</v>
       </c>
-      <c r="C6" s="346" t="s">
+      <c r="C6" s="495" t="s">
         <v>1448</v>
       </c>
-      <c r="D6" s="346" t="s">
+      <c r="D6" s="495" t="s">
         <v>1449</v>
       </c>
-      <c r="E6" s="346" t="s">
+      <c r="E6" s="495" t="s">
         <v>1336</v>
       </c>
-      <c r="F6" s="347" t="s">
+      <c r="F6" s="495" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="346" t="s">
+      <c r="G6" s="495" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="346" t="s">
+      <c r="H6" s="495" t="s">
         <v>1263</v>
       </c>
-      <c r="I6" s="343"/>
-      <c r="J6" s="343"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="342"/>
-      <c r="B7" s="349">
+      <c r="A7" s="341"/>
+      <c r="B7" s="348">
         <v>45035</v>
       </c>
-      <c r="C7" s="434" t="s">
+      <c r="C7" s="433" t="s">
         <v>1477</v>
       </c>
-      <c r="D7" s="366" t="s">
+      <c r="D7" s="365" t="s">
         <v>1337</v>
       </c>
-      <c r="E7" s="367" t="s">
+      <c r="E7" s="366" t="s">
         <v>1241</v>
       </c>
       <c r="F7" s="316" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="368" t="s">
+      <c r="G7" s="367" t="s">
         <v>845</v>
       </c>
-      <c r="H7" s="350" t="s">
+      <c r="H7" s="349" t="s">
         <v>1535</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="342"/>
-      <c r="B8" s="349">
+      <c r="A8" s="341"/>
+      <c r="B8" s="348">
         <v>45035</v>
       </c>
-      <c r="C8" s="434" t="s">
+      <c r="C8" s="433" t="s">
         <v>1477</v>
       </c>
-      <c r="D8" s="366" t="s">
+      <c r="D8" s="365" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="367" t="s">
+      <c r="E8" s="366" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="369" t="s">
+      <c r="F8" s="368" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="368" t="s">
+      <c r="G8" s="367" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="363" t="s">
+      <c r="H8" s="362" t="s">
         <v>1536</v>
       </c>
-      <c r="I8" s="342"/>
+      <c r="I8" s="341"/>
     </row>
     <row r="9" spans="1:10" ht="25.5">
-      <c r="A9" s="342"/>
-      <c r="B9" s="349">
+      <c r="A9" s="341"/>
+      <c r="B9" s="348">
         <v>43613</v>
       </c>
-      <c r="C9" s="434" t="s">
+      <c r="C9" s="433" t="s">
         <v>1477</v>
       </c>
-      <c r="D9" s="384" t="s">
+      <c r="D9" s="383" t="s">
         <v>1465</v>
       </c>
-      <c r="E9" s="384" t="s">
-        <v>1772</v>
-      </c>
-      <c r="F9" s="369" t="s">
+      <c r="E9" s="383" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F9" s="368" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="368" t="s">
+      <c r="G9" s="367" t="s">
         <v>1466</v>
       </c>
-      <c r="H9" s="384" t="s">
+      <c r="H9" s="383" t="s">
         <v>1467</v>
       </c>
-      <c r="I9" s="342"/>
+      <c r="I9" s="341"/>
     </row>
     <row r="10" spans="1:10" ht="25.5">
-      <c r="A10" s="342"/>
-      <c r="B10" s="349">
+      <c r="A10" s="341"/>
+      <c r="B10" s="348">
         <v>43665</v>
       </c>
-      <c r="C10" s="434" t="s">
+      <c r="C10" s="433" t="s">
         <v>1477</v>
       </c>
-      <c r="D10" s="384" t="s">
+      <c r="D10" s="383" t="s">
         <v>1465</v>
       </c>
-      <c r="E10" s="384" t="s">
-        <v>1772</v>
-      </c>
-      <c r="F10" s="369" t="s">
+      <c r="E10" s="383" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F10" s="368" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="368" t="s">
+      <c r="G10" s="367" t="s">
         <v>1468</v>
       </c>
-      <c r="H10" s="384" t="s">
+      <c r="H10" s="383" t="s">
         <v>1469</v>
       </c>
-      <c r="I10" s="342"/>
+      <c r="I10" s="341"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="342"/>
-      <c r="B11" s="349">
+      <c r="A11" s="341"/>
+      <c r="B11" s="348">
         <v>45043</v>
       </c>
-      <c r="C11" s="434" t="s">
+      <c r="C11" s="433" t="s">
         <v>1477</v>
       </c>
-      <c r="D11" s="350" t="s">
+      <c r="D11" s="349" t="s">
         <v>754</v>
       </c>
-      <c r="E11" s="350" t="s">
+      <c r="E11" s="349" t="s">
         <v>882</v>
       </c>
-      <c r="F11" s="357">
+      <c r="F11" s="356">
         <v>1059</v>
       </c>
-      <c r="G11" s="352" t="s">
+      <c r="G11" s="351" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="350" t="s">
+      <c r="H11" s="349" t="s">
         <v>1528</v>
       </c>
-      <c r="I11" s="342"/>
+      <c r="I11" s="341"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="342"/>
-      <c r="B12" s="349">
+      <c r="A12" s="341"/>
+      <c r="B12" s="348">
         <v>45043</v>
       </c>
-      <c r="C12" s="434" t="s">
+      <c r="C12" s="433" t="s">
         <v>1477</v>
       </c>
-      <c r="D12" s="350" t="s">
+      <c r="D12" s="349" t="s">
         <v>754</v>
       </c>
-      <c r="E12" s="350" t="s">
+      <c r="E12" s="349" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="357" t="s">
+      <c r="F12" s="356" t="s">
         <v>1529</v>
       </c>
-      <c r="G12" s="368" t="s">
+      <c r="G12" s="367" t="s">
         <v>883</v>
       </c>
-      <c r="H12" s="350" t="s">
+      <c r="H12" s="349" t="s">
         <v>1528</v>
       </c>
-      <c r="I12" s="342"/>
+      <c r="I12" s="341"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="342"/>
-      <c r="B13" s="368">
+      <c r="A13" s="341"/>
+      <c r="B13" s="367">
         <v>44640</v>
       </c>
-      <c r="C13" s="370" t="s">
+      <c r="C13" s="369" t="s">
         <v>1477</v>
       </c>
-      <c r="D13" s="370" t="s">
+      <c r="D13" s="369" t="s">
         <v>942</v>
       </c>
-      <c r="E13" s="371" t="s">
+      <c r="E13" s="370" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F13" s="356" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G13" s="353" t="s">
         <v>1579</v>
       </c>
-      <c r="F13" s="357" t="s">
+      <c r="H13" s="349" t="s">
         <v>1580</v>
       </c>
-      <c r="G13" s="354" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H13" s="350" t="s">
-        <v>1582</v>
-      </c>
-      <c r="I13" s="342"/>
+      <c r="I13" s="341"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="342"/>
-      <c r="B14" s="349"/>
-      <c r="C14" s="350"/>
-      <c r="D14" s="350"/>
-      <c r="E14" s="350"/>
-      <c r="F14" s="351"/>
-      <c r="G14" s="352"/>
-      <c r="H14" s="350"/>
-      <c r="I14" s="342"/>
+      <c r="A14" s="341"/>
+      <c r="B14" s="348"/>
+      <c r="C14" s="349"/>
+      <c r="D14" s="349"/>
+      <c r="E14" s="349"/>
+      <c r="F14" s="350"/>
+      <c r="G14" s="351"/>
+      <c r="H14" s="349"/>
+      <c r="I14" s="341"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="342"/>
-      <c r="B15" s="349"/>
-      <c r="C15" s="350"/>
-      <c r="D15" s="350"/>
-      <c r="E15" s="350"/>
-      <c r="F15" s="351"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="350"/>
-      <c r="I15" s="342"/>
+      <c r="A15" s="341"/>
+      <c r="B15" s="348"/>
+      <c r="C15" s="349"/>
+      <c r="D15" s="349"/>
+      <c r="E15" s="349"/>
+      <c r="F15" s="350"/>
+      <c r="G15" s="351"/>
+      <c r="H15" s="349"/>
+      <c r="I15" s="341"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="342"/>
-      <c r="B16" s="349"/>
-      <c r="C16" s="350"/>
-      <c r="D16" s="350"/>
-      <c r="E16" s="350"/>
-      <c r="F16" s="351"/>
-      <c r="G16" s="352"/>
-      <c r="H16" s="350"/>
-      <c r="I16" s="342"/>
+      <c r="A16" s="341"/>
+      <c r="B16" s="348"/>
+      <c r="C16" s="349"/>
+      <c r="D16" s="349"/>
+      <c r="E16" s="349"/>
+      <c r="F16" s="350"/>
+      <c r="G16" s="351"/>
+      <c r="H16" s="349"/>
+      <c r="I16" s="341"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="342"/>
-      <c r="B17" s="430"/>
-      <c r="C17" s="431"/>
-      <c r="D17" s="431"/>
-      <c r="E17" s="431"/>
-      <c r="F17" s="432"/>
-      <c r="G17" s="433"/>
-      <c r="H17" s="431"/>
-      <c r="I17" s="342"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="342"/>
-      <c r="B18" s="349"/>
-      <c r="C18" s="350" t="s">
+      <c r="A17" s="341"/>
+      <c r="B17" s="429"/>
+      <c r="C17" s="430"/>
+      <c r="D17" s="430"/>
+      <c r="E17" s="496" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F17" s="431"/>
+      <c r="G17" s="432"/>
+      <c r="H17" s="430"/>
+      <c r="I17" s="341"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="341"/>
+      <c r="B18" s="344" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C18" s="345" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D18" s="345" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E18" s="345" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F18" s="346" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="345" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="345" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I18" s="341"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="341"/>
+      <c r="B19" s="348"/>
+      <c r="C19" s="349" t="s">
         <v>1346</v>
       </c>
-      <c r="D18" s="350" t="s">
+      <c r="D19" s="349" t="s">
         <v>1353</v>
       </c>
-      <c r="E18" s="350" t="s">
+      <c r="E19" s="349" t="s">
         <v>1351</v>
       </c>
-      <c r="F18" s="352" t="s">
+      <c r="F19" s="351" t="s">
         <v>1354</v>
       </c>
-      <c r="G18" s="352" t="s">
+      <c r="G19" s="351" t="s">
         <v>979</v>
       </c>
-      <c r="H18" s="350"/>
-      <c r="I18" s="342"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="342"/>
-      <c r="B19" s="349">
+      <c r="H19" s="349"/>
+      <c r="I19" s="341"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="341"/>
+      <c r="B20" s="348">
         <v>44300</v>
       </c>
-      <c r="C19" s="350" t="s">
+      <c r="C20" s="349" t="s">
         <v>1346</v>
       </c>
-      <c r="D19" s="350" t="s">
+      <c r="D20" s="349" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E20" s="349" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F20" s="351" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G20" s="351" t="s">
         <v>1598</v>
       </c>
-      <c r="E19" s="350" t="s">
+      <c r="H20" s="349"/>
+      <c r="I20" s="341"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="341"/>
+      <c r="B21" s="348"/>
+      <c r="C21" s="349" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D21" s="349" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E21" s="349" t="s">
         <v>1348</v>
       </c>
-      <c r="F19" s="352" t="s">
+      <c r="F21" s="351" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G21" s="351" t="s">
+        <v>979</v>
+      </c>
+      <c r="H21" s="349"/>
+      <c r="I21" s="341"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="341"/>
+      <c r="B22" s="348">
+        <v>44307</v>
+      </c>
+      <c r="C22" s="349" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D22" s="349" t="s">
         <v>1599</v>
       </c>
-      <c r="G19" s="352" t="s">
+      <c r="E22" s="352" t="s">
         <v>1600</v>
       </c>
-      <c r="H19" s="350"/>
-      <c r="I19" s="342"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="342"/>
-      <c r="B20" s="349"/>
-      <c r="C20" s="350" t="s">
+      <c r="F22" s="351" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G22" s="353" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="349" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I22" s="341"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="341"/>
+      <c r="B23" s="354">
+        <v>44309</v>
+      </c>
+      <c r="C23" s="355" t="s">
         <v>1346</v>
       </c>
-      <c r="D20" s="350" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E20" s="350" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F20" s="352" t="s">
-        <v>1349</v>
-      </c>
-      <c r="G20" s="352" t="s">
-        <v>979</v>
-      </c>
-      <c r="H20" s="350"/>
-      <c r="I20" s="342"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="342"/>
-      <c r="B21" s="349">
-        <v>44307</v>
-      </c>
-      <c r="C21" s="350" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D21" s="350" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E21" s="353" t="s">
-        <v>1602</v>
-      </c>
-      <c r="F21" s="352" t="s">
+      <c r="D23" s="355" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E23" s="356" t="s">
         <v>1603</v>
       </c>
-      <c r="G21" s="354" t="s">
+      <c r="F23" s="353" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G23" s="353" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="350" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I21" s="342"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="342"/>
-      <c r="B22" s="355">
-        <v>44309</v>
-      </c>
-      <c r="C22" s="356" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D22" s="356" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E22" s="357" t="s">
+      <c r="H23" s="357" t="s">
         <v>1605</v>
       </c>
-      <c r="F22" s="354" t="s">
+      <c r="I23" s="341"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="341"/>
+      <c r="B24" s="348"/>
+      <c r="C24" s="349" t="s">
         <v>1606</v>
       </c>
-      <c r="G22" s="354" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="358" t="s">
+      <c r="D24" s="349" t="s">
         <v>1607</v>
       </c>
-      <c r="I22" s="342"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="342"/>
-      <c r="B23" s="349"/>
-      <c r="C23" s="350" t="s">
+      <c r="E24" s="358" t="s">
         <v>1608</v>
       </c>
-      <c r="D23" s="350" t="s">
+      <c r="F24" s="353" t="s">
         <v>1609</v>
       </c>
-      <c r="E23" s="359" t="s">
+      <c r="G24" s="351" t="s">
         <v>1610</v>
       </c>
-      <c r="F23" s="354" t="s">
+      <c r="H24" s="359" t="s">
         <v>1611</v>
       </c>
-      <c r="G23" s="352" t="s">
+      <c r="I24" s="341"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="341"/>
+      <c r="B25" s="348"/>
+      <c r="C25" s="349" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D25" s="349" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E25" s="358" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F25" s="353" t="s">
         <v>1612</v>
       </c>
-      <c r="H23" s="360" t="s">
+      <c r="G25" s="351" t="s">
         <v>1613</v>
       </c>
-      <c r="I23" s="342"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="342"/>
-      <c r="B24" s="349"/>
-      <c r="C24" s="350" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D24" s="350" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E24" s="359" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F24" s="354" t="s">
+      <c r="H25" s="359" t="s">
         <v>1614</v>
       </c>
-      <c r="G24" s="352" t="s">
+      <c r="I25" s="341"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="341"/>
+      <c r="B26" s="348"/>
+      <c r="C26" s="349" t="s">
         <v>1615</v>
       </c>
-      <c r="H24" s="360" t="s">
+      <c r="D26" s="349" t="s">
         <v>1616</v>
       </c>
-      <c r="I24" s="342"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="342"/>
-      <c r="B25" s="349"/>
-      <c r="C25" s="350" t="s">
+      <c r="E26" s="349" t="s">
         <v>1617</v>
       </c>
-      <c r="D25" s="350" t="s">
+      <c r="F26" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="351"/>
+      <c r="H26" s="349" t="s">
         <v>1618</v>
       </c>
-      <c r="E25" s="350" t="s">
+      <c r="I26" s="341"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="341"/>
+      <c r="B27" s="348"/>
+      <c r="C27" s="360" t="s">
         <v>1619</v>
       </c>
-      <c r="F25" s="351" t="s">
+      <c r="D27" s="349" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E27" s="349" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F27" s="350" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G27" s="351">
+        <v>4578</v>
+      </c>
+      <c r="H27" s="349"/>
+      <c r="I27" s="341"/>
+    </row>
+    <row r="28" spans="1:9" ht="105">
+      <c r="A28" s="341"/>
+      <c r="B28" s="348">
+        <v>44188</v>
+      </c>
+      <c r="C28" s="361" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D28" s="362" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E28" s="363" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F28" s="353" t="s">
+        <v>718</v>
+      </c>
+      <c r="G28" s="353" t="s">
+        <v>895</v>
+      </c>
+      <c r="H28" s="364" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I28" s="341"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="B29" s="348"/>
+      <c r="C29" s="349" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D29" s="349"/>
+      <c r="E29" s="349"/>
+      <c r="F29" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="352"/>
-      <c r="H25" s="350" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I25" s="342"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="342"/>
-      <c r="B26" s="349"/>
-      <c r="C26" s="361" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D26" s="350" t="s">
-        <v>1622</v>
-      </c>
-      <c r="E26" s="350" t="s">
-        <v>1623</v>
-      </c>
-      <c r="F26" s="351" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G26" s="352">
-        <v>4578</v>
-      </c>
-      <c r="H26" s="350"/>
-      <c r="I26" s="342"/>
-    </row>
-    <row r="27" spans="1:9" ht="105">
-      <c r="A27" s="342"/>
-      <c r="B27" s="349">
-        <v>44188</v>
-      </c>
-      <c r="C27" s="362" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D27" s="363" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E27" s="364" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F27" s="354" t="s">
-        <v>718</v>
-      </c>
-      <c r="G27" s="354" t="s">
-        <v>895</v>
-      </c>
-      <c r="H27" s="365" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I27" s="342"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="349"/>
-      <c r="C28" s="350" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D28" s="350"/>
-      <c r="E28" s="350"/>
-      <c r="F28" s="351" t="s">
+      <c r="G29" s="351" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H29" s="349"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30" s="348"/>
+      <c r="C30" s="349" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D30" s="349" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E30" s="371" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F30" s="350" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G30" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H30" s="349"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="348"/>
+      <c r="C31" s="349" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D31" s="349" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E31" s="349" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F31" s="350" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G31" s="351" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H31" s="349"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="348"/>
+      <c r="C32" s="349" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D32" s="349" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E32" s="371" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F32" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="352" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H28" s="350"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="349"/>
-      <c r="C29" s="350" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D29" s="350" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E29" s="372" t="s">
-        <v>1632</v>
-      </c>
-      <c r="F29" s="351" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G29" s="352" t="s">
+      <c r="G32" s="353" t="s">
         <v>1232</v>
       </c>
-      <c r="H29" s="350"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="349"/>
-      <c r="C30" s="350" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D30" s="350" t="s">
-        <v>1635</v>
-      </c>
-      <c r="E30" s="350" t="s">
-        <v>1636</v>
-      </c>
-      <c r="F30" s="351" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G30" s="352" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H30" s="350"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="349"/>
-      <c r="C31" s="350" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D31" s="350" t="s">
+      <c r="H32" s="349"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="348">
+        <v>44305</v>
+      </c>
+      <c r="C33" s="355" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D33" s="349" t="s">
         <v>1640</v>
       </c>
-      <c r="E31" s="372" t="s">
+      <c r="E33" s="349" t="s">
         <v>1641</v>
       </c>
-      <c r="F31" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="354" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H31" s="350"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="349">
-        <v>44305</v>
-      </c>
-      <c r="C32" s="356" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D32" s="350" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E32" s="350" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F32" s="352" t="s">
+      <c r="F33" s="351" t="s">
         <v>1510</v>
       </c>
-      <c r="G32" s="352" t="s">
+      <c r="G33" s="351" t="s">
         <v>845</v>
       </c>
-      <c r="H32" s="371" t="s">
+      <c r="H33" s="370" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="355">
+    <row r="34" spans="2:8">
+      <c r="B34" s="354">
         <v>44105</v>
       </c>
-      <c r="C33" s="356" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D33" s="371" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E33" s="371" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F33" s="357" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G33" s="354" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="371" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="368">
-        <v>44354</v>
-      </c>
-      <c r="C34" s="370" t="s">
+      <c r="C34" s="355" t="s">
         <v>1361</v>
       </c>
       <c r="D34" s="370" t="s">
         <v>1500</v>
       </c>
       <c r="E34" s="370" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F34" s="356" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G34" s="353" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="370" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="367">
+        <v>44354</v>
+      </c>
+      <c r="C35" s="369" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D35" s="369" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="369" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F35" s="356" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G35" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="370" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="354">
+        <v>43945</v>
+      </c>
+      <c r="C36" s="355" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D36" s="355" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E36" s="370" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F36" s="356" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G36" s="356" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H36" s="370" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="348"/>
+      <c r="C37" s="360" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D37" s="349" t="s">
         <v>1644</v>
       </c>
-      <c r="F34" s="357" t="s">
+      <c r="E37" s="371" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F37" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H37" s="349" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="348"/>
+      <c r="C38" s="349" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D38" s="349" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E38" s="349"/>
+      <c r="F38" s="350"/>
+      <c r="G38" s="351"/>
+      <c r="H38" s="349" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="348"/>
+      <c r="C39" s="360" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D39" s="349" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E39" s="349" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F39" s="350" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G39" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H39" s="349" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="348"/>
+      <c r="C40" s="349" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D40" s="349" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E40" s="371" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F40" s="353" t="s">
+        <v>1654</v>
+      </c>
+      <c r="G40" s="351" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H40" s="349"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="348"/>
+      <c r="C41" s="349" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D41" s="349" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E41" s="371" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F41" s="350" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G41" s="351" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H41" s="349"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="372">
+        <v>44108</v>
+      </c>
+      <c r="C42" s="373" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D42" s="355" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E42" s="356" t="s">
+        <v>944</v>
+      </c>
+      <c r="F42" s="353"/>
+      <c r="G42" s="353"/>
+      <c r="H42" s="357" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="348"/>
+      <c r="C43" s="374" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D43" s="375"/>
+      <c r="E43" s="349"/>
+      <c r="F43" s="350"/>
+      <c r="G43" s="351" t="s">
+        <v>843</v>
+      </c>
+      <c r="H43" s="349" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="348"/>
+      <c r="C44" s="374" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D44" s="375" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E44" s="375" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F44" s="376" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G44" s="377" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H44" s="378"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="372">
+        <v>44133</v>
+      </c>
+      <c r="C45" s="373" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D45" s="355" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E45" s="356" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F45" s="356" t="s">
         <v>1374</v>
       </c>
-      <c r="G34" s="354" t="s">
+      <c r="G45" s="353" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="371" t="s">
+      <c r="H45" s="357" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="348"/>
+      <c r="C46" s="349" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="349" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E46" s="349"/>
+      <c r="F46" s="350" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G46" s="351" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H46" s="349" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="348"/>
+      <c r="C47" s="349" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D47" s="349" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E47" s="349" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F47" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="379" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H47" s="351" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="354">
+        <v>44144</v>
+      </c>
+      <c r="C48" s="355" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D48" s="355" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E48" s="370" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F48" s="380" t="s">
+        <v>951</v>
+      </c>
+      <c r="G48" s="353" t="s">
+        <v>953</v>
+      </c>
+      <c r="H48" s="357" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="348"/>
+      <c r="C49" s="349" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D49" s="349" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E49" s="371" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F49" s="350"/>
+      <c r="G49" s="351"/>
+      <c r="H49" s="349" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="348"/>
+      <c r="C50" s="349" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D50" s="349" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E50" s="371" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F50" s="350" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G50" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H50" s="349" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="348"/>
+      <c r="C51" s="349" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D51" s="349" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E51" s="349"/>
+      <c r="F51" s="350"/>
+      <c r="G51" s="351"/>
+      <c r="H51" s="349" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="372">
+        <v>44165</v>
+      </c>
+      <c r="C54" s="373" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D54" s="355" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E54" s="296" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F54" s="356" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G54" s="356" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H54" s="357" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="372">
+        <v>44165</v>
+      </c>
+      <c r="C55" s="373" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D55" s="355" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E55" s="296" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F55" s="356" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G55" s="356" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H55" s="381" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="348"/>
+      <c r="C56" s="360" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D56" s="349" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E56" s="349" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F56" s="382" t="s">
+        <v>882</v>
+      </c>
+      <c r="G56" s="353" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H56" s="349"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="F57" s="342"/>
+      <c r="G57" s="342"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="F58" s="342"/>
+      <c r="G58" s="342"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="367"/>
+      <c r="C59" s="360" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D59" s="383" t="s">
+        <v>874</v>
+      </c>
+      <c r="E59" s="368" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F59" s="367" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G59" s="367" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H59" s="383"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="348"/>
+      <c r="C60" s="360" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D60" s="383" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E60" s="383"/>
+      <c r="F60" s="368" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="367" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H60" s="383"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="348"/>
+      <c r="C61" s="360" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D61" s="383" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E61" s="383" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="368" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G61" s="367" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H61" s="383"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="348"/>
+      <c r="C62" s="360" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D62" s="349" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E62" s="349"/>
+      <c r="F62" s="382" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G62" s="351" t="s">
+        <v>845</v>
+      </c>
+      <c r="H62" s="349"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="348"/>
+      <c r="C63" s="349" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D63" s="349" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E63" s="349"/>
+      <c r="F63" s="350"/>
+      <c r="G63" s="351"/>
+      <c r="H63" s="349" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="367">
+        <v>44295</v>
+      </c>
+      <c r="C64" s="361" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D64" s="369" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E64" s="370" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F64" s="356" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G64" s="353" t="s">
+        <v>845</v>
+      </c>
+      <c r="H64" s="349" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="367">
+        <v>44295</v>
+      </c>
+      <c r="C65" s="361" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D65" s="369" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E65" s="370" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F65" s="356" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G65" s="353" t="s">
+        <v>845</v>
+      </c>
+      <c r="H65" s="349" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="367">
+        <v>44147</v>
+      </c>
+      <c r="C66" s="361" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D66" s="369" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E66" s="370" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F66" s="356" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G66" s="353" t="s">
+        <v>845</v>
+      </c>
+      <c r="H66" s="349" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="348"/>
+      <c r="C67" s="349" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D67" s="349" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E67" s="349"/>
+      <c r="F67" s="350"/>
+      <c r="G67" s="351"/>
+      <c r="H67" s="349" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="348"/>
+      <c r="C68" s="349" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D68" s="349" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E68" s="349"/>
+      <c r="F68" s="350"/>
+      <c r="G68" s="351"/>
+      <c r="H68" s="349" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="348"/>
+      <c r="C69" s="349" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D69" s="349" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E69" s="371" t="s">
+        <v>1693</v>
+      </c>
+      <c r="F69" s="350" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G69" s="351" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H69" s="349"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="354">
+        <v>44162</v>
+      </c>
+      <c r="C70" s="373" t="s">
+        <v>751</v>
+      </c>
+      <c r="D70" s="355" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E70" s="356" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F70" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="356" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H70" s="381"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="372">
+        <v>44302</v>
+      </c>
+      <c r="C71" s="373" t="s">
+        <v>751</v>
+      </c>
+      <c r="D71" s="355" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E71" s="356" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="355">
-        <v>43945</v>
-      </c>
-      <c r="C35" s="356" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D35" s="356" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E35" s="371" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F35" s="357" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G35" s="357" t="s">
+      <c r="F71" s="356" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G71" s="356" t="s">
+        <v>845</v>
+      </c>
+      <c r="H71" s="357" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="354"/>
+      <c r="C72" s="373" t="s">
+        <v>751</v>
+      </c>
+      <c r="D72" s="355" t="s">
+        <v>748</v>
+      </c>
+      <c r="E72" s="356" t="s">
+        <v>748</v>
+      </c>
+      <c r="F72" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="356" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="357" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="372">
+        <v>44139</v>
+      </c>
+      <c r="C73" s="373" t="s">
+        <v>751</v>
+      </c>
+      <c r="D73" s="355" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E73" s="356" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F73" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="356" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="357" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="384">
+        <v>44302</v>
+      </c>
+      <c r="C74" s="349" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D74" s="349" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E74" s="349" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F74" s="350" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G74" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H74" s="349" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="384">
+        <v>44302</v>
+      </c>
+      <c r="C75" s="349" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D75" s="349" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E75" s="349"/>
+      <c r="F75" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H75" s="349"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="348"/>
+      <c r="C76" s="349" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D76" s="349" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E76" s="349" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F76" s="353" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G76" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H76" s="349"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="348"/>
+      <c r="C77" s="349" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D77" s="349" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E77" s="349" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F77" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H77" s="349"/>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="348"/>
+      <c r="C78" s="349" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D78" s="349" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E78" s="349"/>
+      <c r="F78" s="350"/>
+      <c r="G78" s="351"/>
+      <c r="H78" s="349" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="348"/>
+      <c r="C79" s="349" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D79" s="349" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E79" s="349"/>
+      <c r="F79" s="350"/>
+      <c r="G79" s="351"/>
+      <c r="H79" s="349" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="348"/>
+      <c r="C80" s="349" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D80" s="349" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E80" s="349"/>
+      <c r="F80" s="350"/>
+      <c r="G80" s="351"/>
+      <c r="H80" s="349" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="F81" s="342"/>
+      <c r="G81" s="342"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="348"/>
+      <c r="C82" s="349" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D82" s="349" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E82" s="349" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F82" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H82" s="349" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="348"/>
+      <c r="C83" s="349" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D83" s="349" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E83" s="349" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F83" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="351"/>
+      <c r="H83" s="349" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="367">
+        <v>44329</v>
+      </c>
+      <c r="C84" s="361" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D84" s="369" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E84" s="369" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F84" s="356" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G84" s="353" t="s">
+        <v>979</v>
+      </c>
+      <c r="H84" s="349" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="367">
+        <v>44329</v>
+      </c>
+      <c r="C85" s="361" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D85" s="369" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E85" s="369" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F85" s="356" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85" s="353" t="s">
+        <v>895</v>
+      </c>
+      <c r="H85" s="349" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="367">
+        <v>44369</v>
+      </c>
+      <c r="C87" s="361" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D87" s="369" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E87" s="370" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F87" s="385" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G87" s="386" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="349" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="367">
+        <v>44329</v>
+      </c>
+      <c r="C88" s="361" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D88" s="369" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E88" s="387" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F88" s="356" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G88" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88" s="349" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="367">
+        <v>44329</v>
+      </c>
+      <c r="C89" s="361" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D89" s="369" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E89" s="370" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F89" s="356" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G89" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89" s="349" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="388">
+        <v>44925</v>
+      </c>
+      <c r="C90" s="361" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D90" s="390" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E90" s="391" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F90" s="427" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G90" s="393" t="s">
+        <v>979</v>
+      </c>
+      <c r="H90" s="428" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="45">
+      <c r="B91" s="388">
+        <v>44511</v>
+      </c>
+      <c r="C91" s="389" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D91" s="390" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E91" s="391" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F91" s="392" t="s">
+        <v>129</v>
+      </c>
+      <c r="G91" s="393" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H91" s="394" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="395"/>
+      <c r="C92" s="396"/>
+      <c r="D92" s="396"/>
+      <c r="E92" s="397"/>
+      <c r="F92" s="398"/>
+      <c r="G92" s="399"/>
+      <c r="H92" s="400"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="395"/>
+      <c r="C93" s="396"/>
+      <c r="D93" s="396"/>
+      <c r="E93" s="397"/>
+      <c r="F93" s="398"/>
+      <c r="G93" s="399"/>
+      <c r="H93" s="400"/>
+    </row>
+    <row r="94" spans="2:8" ht="30">
+      <c r="B94" s="401" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C94" s="401" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D94" s="401" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E94" s="401" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F94" s="401" t="s">
+        <v>172</v>
+      </c>
+      <c r="G94" s="401" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="401" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="367">
+        <v>44581</v>
+      </c>
+      <c r="C95" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D95" s="369" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E95" s="370"/>
+      <c r="F95" s="356" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" s="402" t="s">
         <v>1237</v>
       </c>
-      <c r="H35" s="371" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="349"/>
-      <c r="C36" s="361" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D36" s="350" t="s">
-        <v>1646</v>
-      </c>
-      <c r="E36" s="372" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F36" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H36" s="350" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="349"/>
-      <c r="C37" s="350" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D37" s="350" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E37" s="350"/>
-      <c r="F37" s="351"/>
-      <c r="G37" s="352"/>
-      <c r="H37" s="350" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="349"/>
-      <c r="C38" s="361" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D38" s="350" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E38" s="350" t="s">
-        <v>1651</v>
-      </c>
-      <c r="F38" s="351" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G38" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H38" s="350" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="349"/>
-      <c r="C39" s="350" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D39" s="350" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E39" s="372" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F39" s="354" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G39" s="352" t="s">
-        <v>1657</v>
-      </c>
-      <c r="H39" s="350"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="349"/>
-      <c r="C40" s="350" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D40" s="350" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E40" s="372" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F40" s="351" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G40" s="352" t="s">
-        <v>1662</v>
-      </c>
-      <c r="H40" s="350"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="373">
-        <v>44108</v>
-      </c>
-      <c r="C41" s="374" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D41" s="356" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E41" s="357" t="s">
-        <v>944</v>
-      </c>
-      <c r="F41" s="354"/>
-      <c r="G41" s="354"/>
-      <c r="H41" s="358" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="349"/>
-      <c r="C42" s="375" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D42" s="376"/>
-      <c r="E42" s="350"/>
-      <c r="F42" s="351"/>
-      <c r="G42" s="352" t="s">
-        <v>843</v>
-      </c>
-      <c r="H42" s="350" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="349"/>
-      <c r="C43" s="375" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D43" s="376" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E43" s="376" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F43" s="377" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G43" s="378" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H43" s="379"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="373">
-        <v>44133</v>
-      </c>
-      <c r="C44" s="374" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D44" s="356" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E44" s="357" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F44" s="357" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G44" s="354" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="358" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="349"/>
-      <c r="C45" s="350" t="s">
-        <v>398</v>
-      </c>
-      <c r="D45" s="350" t="s">
-        <v>1670</v>
-      </c>
-      <c r="E45" s="350"/>
-      <c r="F45" s="351" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G45" s="352" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H45" s="350" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="349"/>
-      <c r="C46" s="350" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D46" s="350" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E46" s="350" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F46" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="380" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H46" s="352" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="355">
-        <v>44144</v>
-      </c>
-      <c r="C47" s="356" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D47" s="356" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E47" s="371" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F47" s="381" t="s">
-        <v>951</v>
-      </c>
-      <c r="G47" s="354" t="s">
-        <v>953</v>
-      </c>
-      <c r="H47" s="358" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="349"/>
-      <c r="C48" s="350" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D48" s="350" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E48" s="372" t="s">
-        <v>1681</v>
-      </c>
-      <c r="F48" s="351"/>
-      <c r="G48" s="352"/>
-      <c r="H48" s="350" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="349"/>
-      <c r="C49" s="350" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D49" s="350" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E49" s="372" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F49" s="351" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G49" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H49" s="350" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="349"/>
-      <c r="C50" s="350" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D50" s="350" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E50" s="350"/>
-      <c r="F50" s="351"/>
-      <c r="G50" s="352"/>
-      <c r="H50" s="350" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="373">
-        <v>44165</v>
-      </c>
-      <c r="C53" s="374" t="s">
+      <c r="H95" s="349" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="F96" s="342"/>
+      <c r="G96" s="342"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="367">
+        <v>44640</v>
+      </c>
+      <c r="C97" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D97" s="369" t="s">
+        <v>942</v>
+      </c>
+      <c r="E97" s="370" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F97" s="402" t="s">
+        <v>129</v>
+      </c>
+      <c r="G97" s="353" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H97" s="349" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="367">
+        <v>44563</v>
+      </c>
+      <c r="C98" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D98" s="369" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E98" s="370" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F98" s="356" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G98" s="353" t="s">
+        <v>979</v>
+      </c>
+      <c r="H98" s="403" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="367">
+        <v>44581</v>
+      </c>
+      <c r="C99" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D99" s="369" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E99" s="370" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F99" s="356" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G99" s="353" t="s">
+        <v>979</v>
+      </c>
+      <c r="H99" s="349"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="404">
+        <v>44581</v>
+      </c>
+      <c r="C100" s="405" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D100" s="405" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E100" s="406" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F100" s="407" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G100" s="408" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H100" s="409" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="367">
+        <v>44581</v>
+      </c>
+      <c r="C101" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D101" s="369" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E101" s="370" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F101" s="356" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G101" s="353" t="s">
+        <v>895</v>
+      </c>
+      <c r="H101" s="349" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="367">
+        <v>44581</v>
+      </c>
+      <c r="C102" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D102" s="369" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E102" s="370" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F102" s="356" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G102" s="353" t="s">
+        <v>979</v>
+      </c>
+      <c r="H102" s="349" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="367">
+        <v>44606</v>
+      </c>
+      <c r="C103" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D103" s="369" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E103" s="370" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F103" s="356" t="s">
+        <v>975</v>
+      </c>
+      <c r="G103" s="353" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H103" s="349" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="367">
+        <v>44661</v>
+      </c>
+      <c r="C104" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D104" s="369" t="s">
         <v>1450</v>
       </c>
-      <c r="D53" s="356" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E53" s="296" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F53" s="357" t="s">
+      <c r="E104" s="370" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F104" s="356" t="s">
         <v>1453</v>
       </c>
-      <c r="G53" s="357" t="s">
+      <c r="G104" s="353" t="s">
         <v>1454</v>
       </c>
-      <c r="H53" s="358" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="373">
-        <v>44165</v>
-      </c>
-      <c r="C54" s="374" t="s">
+      <c r="H104" s="349"/>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="367">
+        <v>44139</v>
+      </c>
+      <c r="C105" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D105" s="369" t="s">
         <v>1450</v>
       </c>
-      <c r="D54" s="356" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E54" s="296" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F54" s="357" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G54" s="357" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H54" s="382" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="349"/>
-      <c r="C55" s="361" t="s">
+      <c r="E105" s="370" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F105" s="356" t="s">
+        <v>47</v>
+      </c>
+      <c r="G105" s="353" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H105" s="349" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="348"/>
+      <c r="C106" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D106" s="369" t="s">
         <v>1450</v>
       </c>
-      <c r="D55" s="350" t="s">
+      <c r="E106" s="349" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F106" s="382" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G106" s="353" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H106" s="349"/>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="348"/>
+      <c r="C107" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D107" s="369" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E107" s="349" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F107" s="382" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G107" s="353" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H107" s="349"/>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="348">
+        <v>44873</v>
+      </c>
+      <c r="C108" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D108" s="369" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="349" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="367">
+        <v>44652</v>
+      </c>
+      <c r="C109" s="369" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D109" s="369" t="s">
+        <v>751</v>
+      </c>
+      <c r="E109" s="370" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F109" s="356" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="353" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="349" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="421">
+        <v>44910</v>
+      </c>
+      <c r="C110" s="422" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D110" s="422" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E110" s="423" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F110" s="424"/>
+      <c r="G110" s="425"/>
+      <c r="H110" s="426" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="348"/>
+      <c r="C111" s="349" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D111" s="349" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E111" s="349" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F111" s="353" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G111" s="351" t="s">
+        <v>979</v>
+      </c>
+      <c r="H111" s="349"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="348">
+        <v>44313</v>
+      </c>
+      <c r="C112" s="349" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D112" s="349" t="s">
+        <v>754</v>
+      </c>
+      <c r="E112" s="349" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F112" s="356">
+        <v>1059</v>
+      </c>
+      <c r="G112" s="351" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" s="349" t="s">
         <v>1458</v>
       </c>
-      <c r="E55" s="350" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F55" s="383" t="s">
-        <v>882</v>
-      </c>
-      <c r="G55" s="354" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H55" s="350"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="F56" s="343"/>
-      <c r="G56" s="343"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="F57" s="343"/>
-      <c r="G57" s="343"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="368"/>
-      <c r="C58" s="361" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D58" s="384" t="s">
-        <v>874</v>
-      </c>
-      <c r="E58" s="369" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F58" s="368" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G58" s="368" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H58" s="384"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="349"/>
-      <c r="C59" s="361" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D59" s="384" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E59" s="384"/>
-      <c r="F59" s="369" t="s">
-        <v>47</v>
-      </c>
-      <c r="G59" s="368" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H59" s="384"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="349"/>
-      <c r="C60" s="361" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D60" s="384" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E60" s="384" t="s">
-        <v>128</v>
-      </c>
-      <c r="F60" s="369" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G60" s="368" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H60" s="384"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="349"/>
-      <c r="C61" s="361" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D61" s="350" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E61" s="350"/>
-      <c r="F61" s="383" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G61" s="352" t="s">
-        <v>845</v>
-      </c>
-      <c r="H61" s="350"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="349"/>
-      <c r="C62" s="350" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D62" s="350" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E62" s="350"/>
-      <c r="F62" s="351"/>
-      <c r="G62" s="352"/>
-      <c r="H62" s="350" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="368">
-        <v>44295</v>
-      </c>
-      <c r="C63" s="362" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D63" s="370" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E63" s="371" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F63" s="357" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G63" s="354" t="s">
-        <v>845</v>
-      </c>
-      <c r="H63" s="350" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="368">
-        <v>44295</v>
-      </c>
-      <c r="C64" s="362" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D64" s="370" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E64" s="371" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F64" s="357" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G64" s="354" t="s">
-        <v>845</v>
-      </c>
-      <c r="H64" s="350" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="368">
-        <v>44147</v>
-      </c>
-      <c r="C65" s="362" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D65" s="370" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E65" s="371" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F65" s="357" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G65" s="354" t="s">
-        <v>845</v>
-      </c>
-      <c r="H65" s="350" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="349"/>
-      <c r="C66" s="350" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D66" s="350" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E66" s="350"/>
-      <c r="F66" s="351"/>
-      <c r="G66" s="352"/>
-      <c r="H66" s="350" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="349"/>
-      <c r="C67" s="350" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D67" s="350" t="s">
-        <v>1692</v>
-      </c>
-      <c r="E67" s="350"/>
-      <c r="F67" s="351"/>
-      <c r="G67" s="352"/>
-      <c r="H67" s="350" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="349"/>
-      <c r="C68" s="350" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D68" s="350" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E68" s="372" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F68" s="351" t="s">
-        <v>1696</v>
-      </c>
-      <c r="G68" s="352" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H68" s="350"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="355">
-        <v>44162</v>
-      </c>
-      <c r="C69" s="374" t="s">
-        <v>751</v>
-      </c>
-      <c r="D69" s="356" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E69" s="357" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F69" s="357" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="357" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H69" s="382"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="373">
-        <v>44302</v>
-      </c>
-      <c r="C70" s="374" t="s">
-        <v>751</v>
-      </c>
-      <c r="D70" s="356" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E70" s="357" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F70" s="357" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G70" s="357" t="s">
-        <v>845</v>
-      </c>
-      <c r="H70" s="358" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="355"/>
-      <c r="C71" s="374" t="s">
-        <v>751</v>
-      </c>
-      <c r="D71" s="356" t="s">
-        <v>748</v>
-      </c>
-      <c r="E71" s="357" t="s">
-        <v>748</v>
-      </c>
-      <c r="F71" s="357" t="s">
-        <v>28</v>
-      </c>
-      <c r="G71" s="357" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="358" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="373">
-        <v>44139</v>
-      </c>
-      <c r="C72" s="374" t="s">
-        <v>751</v>
-      </c>
-      <c r="D72" s="356" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E72" s="357" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F72" s="357" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="357" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="358" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="385">
-        <v>44302</v>
-      </c>
-      <c r="C73" s="350" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D73" s="350" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E73" s="350" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F73" s="351" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G73" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H73" s="350" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="385">
-        <v>44302</v>
-      </c>
-      <c r="C74" s="350" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D74" s="350" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E74" s="350"/>
-      <c r="F74" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H74" s="350"/>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="349"/>
-      <c r="C75" s="350" t="s">
-        <v>1703</v>
-      </c>
-      <c r="D75" s="350" t="s">
-        <v>1704</v>
-      </c>
-      <c r="E75" s="350" t="s">
-        <v>1705</v>
-      </c>
-      <c r="F75" s="354" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G75" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H75" s="350"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="349"/>
-      <c r="C76" s="350" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D76" s="350" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E76" s="350" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F76" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H76" s="350"/>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="349"/>
-      <c r="C77" s="350" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D77" s="350" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E77" s="350"/>
-      <c r="F77" s="351"/>
-      <c r="G77" s="352"/>
-      <c r="H77" s="350" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="349"/>
-      <c r="C78" s="350" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D78" s="350" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E78" s="350"/>
-      <c r="F78" s="351"/>
-      <c r="G78" s="352"/>
-      <c r="H78" s="350" t="s">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="349"/>
-      <c r="C79" s="350" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D79" s="350" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E79" s="350"/>
-      <c r="F79" s="351"/>
-      <c r="G79" s="352"/>
-      <c r="H79" s="350" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="F80" s="343"/>
-      <c r="G80" s="343"/>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" s="349"/>
-      <c r="C81" s="350" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D81" s="350" t="s">
-        <v>1715</v>
-      </c>
-      <c r="E81" s="350" t="s">
-        <v>1716</v>
-      </c>
-      <c r="F81" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="352" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H81" s="350" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="349"/>
-      <c r="C82" s="350" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D82" s="350" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E82" s="350" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F82" s="351" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="352"/>
-      <c r="H82" s="350" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="368">
-        <v>44329</v>
-      </c>
-      <c r="C83" s="362" t="s">
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="348">
+        <v>44313</v>
+      </c>
+      <c r="C113" s="349" t="s">
         <v>1477</v>
       </c>
-      <c r="D83" s="370" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E83" s="370" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F83" s="357" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G83" s="354" t="s">
-        <v>979</v>
-      </c>
-      <c r="H83" s="350" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="368">
-        <v>44329</v>
-      </c>
-      <c r="C84" s="362" t="s">
+      <c r="D113" s="349" t="s">
+        <v>754</v>
+      </c>
+      <c r="E113" s="349" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F113" s="356" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G113" s="367" t="s">
+        <v>883</v>
+      </c>
+      <c r="H113" s="349" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="30">
+      <c r="B114" s="367">
+        <v>44874</v>
+      </c>
+      <c r="C114" s="369" t="s">
         <v>1477</v>
       </c>
-      <c r="D84" s="370" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E84" s="370" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F84" s="357" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="354" t="s">
-        <v>895</v>
-      </c>
-      <c r="H84" s="350" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" s="368">
-        <v>44369</v>
-      </c>
-      <c r="C86" s="362" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D86" s="370" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E86" s="371" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F86" s="386" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G86" s="387" t="s">
-        <v>18</v>
-      </c>
-      <c r="H86" s="350" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="368">
-        <v>44329</v>
-      </c>
-      <c r="C87" s="362" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D87" s="370" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E87" s="388" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F87" s="357" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G87" s="354" t="s">
-        <v>0</v>
-      </c>
-      <c r="H87" s="350" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="368">
-        <v>44329</v>
-      </c>
-      <c r="C88" s="362" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D88" s="370" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E88" s="371" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F88" s="357" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G88" s="354" t="s">
-        <v>0</v>
-      </c>
-      <c r="H88" s="350" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="389">
-        <v>44925</v>
-      </c>
-      <c r="C89" s="362" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D89" s="391" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E89" s="392" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F89" s="428" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G89" s="394" t="s">
-        <v>979</v>
-      </c>
-      <c r="H89" s="429" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="45">
-      <c r="B90" s="389">
-        <v>44511</v>
-      </c>
-      <c r="C90" s="390" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D90" s="391" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E90" s="392" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F90" s="393" t="s">
-        <v>129</v>
-      </c>
-      <c r="G90" s="394" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H90" s="395" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="396"/>
-      <c r="C91" s="397"/>
-      <c r="D91" s="397"/>
-      <c r="E91" s="398"/>
-      <c r="F91" s="399"/>
-      <c r="G91" s="400"/>
-      <c r="H91" s="401"/>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="396"/>
-      <c r="C92" s="397"/>
-      <c r="D92" s="397"/>
-      <c r="E92" s="398"/>
-      <c r="F92" s="399"/>
-      <c r="G92" s="400"/>
-      <c r="H92" s="401"/>
-    </row>
-    <row r="93" spans="2:8" ht="30">
-      <c r="B93" s="402" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C93" s="402" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D93" s="402" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E93" s="402" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F93" s="402" t="s">
-        <v>172</v>
-      </c>
-      <c r="G93" s="402" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="402" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="368">
-        <v>44581</v>
-      </c>
-      <c r="C94" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D94" s="370" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E94" s="371"/>
-      <c r="F94" s="357" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" s="403" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H94" s="350" t="s">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="F95" s="343"/>
-      <c r="G95" s="343"/>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="368">
-        <v>44640</v>
-      </c>
-      <c r="C96" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D96" s="370" t="s">
-        <v>942</v>
-      </c>
-      <c r="E96" s="371" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F96" s="403" t="s">
-        <v>129</v>
-      </c>
-      <c r="G96" s="354" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H96" s="350" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="368">
-        <v>44563</v>
-      </c>
-      <c r="C97" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D97" s="370" t="s">
+      <c r="D114" s="369" t="s">
         <v>1346</v>
       </c>
-      <c r="E97" s="371" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F97" s="357" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G97" s="354" t="s">
-        <v>979</v>
-      </c>
-      <c r="H97" s="404" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="368">
-        <v>44581</v>
-      </c>
-      <c r="C98" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D98" s="370" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E98" s="371" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F98" s="357" t="s">
-        <v>1585</v>
-      </c>
-      <c r="G98" s="354" t="s">
-        <v>979</v>
-      </c>
-      <c r="H98" s="350"/>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="405">
-        <v>44581</v>
-      </c>
-      <c r="C99" s="406" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D99" s="406" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E99" s="407" t="s">
-        <v>1724</v>
-      </c>
-      <c r="F99" s="408" t="s">
-        <v>1725</v>
-      </c>
-      <c r="G99" s="409" t="s">
-        <v>1726</v>
-      </c>
-      <c r="H99" s="410" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="368">
-        <v>44581</v>
-      </c>
-      <c r="C100" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D100" s="370" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E100" s="371" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F100" s="357" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G100" s="354" t="s">
-        <v>895</v>
-      </c>
-      <c r="H100" s="350" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="368">
-        <v>44581</v>
-      </c>
-      <c r="C101" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D101" s="370" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E101" s="371" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F101" s="357" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G101" s="354" t="s">
-        <v>979</v>
-      </c>
-      <c r="H101" s="350" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="368">
-        <v>44606</v>
-      </c>
-      <c r="C102" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D102" s="370" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E102" s="371" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F102" s="357" t="s">
-        <v>975</v>
-      </c>
-      <c r="G102" s="354" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H102" s="350" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="368">
-        <v>44661</v>
-      </c>
-      <c r="C103" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D103" s="370" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E103" s="371" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F103" s="357" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G103" s="354" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H103" s="350"/>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="368">
-        <v>44139</v>
-      </c>
-      <c r="C104" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D104" s="370" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E104" s="371" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F104" s="357" t="s">
-        <v>47</v>
-      </c>
-      <c r="G104" s="354" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H104" s="350" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="349"/>
-      <c r="C105" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D105" s="370" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E105" s="350" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F105" s="383" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G105" s="354" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H105" s="350"/>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="349"/>
-      <c r="C106" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D106" s="370" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E106" s="350" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F106" s="383" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G106" s="354" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H106" s="350"/>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="349">
-        <v>44873</v>
-      </c>
-      <c r="C107" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D107" s="370" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F107" s="28" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G107" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" s="350" t="s">
+      <c r="E114" s="370" t="s">
+        <v>752</v>
+      </c>
+      <c r="F114" s="414" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G114" s="353" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="362" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="108" spans="2:8">
-      <c r="B108" s="368">
-        <v>44652</v>
-      </c>
-      <c r="C108" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D108" s="370" t="s">
-        <v>751</v>
-      </c>
-      <c r="E108" s="371" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F108" s="357" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" s="354" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="350" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="422">
-        <v>44910</v>
-      </c>
-      <c r="C109" s="423" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D109" s="423" t="s">
-        <v>1728</v>
-      </c>
-      <c r="E109" s="424" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F109" s="425"/>
-      <c r="G109" s="426"/>
-      <c r="H109" s="427" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="349"/>
-      <c r="C110" s="350" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D110" s="350" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E110" s="350" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F110" s="354" t="s">
+    <row r="115" spans="2:8">
+      <c r="B115" s="367"/>
+      <c r="C115" s="369"/>
+      <c r="D115" s="369"/>
+      <c r="E115" s="370"/>
+      <c r="F115" s="356"/>
+      <c r="G115" s="353"/>
+      <c r="H115" s="349"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="367"/>
+      <c r="C116" s="369"/>
+      <c r="D116" s="369"/>
+      <c r="E116" s="370"/>
+      <c r="F116" s="356"/>
+      <c r="G116" s="353"/>
+      <c r="H116" s="349"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="367"/>
+      <c r="C117" s="369"/>
+      <c r="D117" s="369"/>
+      <c r="E117" s="370"/>
+      <c r="F117" s="356"/>
+      <c r="G117" s="353"/>
+      <c r="H117" s="349"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="367"/>
+      <c r="C118" s="369"/>
+      <c r="D118" s="369"/>
+      <c r="E118" s="370"/>
+      <c r="F118" s="356"/>
+      <c r="G118" s="353"/>
+      <c r="H118" s="349"/>
+    </row>
+    <row r="119" spans="2:8" ht="15.75">
+      <c r="B119" s="367"/>
+      <c r="C119" s="369"/>
+      <c r="D119" s="413"/>
+      <c r="E119" s="370"/>
+      <c r="F119" s="356"/>
+      <c r="G119" s="353"/>
+      <c r="H119" s="349"/>
+    </row>
+    <row r="120" spans="2:8" ht="15.75">
+      <c r="B120" s="367"/>
+      <c r="C120" s="369"/>
+      <c r="D120" s="413" t="s">
         <v>1733</v>
       </c>
-      <c r="G110" s="352" t="s">
-        <v>979</v>
-      </c>
-      <c r="H110" s="350"/>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="349">
-        <v>44313</v>
-      </c>
-      <c r="C111" s="350" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D111" s="350" t="s">
-        <v>754</v>
-      </c>
-      <c r="E111" s="350" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F111" s="357">
-        <v>1059</v>
-      </c>
-      <c r="G111" s="352" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" s="350" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="349">
-        <v>44313</v>
-      </c>
-      <c r="C112" s="350" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D112" s="350" t="s">
-        <v>754</v>
-      </c>
-      <c r="E112" s="350" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F112" s="357" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G112" s="368" t="s">
-        <v>883</v>
-      </c>
-      <c r="H112" s="350" t="s">
+      <c r="E120" s="370"/>
+      <c r="F120" s="356"/>
+      <c r="G120" s="353"/>
+      <c r="H120" s="349"/>
+    </row>
+    <row r="121" spans="2:8" ht="15.75">
+      <c r="B121" s="367"/>
+      <c r="C121" s="369"/>
+      <c r="D121" s="413"/>
+      <c r="E121" s="370"/>
+      <c r="F121" s="356"/>
+      <c r="G121" s="353"/>
+      <c r="H121" s="349"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="367"/>
+      <c r="C122" s="369"/>
+      <c r="D122" s="83" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" ht="30">
-      <c r="B113" s="368">
-        <v>44874</v>
-      </c>
-      <c r="C113" s="370" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D113" s="370" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E113" s="371" t="s">
-        <v>752</v>
-      </c>
-      <c r="F113" s="415" t="s">
-        <v>1743</v>
-      </c>
-      <c r="G113" s="354" t="s">
-        <v>37</v>
-      </c>
-      <c r="H113" s="363" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8">
-      <c r="B114" s="368"/>
-      <c r="C114" s="370"/>
-      <c r="D114" s="370"/>
-      <c r="E114" s="371"/>
-      <c r="F114" s="357"/>
-      <c r="G114" s="354"/>
-      <c r="H114" s="350"/>
-    </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="368"/>
-      <c r="C115" s="370"/>
-      <c r="D115" s="370"/>
-      <c r="E115" s="371"/>
-      <c r="F115" s="357"/>
-      <c r="G115" s="354"/>
-      <c r="H115" s="350"/>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="368"/>
-      <c r="C116" s="370"/>
-      <c r="D116" s="370"/>
-      <c r="E116" s="371"/>
-      <c r="F116" s="357"/>
-      <c r="G116" s="354"/>
-      <c r="H116" s="350"/>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="368"/>
-      <c r="C117" s="370"/>
-      <c r="D117" s="370"/>
-      <c r="E117" s="371"/>
-      <c r="F117" s="357"/>
-      <c r="G117" s="354"/>
-      <c r="H117" s="350"/>
-    </row>
-    <row r="118" spans="2:8" ht="15.75">
-      <c r="B118" s="368"/>
-      <c r="C118" s="370"/>
-      <c r="D118" s="414"/>
-      <c r="E118" s="371"/>
-      <c r="F118" s="357"/>
-      <c r="G118" s="354"/>
-      <c r="H118" s="350"/>
-    </row>
-    <row r="119" spans="2:8" ht="15.75">
-      <c r="B119" s="368"/>
-      <c r="C119" s="370"/>
-      <c r="D119" s="414" t="s">
+      <c r="E122" s="370"/>
+      <c r="F122" s="356"/>
+      <c r="G122" s="353"/>
+      <c r="H122" s="349"/>
+    </row>
+    <row r="123" spans="2:8" ht="15.75">
+      <c r="B123" s="367"/>
+      <c r="C123" s="369"/>
+      <c r="D123" s="413" t="s">
         <v>1735</v>
       </c>
-      <c r="E119" s="371"/>
-      <c r="F119" s="357"/>
-      <c r="G119" s="354"/>
-      <c r="H119" s="350"/>
-    </row>
-    <row r="120" spans="2:8" ht="15.75">
-      <c r="B120" s="368"/>
-      <c r="C120" s="370"/>
-      <c r="D120" s="414"/>
-      <c r="E120" s="371"/>
-      <c r="F120" s="357"/>
-      <c r="G120" s="354"/>
-      <c r="H120" s="350"/>
-    </row>
-    <row r="121" spans="2:8">
-      <c r="B121" s="368"/>
-      <c r="C121" s="370"/>
-      <c r="D121" s="83" t="s">
+      <c r="E123" s="370"/>
+      <c r="F123" s="356"/>
+      <c r="G123" s="353"/>
+      <c r="H123" s="349"/>
+    </row>
+    <row r="124" spans="2:8" ht="15.75">
+      <c r="B124" s="367"/>
+      <c r="C124" s="369"/>
+      <c r="D124" s="413" t="s">
         <v>1736</v>
       </c>
-      <c r="E121" s="371"/>
-      <c r="F121" s="357"/>
-      <c r="G121" s="354"/>
-      <c r="H121" s="350"/>
-    </row>
-    <row r="122" spans="2:8" ht="15.75">
-      <c r="B122" s="368"/>
-      <c r="C122" s="370"/>
-      <c r="D122" s="414" t="s">
+      <c r="E124" s="370"/>
+      <c r="F124" s="356"/>
+      <c r="G124" s="353"/>
+      <c r="H124" s="349"/>
+    </row>
+    <row r="125" spans="2:8" ht="15.75">
+      <c r="B125" s="367"/>
+      <c r="C125" s="369"/>
+      <c r="D125" s="413"/>
+      <c r="E125" s="370"/>
+      <c r="F125" s="356"/>
+      <c r="G125" s="353"/>
+      <c r="H125" s="349"/>
+    </row>
+    <row r="126" spans="2:8" ht="15.75">
+      <c r="B126" s="367"/>
+      <c r="C126" s="369"/>
+      <c r="D126" s="413" t="s">
         <v>1737</v>
       </c>
-      <c r="E122" s="371"/>
-      <c r="F122" s="357"/>
-      <c r="G122" s="354"/>
-      <c r="H122" s="350"/>
-    </row>
-    <row r="123" spans="2:8" ht="15.75">
-      <c r="B123" s="368"/>
-      <c r="C123" s="370"/>
-      <c r="D123" s="414" t="s">
+      <c r="E126" s="370"/>
+      <c r="F126" s="356"/>
+      <c r="G126" s="353"/>
+      <c r="H126" s="349"/>
+    </row>
+    <row r="127" spans="2:8" ht="15.75">
+      <c r="B127" s="367"/>
+      <c r="C127" s="369"/>
+      <c r="D127" s="413" t="s">
         <v>1738</v>
       </c>
-      <c r="E123" s="371"/>
-      <c r="F123" s="357"/>
-      <c r="G123" s="354"/>
-      <c r="H123" s="350"/>
-    </row>
-    <row r="124" spans="2:8" ht="15.75">
-      <c r="B124" s="368"/>
-      <c r="C124" s="370"/>
-      <c r="D124" s="414"/>
-      <c r="E124" s="371"/>
-      <c r="F124" s="357"/>
-      <c r="G124" s="354"/>
-      <c r="H124" s="350"/>
-    </row>
-    <row r="125" spans="2:8" ht="15.75">
-      <c r="B125" s="368"/>
-      <c r="C125" s="370"/>
-      <c r="D125" s="414" t="s">
+      <c r="E127" s="370"/>
+      <c r="F127" s="356"/>
+      <c r="G127" s="353"/>
+      <c r="H127" s="349"/>
+    </row>
+    <row r="128" spans="2:8" ht="15.75">
+      <c r="B128" s="367"/>
+      <c r="C128" s="369"/>
+      <c r="D128" s="413"/>
+      <c r="E128" s="370"/>
+      <c r="F128" s="356"/>
+      <c r="G128" s="353"/>
+      <c r="H128" s="349"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="367"/>
+      <c r="C129" s="369"/>
+      <c r="D129" s="83" t="s">
         <v>1739</v>
       </c>
-      <c r="E125" s="371"/>
-      <c r="F125" s="357"/>
-      <c r="G125" s="354"/>
-      <c r="H125" s="350"/>
-    </row>
-    <row r="126" spans="2:8" ht="15.75">
-      <c r="B126" s="368"/>
-      <c r="C126" s="370"/>
-      <c r="D126" s="414" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E126" s="371"/>
-      <c r="F126" s="357"/>
-      <c r="G126" s="354"/>
-      <c r="H126" s="350"/>
-    </row>
-    <row r="127" spans="2:8" ht="15.75">
-      <c r="B127" s="368"/>
-      <c r="C127" s="370"/>
-      <c r="D127" s="414"/>
-      <c r="E127" s="371"/>
-      <c r="F127" s="357"/>
-      <c r="G127" s="354"/>
-      <c r="H127" s="350"/>
-    </row>
-    <row r="128" spans="2:8">
-      <c r="B128" s="368"/>
-      <c r="C128" s="370"/>
-      <c r="D128" s="83" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E128" s="371"/>
-      <c r="F128" s="357"/>
-      <c r="G128" s="354"/>
-      <c r="H128" s="350"/>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="368"/>
-      <c r="C129" s="370"/>
-      <c r="D129" s="370"/>
-      <c r="E129" s="371"/>
-      <c r="F129" s="357"/>
-      <c r="G129" s="354"/>
-      <c r="H129" s="350"/>
+      <c r="E129" s="370"/>
+      <c r="F129" s="356"/>
+      <c r="G129" s="353"/>
+      <c r="H129" s="349"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="367"/>
+      <c r="C130" s="369"/>
+      <c r="D130" s="369"/>
+      <c r="E130" s="370"/>
+      <c r="F130" s="356"/>
+      <c r="G130" s="353"/>
+      <c r="H130" s="349"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H90" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
+  <autoFilter ref="B6:H91" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
-    <hyperlink ref="F38" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
-    <hyperlink ref="F46" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
-    <hyperlink ref="F29" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
-    <hyperlink ref="E29" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
-    <hyperlink ref="E36" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
-    <hyperlink ref="F36" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
-    <hyperlink ref="F45" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
-    <hyperlink ref="F28" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
-    <hyperlink ref="E68" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
-    <hyperlink ref="F68" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
-    <hyperlink ref="F76" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
-    <hyperlink ref="F40" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
-    <hyperlink ref="E40" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
-    <hyperlink ref="E49" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
-    <hyperlink ref="E48" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
-    <hyperlink ref="E23" r:id="rId17" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
-    <hyperlink ref="F25" r:id="rId18" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
-    <hyperlink ref="E24" r:id="rId19" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
+    <hyperlink ref="E40" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
+    <hyperlink ref="F39" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
+    <hyperlink ref="F47" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
+    <hyperlink ref="F30" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
+    <hyperlink ref="E30" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
+    <hyperlink ref="E37" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
+    <hyperlink ref="F37" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
+    <hyperlink ref="F46" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
+    <hyperlink ref="F29" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
+    <hyperlink ref="E69" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
+    <hyperlink ref="F69" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
+    <hyperlink ref="F77" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
+    <hyperlink ref="F41" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
+    <hyperlink ref="E41" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
+    <hyperlink ref="E50" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
+    <hyperlink ref="E49" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
+    <hyperlink ref="F26" r:id="rId18" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
     <hyperlink ref="F7" r:id="rId20" xr:uid="{E4AAAD17-E368-4C88-BEAB-E6FBFA07372F}"/>
     <hyperlink ref="E7" r:id="rId21" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
     <hyperlink ref="E8" r:id="rId22" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
-    <hyperlink ref="E27" r:id="rId23" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
-    <hyperlink ref="E53" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
-    <hyperlink ref="E54" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
-    <hyperlink ref="E87" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
-    <hyperlink ref="F90" r:id="rId27" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
-    <hyperlink ref="E31" r:id="rId29" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
-    <hyperlink ref="G94" r:id="rId30" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
-    <hyperlink ref="F96" r:id="rId31" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
-    <hyperlink ref="D121" r:id="rId32" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
-    <hyperlink ref="D128" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
-    <hyperlink ref="E107" r:id="rId34" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
+    <hyperlink ref="E28" r:id="rId23" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
+    <hyperlink ref="E54" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
+    <hyperlink ref="E55" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
+    <hyperlink ref="E88" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
+    <hyperlink ref="F91" r:id="rId27" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
+    <hyperlink ref="F32" r:id="rId28" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
+    <hyperlink ref="E32" r:id="rId29" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
+    <hyperlink ref="G95" r:id="rId30" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
+    <hyperlink ref="F97" r:id="rId31" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
+    <hyperlink ref="D122" r:id="rId32" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
+    <hyperlink ref="D129" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
+    <hyperlink ref="E108" r:id="rId34" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
@@ -18366,31 +18438,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="450" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="452" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="453"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="453"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="455">
+      <c r="B4" s="454">
         <v>43396</v>
       </c>
-      <c r="C4" s="455"/>
-      <c r="D4" s="455"/>
-      <c r="E4" s="455"/>
-      <c r="F4" s="455"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -22404,71 +22476,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="469" t="s">
+      <c r="A2" s="470" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="471" t="s">
+      <c r="C2" s="472" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="473" t="s">
+      <c r="E2" s="474" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="475" t="s">
+      <c r="F2" s="466" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="475" t="s">
+      <c r="G2" s="466" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="467" t="s">
+      <c r="H2" s="468" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="475" t="s">
+      <c r="I2" s="466" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="475"/>
-      <c r="K2" s="475"/>
-      <c r="L2" s="467" t="s">
+      <c r="J2" s="466"/>
+      <c r="K2" s="466"/>
+      <c r="L2" s="468" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="467" t="s">
+      <c r="M2" s="468" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="475" t="s">
+      <c r="N2" s="466" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="475" t="s">
+      <c r="O2" s="466" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="467" t="s">
+      <c r="P2" s="468" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="475" t="s">
+      <c r="Q2" s="466" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="475" t="s">
+      <c r="R2" s="466" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="467" t="s">
+      <c r="S2" s="468" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="470"/>
+      <c r="A3" s="471"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="472"/>
+      <c r="C3" s="473"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="474"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="468"/>
+      <c r="E3" s="475"/>
+      <c r="F3" s="467"/>
+      <c r="G3" s="467"/>
+      <c r="H3" s="469"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22478,14 +22550,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="468"/>
-      <c r="M3" s="468"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="468"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="468"/>
+      <c r="L3" s="469"/>
+      <c r="M3" s="469"/>
+      <c r="N3" s="467"/>
+      <c r="O3" s="467"/>
+      <c r="P3" s="469"/>
+      <c r="Q3" s="467"/>
+      <c r="R3" s="467"/>
+      <c r="S3" s="469"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -26428,6 +26500,12 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26437,12 +26515,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -27404,19 +27476,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="477" t="s">
+      <c r="B1" s="476" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="477"/>
-      <c r="D1" s="477"/>
-      <c r="E1" s="477"/>
-      <c r="F1" s="477"/>
-      <c r="G1" s="477"/>
-      <c r="H1" s="477"/>
-      <c r="I1" s="477"/>
-      <c r="J1" s="477"/>
-      <c r="K1" s="477"/>
-      <c r="L1" s="477"/>
+      <c r="C1" s="476"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="476"/>
+      <c r="F1" s="476"/>
+      <c r="G1" s="476"/>
+      <c r="H1" s="476"/>
+      <c r="I1" s="476"/>
+      <c r="J1" s="476"/>
+      <c r="K1" s="476"/>
+      <c r="L1" s="476"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -28036,43 +28108,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="452" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="453"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="478" t="s">
+      <c r="A3" s="477" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -28121,97 +28193,97 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A36"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="319" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="320" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="318" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="319" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="261" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="265" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" style="265" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="265" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="265" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.7109375" style="21" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="21"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="440" t="s">
+      <c r="B2" s="439" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+      <c r="H2" s="439"/>
+      <c r="I2" s="439"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="441" t="s">
+      <c r="B3" s="440" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="441"/>
-      <c r="F3" s="441"/>
-      <c r="G3" s="441"/>
-      <c r="H3" s="441"/>
-      <c r="I3" s="441"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
+      <c r="I3" s="440"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="442">
-        <v>44459</v>
-      </c>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
-      <c r="I4" s="442"/>
+      <c r="B4" s="441">
+        <v>45263</v>
+      </c>
+      <c r="C4" s="441"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="441"/>
+      <c r="F4" s="441"/>
+      <c r="G4" s="441"/>
+      <c r="H4" s="441"/>
+      <c r="I4" s="441"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="443"/>
-      <c r="C5" s="443"/>
-      <c r="D5" s="443"/>
-      <c r="E5" s="443"/>
-      <c r="F5" s="443"/>
-      <c r="G5" s="443"/>
-      <c r="H5" s="443"/>
-      <c r="I5" s="443"/>
+      <c r="B5" s="442"/>
+      <c r="C5" s="442"/>
+      <c r="D5" s="442"/>
+      <c r="E5" s="442"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="442"/>
+      <c r="H5" s="442"/>
+      <c r="I5" s="442"/>
     </row>
     <row r="6" spans="2:9" ht="15">
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="495" t="s">
         <v>1537</v>
       </c>
-      <c r="C6" s="260" t="s">
+      <c r="C6" s="495" t="s">
         <v>1538</v>
       </c>
-      <c r="D6" s="260" t="s">
+      <c r="D6" s="495" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="289" t="s">
+      <c r="E6" s="495" t="s">
         <v>1539</v>
       </c>
-      <c r="F6" s="262" t="s">
+      <c r="F6" s="495" t="s">
         <v>1540</v>
       </c>
-      <c r="G6" s="262" t="s">
+      <c r="G6" s="495" t="s">
         <v>1541</v>
       </c>
-      <c r="H6" s="262" t="s">
-        <v>1573</v>
-      </c>
-      <c r="I6" s="260" t="s">
-        <v>1556</v>
+      <c r="H6" s="495" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I6" s="495" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="318">
+      <c r="B7" s="317">
         <v>23</v>
       </c>
       <c r="C7" s="298">
@@ -28233,7 +28305,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="318">
+      <c r="B8" s="317">
         <v>24</v>
       </c>
       <c r="C8" s="298">
@@ -28255,7 +28327,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="318">
+      <c r="B9" s="317">
         <v>25</v>
       </c>
       <c r="C9" s="298">
@@ -28277,7 +28349,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="318">
+      <c r="B10" s="317">
         <v>1771</v>
       </c>
       <c r="C10" s="298">
@@ -28299,7 +28371,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="318">
+      <c r="B11" s="317">
         <v>2182</v>
       </c>
       <c r="C11" s="298">
@@ -28321,7 +28393,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="318"/>
+      <c r="B12" s="317"/>
       <c r="C12" s="298"/>
       <c r="D12" s="257"/>
       <c r="E12" s="263"/>
@@ -28331,45 +28403,45 @@
       <c r="I12" s="258"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="318" t="s">
-        <v>1568</v>
+      <c r="B13" s="317" t="s">
+        <v>1567</v>
       </c>
       <c r="C13" s="298">
         <v>3</v>
       </c>
       <c r="D13" s="257" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E13" s="263" t="s">
         <v>1557</v>
-      </c>
-      <c r="E13" s="263" t="s">
-        <v>1558</v>
       </c>
       <c r="F13" s="288"/>
       <c r="G13" s="264" t="s">
-        <v>1559</v>
-      </c>
-      <c r="H13" s="321"/>
+        <v>1558</v>
+      </c>
+      <c r="H13" s="320"/>
       <c r="I13" s="291" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="318" t="s">
+      <c r="B14" s="317" t="s">
         <v>1520</v>
       </c>
       <c r="C14" s="298">
         <v>1</v>
       </c>
       <c r="D14" s="257" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E14" s="263" t="s">
         <v>1517</v>
       </c>
       <c r="F14" s="288" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G14" s="264" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H14" s="263" t="s">
         <v>845</v>
@@ -28379,23 +28451,23 @@
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="318" t="s">
-        <v>1570</v>
+      <c r="B15" s="317" t="s">
+        <v>1569</v>
       </c>
       <c r="C15" s="298">
         <v>4</v>
       </c>
       <c r="D15" s="257" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E15" s="263" t="s">
         <v>1562</v>
       </c>
-      <c r="E15" s="263" t="s">
+      <c r="F15" s="288" t="s">
+        <v>1570</v>
+      </c>
+      <c r="G15" s="264" t="s">
         <v>1563</v>
-      </c>
-      <c r="F15" s="288" t="s">
-        <v>1571</v>
-      </c>
-      <c r="G15" s="264" t="s">
-        <v>1564</v>
       </c>
       <c r="H15" s="264"/>
       <c r="I15" s="291" t="s">
@@ -28403,21 +28475,21 @@
       </c>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="318" t="s">
-        <v>1572</v>
+      <c r="B16" s="317" t="s">
+        <v>1571</v>
       </c>
       <c r="C16" s="298">
         <v>5</v>
       </c>
       <c r="D16" s="257" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E16" s="263" t="s">
         <v>1565</v>
-      </c>
-      <c r="E16" s="263" t="s">
-        <v>1566</v>
       </c>
       <c r="F16" s="288"/>
       <c r="G16" s="264" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H16" s="264"/>
       <c r="I16" s="291" t="s">
@@ -28425,17 +28497,31 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="318"/>
-      <c r="C17" s="298"/>
-      <c r="D17" s="257"/>
-      <c r="E17" s="263"/>
+      <c r="B17" s="317" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C17" s="298">
+        <v>2</v>
+      </c>
+      <c r="D17" s="257" t="s">
+        <v>873</v>
+      </c>
+      <c r="E17" s="263" t="s">
+        <v>1772</v>
+      </c>
       <c r="F17" s="288"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="264"/>
-      <c r="I17" s="258"/>
+      <c r="G17" s="264" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H17" s="264" t="s">
+        <v>845</v>
+      </c>
+      <c r="I17" s="291" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="318"/>
+      <c r="B18" s="317"/>
       <c r="C18" s="298"/>
       <c r="D18" s="257"/>
       <c r="E18" s="263"/>
@@ -28470,43 +28556,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="452" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="453"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="478" t="s">
+      <c r="A3" s="477" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28565,43 +28651,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="452" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="453"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="478" t="s">
+      <c r="A3" s="477" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28654,51 +28740,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="452" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="453"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="478" t="s">
+      <c r="A3" s="477" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
-      <c r="J3" s="480" t="s">
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
+      <c r="J3" s="479" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="480"/>
-      <c r="L3" s="480"/>
-      <c r="M3" s="480"/>
-      <c r="N3" s="480"/>
-      <c r="O3" s="480"/>
+      <c r="K3" s="479"/>
+      <c r="L3" s="479"/>
+      <c r="M3" s="479"/>
+      <c r="N3" s="479"/>
+      <c r="O3" s="479"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -28761,43 +28847,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="449" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="451"/>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
-      <c r="I1" s="451"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="452" t="s">
+      <c r="A2" s="451" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="453"/>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
-      <c r="H2" s="453"/>
-      <c r="I2" s="453"/>
+      <c r="B2" s="452"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
+      <c r="I2" s="452"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="478" t="s">
+      <c r="A3" s="477" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="479"/>
-      <c r="C3" s="479"/>
-      <c r="D3" s="479"/>
-      <c r="E3" s="479"/>
-      <c r="F3" s="479"/>
-      <c r="G3" s="479"/>
-      <c r="H3" s="479"/>
-      <c r="I3" s="479"/>
+      <c r="B3" s="478"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="478"/>
+      <c r="H3" s="478"/>
+      <c r="I3" s="478"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28928,16 +29014,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="487"/>
-      <c r="D10" s="488"/>
-      <c r="E10" s="489"/>
+      <c r="C10" s="486"/>
+      <c r="D10" s="487"/>
+      <c r="E10" s="488"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="490" t="s">
+      <c r="C11" s="489" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="491"/>
-      <c r="E11" s="492"/>
+      <c r="D11" s="490"/>
+      <c r="E11" s="491"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -28985,47 +29071,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="493"/>
-      <c r="D17" s="494"/>
-      <c r="E17" s="495"/>
+      <c r="C17" s="492"/>
+      <c r="D17" s="493"/>
+      <c r="E17" s="494"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="490" t="s">
+      <c r="C18" s="489" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="491"/>
-      <c r="E18" s="492"/>
+      <c r="D18" s="490"/>
+      <c r="E18" s="491"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="493"/>
-      <c r="D19" s="494"/>
-      <c r="E19" s="495"/>
+      <c r="C19" s="492"/>
+      <c r="D19" s="493"/>
+      <c r="E19" s="494"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="490" t="s">
+      <c r="C20" s="489" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="491"/>
-      <c r="E20" s="492"/>
+      <c r="D20" s="490"/>
+      <c r="E20" s="491"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="481"/>
-      <c r="D21" s="482"/>
-      <c r="E21" s="483"/>
+      <c r="C21" s="480"/>
+      <c r="D21" s="481"/>
+      <c r="E21" s="482"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="484" t="s">
+      <c r="C22" s="483" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="485"/>
-      <c r="E22" s="486"/>
+      <c r="D22" s="484"/>
+      <c r="E22" s="485"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="484" t="s">
+      <c r="C23" s="483" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="485"/>
-      <c r="E23" s="486"/>
+      <c r="D23" s="484"/>
+      <c r="E23" s="485"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -29408,8 +29494,8 @@
   <sheetPr codeName="Hoja11"/>
   <dimension ref="B1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -29430,46 +29516,46 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="440" t="s">
+      <c r="B2" s="439" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+      <c r="H2" s="439"/>
     </row>
     <row r="3" spans="2:10" ht="18">
-      <c r="B3" s="441" t="s">
+      <c r="B3" s="440" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="441"/>
-      <c r="D3" s="441"/>
-      <c r="E3" s="441"/>
-      <c r="F3" s="441"/>
-      <c r="G3" s="441"/>
-      <c r="H3" s="441"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="442">
+      <c r="B4" s="441">
         <v>44316</v>
       </c>
-      <c r="C4" s="442"/>
-      <c r="D4" s="442"/>
-      <c r="E4" s="442"/>
-      <c r="F4" s="442"/>
-      <c r="G4" s="442"/>
-      <c r="H4" s="442"/>
+      <c r="C4" s="441"/>
+      <c r="D4" s="441"/>
+      <c r="E4" s="441"/>
+      <c r="F4" s="441"/>
+      <c r="G4" s="441"/>
+      <c r="H4" s="441"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="443"/>
-      <c r="C5" s="443"/>
-      <c r="D5" s="443"/>
-      <c r="E5" s="443"/>
-      <c r="F5" s="443"/>
-      <c r="G5" s="443"/>
-      <c r="H5" s="443"/>
+      <c r="B5" s="442"/>
+      <c r="C5" s="442"/>
+      <c r="D5" s="442"/>
+      <c r="E5" s="442"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="442"/>
+      <c r="H5" s="442"/>
     </row>
     <row r="6" spans="2:10" ht="30">
       <c r="B6" s="267" t="s">
@@ -29612,7 +29698,7 @@
       <c r="B13" s="268">
         <v>44179</v>
       </c>
-      <c r="C13" s="413" t="s">
+      <c r="C13" s="412" t="s">
         <v>1391</v>
       </c>
       <c r="D13" s="257" t="s">
@@ -29635,7 +29721,7 @@
       <c r="B14" s="268">
         <v>44316</v>
       </c>
-      <c r="C14" s="413" t="s">
+      <c r="C14" s="412" t="s">
         <v>1395</v>
       </c>
       <c r="D14" s="257" t="s">
@@ -29817,477 +29903,477 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="450" t="s">
+      <c r="B1" s="449" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="451" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="453"/>
-      <c r="E2" s="453"/>
-      <c r="F2" s="453"/>
-      <c r="G2" s="453"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="454">
+      <c r="B3" s="453">
         <v>44133</v>
       </c>
-      <c r="C3" s="455"/>
-      <c r="D3" s="455"/>
-      <c r="E3" s="455"/>
-      <c r="F3" s="455"/>
-      <c r="G3" s="455"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="454"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="21"/>
-      <c r="B4" s="339" t="s">
+      <c r="B4" s="338" t="s">
         <v>1447</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="339" t="s">
         <v>1448</v>
       </c>
-      <c r="D4" s="340" t="s">
+      <c r="D4" s="339" t="s">
         <v>1449</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="339" t="s">
         <v>1336</v>
       </c>
-      <c r="F4" s="341" t="s">
+      <c r="F4" s="340" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="340" t="s">
+      <c r="G4" s="339" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="340" t="s">
+      <c r="H4" s="339" t="s">
         <v>1263</v>
       </c>
       <c r="J4" s="84"/>
     </row>
-    <row r="5" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B5" s="329">
+    <row r="5" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B5" s="328">
         <v>44581</v>
       </c>
-      <c r="C5" s="330" t="s">
+      <c r="C5" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D5" s="330" t="s">
+      <c r="D5" s="329" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E5" s="330"/>
+      <c r="F5" s="331" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="321" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H5" s="332" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B6" s="328">
+        <v>44640</v>
+      </c>
+      <c r="C6" s="329" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D6" s="329" t="s">
+        <v>942</v>
+      </c>
+      <c r="E6" s="330" t="s">
         <v>1577</v>
       </c>
-      <c r="E5" s="331"/>
-      <c r="F5" s="332" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="322" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H5" s="333" t="s">
+      <c r="F6" s="331" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B6" s="329">
+      <c r="G6" s="333" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H6" s="332" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B7" s="328">
         <v>44640</v>
       </c>
-      <c r="C6" s="330" t="s">
+      <c r="C7" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D6" s="330" t="s">
+      <c r="D7" s="329" t="s">
         <v>942</v>
       </c>
-      <c r="E6" s="331" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F6" s="332" t="s">
-        <v>1580</v>
-      </c>
-      <c r="G6" s="334" t="s">
+      <c r="E7" s="330" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F7" s="321" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="333" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H7" s="332" t="s">
         <v>1581</v>
       </c>
-      <c r="H6" s="333" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B7" s="329">
-        <v>44640</v>
-      </c>
-      <c r="C7" s="330" t="s">
+    </row>
+    <row r="8" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B8" s="328">
+        <v>44563</v>
+      </c>
+      <c r="C8" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D7" s="330" t="s">
-        <v>942</v>
-      </c>
-      <c r="E7" s="331" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F7" s="322" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="334" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H7" s="333" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B8" s="329">
-        <v>44563</v>
-      </c>
-      <c r="C8" s="330" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D8" s="330" t="s">
+      <c r="D8" s="329" t="s">
         <v>1346</v>
       </c>
-      <c r="E8" s="331" t="s">
+      <c r="E8" s="330" t="s">
         <v>1355</v>
       </c>
-      <c r="F8" s="332" t="s">
+      <c r="F8" s="331" t="s">
         <v>1502</v>
       </c>
-      <c r="G8" s="334" t="s">
+      <c r="G8" s="333" t="s">
         <v>979</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B9" s="329">
+    <row r="9" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B9" s="328">
         <v>44581</v>
       </c>
-      <c r="C9" s="330" t="s">
+      <c r="C9" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D9" s="330" t="s">
+      <c r="D9" s="329" t="s">
         <v>1346</v>
       </c>
-      <c r="E9" s="331" t="s">
+      <c r="E9" s="330" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F9" s="331" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G9" s="333" t="s">
+        <v>979</v>
+      </c>
+      <c r="H9" s="332"/>
+    </row>
+    <row r="10" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B10" s="328">
+        <v>44581</v>
+      </c>
+      <c r="C10" s="329" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D10" s="329" t="s">
         <v>1584</v>
       </c>
-      <c r="F9" s="332" t="s">
+      <c r="E10" s="330" t="s">
         <v>1585</v>
       </c>
-      <c r="G9" s="334" t="s">
+      <c r="F10" s="331" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G10" s="333" t="s">
+        <v>895</v>
+      </c>
+      <c r="H10" s="332" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B11" s="328">
+        <v>44581</v>
+      </c>
+      <c r="C11" s="329" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D11" s="329" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E11" s="330" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F11" s="331" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G11" s="333" t="s">
         <v>979</v>
       </c>
-      <c r="H9" s="333"/>
-    </row>
-    <row r="10" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B10" s="329">
-        <v>44581</v>
-      </c>
-      <c r="C10" s="330" t="s">
+      <c r="H11" s="332" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B12" s="328">
+        <v>44606</v>
+      </c>
+      <c r="C12" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D10" s="330" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E10" s="331" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F10" s="332" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G10" s="334" t="s">
-        <v>895</v>
-      </c>
-      <c r="H10" s="333" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B11" s="329">
-        <v>44581</v>
-      </c>
-      <c r="C11" s="330" t="s">
+      <c r="D12" s="329" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E12" s="330" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F12" s="331" t="s">
+        <v>975</v>
+      </c>
+      <c r="G12" s="333" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H12" s="332" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B13" s="328">
+        <v>44661</v>
+      </c>
+      <c r="C13" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D11" s="330" t="s">
-        <v>1586</v>
-      </c>
-      <c r="E11" s="331" t="s">
-        <v>1587</v>
-      </c>
-      <c r="F11" s="332" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G11" s="334" t="s">
-        <v>979</v>
-      </c>
-      <c r="H11" s="333" t="s">
+      <c r="D13" s="329" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E13" s="330" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F13" s="331" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G13" s="333" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H13" s="332"/>
+    </row>
+    <row r="14" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B14" s="328">
+        <v>44139</v>
+      </c>
+      <c r="C14" s="329" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D14" s="329" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E14" s="330" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F14" s="331" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="333" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H14" s="332" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B15" s="334"/>
+      <c r="C15" s="329" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D15" s="329" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E15" s="332" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F15" s="335" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G15" s="333" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H15" s="332"/>
+    </row>
+    <row r="16" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B16" s="334"/>
+      <c r="C16" s="329" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D16" s="329" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E16" s="332" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F16" s="335" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G16" s="333" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H16" s="332"/>
+    </row>
+    <row r="17" spans="1:10" s="327" customFormat="1" ht="15">
+      <c r="B17" s="328">
+        <v>44652</v>
+      </c>
+      <c r="C17" s="329" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D17" s="329" t="s">
+        <v>751</v>
+      </c>
+      <c r="E17" s="330" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B12" s="329">
-        <v>44606</v>
-      </c>
-      <c r="C12" s="330" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D12" s="330" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E12" s="331" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F12" s="332" t="s">
-        <v>975</v>
-      </c>
-      <c r="G12" s="334" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H12" s="333" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B13" s="329">
-        <v>44661</v>
-      </c>
-      <c r="C13" s="330" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D13" s="330" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E13" s="331" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F13" s="332" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G13" s="334" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H13" s="333"/>
-    </row>
-    <row r="14" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B14" s="329">
-        <v>44139</v>
-      </c>
-      <c r="C14" s="330" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D14" s="330" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E14" s="331" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F14" s="332" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="334" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H14" s="333" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B15" s="335"/>
-      <c r="C15" s="330" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D15" s="330" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E15" s="333" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F15" s="336" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G15" s="334" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H15" s="333"/>
-    </row>
-    <row r="16" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B16" s="335"/>
-      <c r="C16" s="330" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D16" s="330" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E16" s="333" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F16" s="336" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G16" s="334" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H16" s="333"/>
-    </row>
-    <row r="17" spans="1:10" s="328" customFormat="1" ht="15">
-      <c r="B17" s="329">
-        <v>44652</v>
-      </c>
-      <c r="C17" s="330" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D17" s="330" t="s">
-        <v>751</v>
-      </c>
-      <c r="E17" s="331" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F17" s="332" t="s">
+      <c r="F17" s="331" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="334" t="s">
+      <c r="G17" s="333" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="333" t="s">
+      <c r="H17" s="332" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="21"/>
-      <c r="B18" s="329">
+      <c r="B18" s="328">
         <v>44144</v>
       </c>
-      <c r="C18" s="330" t="s">
+      <c r="C18" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D18" s="330" t="s">
+      <c r="D18" s="329" t="s">
         <v>1488</v>
       </c>
-      <c r="E18" s="331" t="s">
+      <c r="E18" s="330" t="s">
         <v>1489</v>
       </c>
-      <c r="F18" s="332" t="s">
+      <c r="F18" s="331" t="s">
         <v>951</v>
       </c>
-      <c r="G18" s="334" t="s">
+      <c r="G18" s="333" t="s">
         <v>953</v>
       </c>
-      <c r="H18" s="333" t="s">
+      <c r="H18" s="332" t="s">
         <v>1490</v>
       </c>
       <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="21"/>
-      <c r="B19" s="329">
+      <c r="B19" s="328">
         <v>44676</v>
       </c>
-      <c r="C19" s="330" t="s">
+      <c r="C19" s="329" t="s">
         <v>1477</v>
       </c>
-      <c r="D19" s="330" t="s">
+      <c r="D19" s="329" t="s">
         <v>1488</v>
       </c>
-      <c r="E19" s="331" t="s">
+      <c r="E19" s="330" t="s">
         <v>1489</v>
       </c>
-      <c r="F19" s="322" t="s">
+      <c r="F19" s="321" t="s">
         <v>975</v>
       </c>
-      <c r="G19" s="337" t="s">
-        <v>1594</v>
-      </c>
-      <c r="H19" s="338" t="s">
-        <v>1595</v>
+      <c r="G19" s="336" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H19" s="337" t="s">
+        <v>1593</v>
       </c>
       <c r="J19" s="84"/>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="21"/>
-      <c r="B20" s="329"/>
-      <c r="C20" s="330"/>
-      <c r="D20" s="330"/>
-      <c r="E20" s="331"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="334"/>
-      <c r="H20" s="333"/>
+      <c r="B20" s="328"/>
+      <c r="C20" s="329"/>
+      <c r="D20" s="329"/>
+      <c r="E20" s="330"/>
+      <c r="F20" s="331"/>
+      <c r="G20" s="333"/>
+      <c r="H20" s="332"/>
       <c r="J20" s="84"/>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="21"/>
-      <c r="B21" s="329"/>
-      <c r="C21" s="330"/>
-      <c r="D21" s="330"/>
-      <c r="E21" s="331"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="334"/>
-      <c r="H21" s="333"/>
+      <c r="B21" s="328"/>
+      <c r="C21" s="329"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="331"/>
+      <c r="G21" s="333"/>
+      <c r="H21" s="332"/>
       <c r="J21" s="84"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="21"/>
-      <c r="B22" s="329"/>
-      <c r="C22" s="330"/>
-      <c r="D22" s="330"/>
-      <c r="E22" s="331"/>
-      <c r="F22" s="332"/>
-      <c r="G22" s="334"/>
-      <c r="H22" s="333"/>
+      <c r="B22" s="328"/>
+      <c r="C22" s="329"/>
+      <c r="D22" s="329"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="331"/>
+      <c r="G22" s="333"/>
+      <c r="H22" s="332"/>
       <c r="J22" s="84"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="21"/>
-      <c r="B23" s="329"/>
-      <c r="C23" s="330"/>
-      <c r="D23" s="330"/>
-      <c r="E23" s="331"/>
-      <c r="F23" s="332"/>
-      <c r="G23" s="334"/>
-      <c r="H23" s="333"/>
+      <c r="B23" s="328"/>
+      <c r="C23" s="329"/>
+      <c r="D23" s="329"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="331"/>
+      <c r="G23" s="333"/>
+      <c r="H23" s="332"/>
       <c r="J23" s="84"/>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="21"/>
-      <c r="B24" s="329"/>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="331"/>
-      <c r="F24" s="332"/>
-      <c r="G24" s="334"/>
-      <c r="H24" s="333"/>
+      <c r="B24" s="328"/>
+      <c r="C24" s="329"/>
+      <c r="D24" s="329"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="331"/>
+      <c r="G24" s="333"/>
+      <c r="H24" s="332"/>
       <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" ht="15">
       <c r="A25" s="21"/>
-      <c r="B25" s="329"/>
-      <c r="C25" s="330"/>
-      <c r="D25" s="330"/>
-      <c r="E25" s="331"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="334"/>
-      <c r="H25" s="333"/>
+      <c r="B25" s="328"/>
+      <c r="C25" s="329"/>
+      <c r="D25" s="329"/>
+      <c r="E25" s="330"/>
+      <c r="F25" s="331"/>
+      <c r="G25" s="333"/>
+      <c r="H25" s="332"/>
       <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="462" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C26" s="463"/>
-      <c r="D26" s="463"/>
-      <c r="E26" s="463"/>
-      <c r="F26" s="463"/>
-      <c r="G26" s="463"/>
-      <c r="H26" s="464"/>
+      <c r="B26" s="461" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C26" s="462"/>
+      <c r="D26" s="462"/>
+      <c r="E26" s="462"/>
+      <c r="F26" s="462"/>
+      <c r="G26" s="462"/>
+      <c r="H26" s="463"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
@@ -30465,19 +30551,19 @@
         <v>1477</v>
       </c>
       <c r="D34" s="299" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E34" s="300" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F34" s="322" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F34" s="321" t="s">
         <v>129</v>
       </c>
       <c r="G34" s="264" t="s">
         <v>1454</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="84"/>
@@ -30662,25 +30748,25 @@
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="21"/>
-      <c r="B43" s="323">
+      <c r="B43" s="322">
         <v>44329</v>
       </c>
-      <c r="C43" s="324" t="s">
+      <c r="C43" s="323" t="s">
         <v>1477</v>
       </c>
-      <c r="D43" s="324" t="s">
+      <c r="D43" s="323" t="s">
         <v>1482</v>
       </c>
-      <c r="E43" s="324" t="s">
+      <c r="E43" s="323" t="s">
         <v>1483</v>
       </c>
-      <c r="F43" s="325" t="s">
+      <c r="F43" s="324" t="s">
         <v>1484</v>
       </c>
-      <c r="G43" s="326" t="s">
+      <c r="G43" s="325" t="s">
         <v>979</v>
       </c>
-      <c r="H43" s="327" t="s">
+      <c r="H43" s="326" t="s">
         <v>1485</v>
       </c>
       <c r="I43" s="21"/>
@@ -30688,25 +30774,25 @@
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="21"/>
-      <c r="B44" s="323">
+      <c r="B44" s="322">
         <v>44329</v>
       </c>
-      <c r="C44" s="324" t="s">
+      <c r="C44" s="323" t="s">
         <v>1477</v>
       </c>
-      <c r="D44" s="324" t="s">
+      <c r="D44" s="323" t="s">
         <v>1482</v>
       </c>
-      <c r="E44" s="324" t="s">
+      <c r="E44" s="323" t="s">
         <v>1486</v>
       </c>
-      <c r="F44" s="325" t="s">
+      <c r="F44" s="324" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="326" t="s">
+      <c r="G44" s="325" t="s">
         <v>895</v>
       </c>
-      <c r="H44" s="327" t="s">
+      <c r="H44" s="326" t="s">
         <v>1487</v>
       </c>
       <c r="I44" s="21"/>
@@ -31691,14 +31777,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="459" t="s">
+      <c r="B91" s="458" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="460"/>
-      <c r="D91" s="460"/>
-      <c r="E91" s="460"/>
-      <c r="F91" s="460"/>
-      <c r="G91" s="461"/>
+      <c r="C91" s="459"/>
+      <c r="D91" s="459"/>
+      <c r="E91" s="459"/>
+      <c r="F91" s="459"/>
+      <c r="G91" s="460"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -32813,14 +32899,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="459" t="s">
+      <c r="B164" s="458" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="460"/>
-      <c r="D164" s="460"/>
-      <c r="E164" s="460"/>
-      <c r="F164" s="460"/>
-      <c r="G164" s="461"/>
+      <c r="C164" s="459"/>
+      <c r="D164" s="459"/>
+      <c r="E164" s="459"/>
+      <c r="F164" s="459"/>
+      <c r="G164" s="460"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -32967,14 +33053,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="459" t="s">
+      <c r="B174" s="458" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="460"/>
-      <c r="D174" s="460"/>
-      <c r="E174" s="460"/>
-      <c r="F174" s="460"/>
-      <c r="G174" s="461"/>
+      <c r="C174" s="459"/>
+      <c r="D174" s="459"/>
+      <c r="E174" s="459"/>
+      <c r="F174" s="459"/>
+      <c r="G174" s="460"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -33034,45 +33120,45 @@
       <c r="H178" s="181"/>
     </row>
     <row r="179" spans="2:8">
-      <c r="B179" s="416">
+      <c r="B179" s="415">
         <v>44894</v>
       </c>
-      <c r="C179" s="417" t="s">
+      <c r="C179" s="416" t="s">
         <v>1477</v>
       </c>
-      <c r="D179" s="417" t="s">
+      <c r="D179" s="416" t="s">
         <v>1259</v>
       </c>
-      <c r="E179" s="418"/>
-      <c r="F179" s="418" t="s">
+      <c r="E179" s="417"/>
+      <c r="F179" s="417" t="s">
         <v>873</v>
       </c>
-      <c r="G179" s="418" t="s">
+      <c r="G179" s="417" t="s">
         <v>845</v>
       </c>
       <c r="H179" s="238" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="15">
-      <c r="B180" s="416">
+      <c r="B180" s="415">
         <v>44894</v>
       </c>
-      <c r="C180" s="417" t="s">
+      <c r="C180" s="416" t="s">
         <v>1477</v>
       </c>
-      <c r="D180" s="417" t="s">
+      <c r="D180" s="416" t="s">
         <v>1259</v>
       </c>
-      <c r="E180" s="418"/>
-      <c r="F180" s="418" t="s">
+      <c r="E180" s="417"/>
+      <c r="F180" s="417" t="s">
         <v>821</v>
       </c>
-      <c r="G180" s="419">
+      <c r="G180" s="418">
         <v>20210</v>
       </c>
       <c r="H180" s="238" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="181" spans="2:8" ht="14.25">
@@ -33479,14 +33565,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="456" t="s">
+      <c r="B242" s="455" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="457"/>
-      <c r="D242" s="457"/>
-      <c r="E242" s="457"/>
-      <c r="F242" s="457"/>
-      <c r="G242" s="458"/>
+      <c r="C242" s="456"/>
+      <c r="D242" s="456"/>
+      <c r="E242" s="456"/>
+      <c r="F242" s="456"/>
+      <c r="G242" s="457"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -33520,10 +33606,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="447" t="s">
+      <c r="E245" s="446" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="447"/>
+      <c r="F245" s="446"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -33532,32 +33618,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="448"/>
-      <c r="F246" s="448"/>
+      <c r="E246" s="447"/>
+      <c r="F246" s="447"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="448"/>
-      <c r="F247" s="448"/>
+      <c r="E247" s="447"/>
+      <c r="F247" s="447"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="448"/>
-      <c r="F248" s="448"/>
+      <c r="E248" s="447"/>
+      <c r="F248" s="447"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="448"/>
-      <c r="F249" s="448"/>
+      <c r="E249" s="447"/>
+      <c r="F249" s="447"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -33568,8 +33654,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="448"/>
-      <c r="F250" s="448"/>
+      <c r="E250" s="447"/>
+      <c r="F250" s="447"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -33578,8 +33664,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="448"/>
-      <c r="F251" s="448"/>
+      <c r="E251" s="447"/>
+      <c r="F251" s="447"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -33588,8 +33674,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="449"/>
-      <c r="F252" s="449"/>
+      <c r="E252" s="448"/>
+      <c r="F252" s="448"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -33602,7 +33688,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="444" t="s">
+      <c r="E253" s="443" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -33616,7 +33702,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="445"/>
+      <c r="E254" s="444"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -33630,7 +33716,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="445"/>
+      <c r="E255" s="444"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -33642,7 +33728,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="445"/>
+      <c r="E256" s="444"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -33654,7 +33740,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="445"/>
+      <c r="E257" s="444"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -33666,7 +33752,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="445"/>
+      <c r="E258" s="444"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -33678,7 +33764,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="445"/>
+      <c r="E259" s="444"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -33688,7 +33774,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="445"/>
+      <c r="E260" s="444"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -33696,7 +33782,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="445"/>
+      <c r="E261" s="444"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -33706,7 +33792,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="445"/>
+      <c r="E262" s="444"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -33716,7 +33802,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="445"/>
+      <c r="E263" s="444"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -33726,7 +33812,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="446"/>
+      <c r="E264" s="445"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -33738,7 +33824,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="447" t="s">
+      <c r="E265" s="446" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -33752,7 +33838,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="448"/>
+      <c r="E266" s="447"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -33766,7 +33852,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="448"/>
+      <c r="E267" s="447"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -33776,7 +33862,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="449"/>
+      <c r="E268" s="448"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -33970,35 +34056,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="450" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="452" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="453"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="453"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="465">
+      <c r="B4" s="464">
         <v>43928</v>
       </c>
-      <c r="C4" s="465"/>
-      <c r="D4" s="465"/>
-      <c r="E4" s="465"/>
-      <c r="F4" s="465"/>
+      <c r="C4" s="464"/>
+      <c r="D4" s="464"/>
+      <c r="E4" s="464"/>
+      <c r="F4" s="464"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -34277,13 +34363,13 @@
     </row>
     <row r="2" spans="1:26" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="450" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -34294,13 +34380,13 @@
     </row>
     <row r="3" spans="1:26" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="452" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="453"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="453"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -34311,13 +34397,13 @@
     </row>
     <row r="4" spans="1:26" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="455">
+      <c r="B4" s="454">
         <v>43944</v>
       </c>
-      <c r="C4" s="455"/>
-      <c r="D4" s="455"/>
-      <c r="E4" s="455"/>
-      <c r="F4" s="455"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -34369,15 +34455,15 @@
       <c r="C8" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="D8" s="421">
+      <c r="D8" s="420">
         <v>44889</v>
       </c>
-      <c r="E8" s="420" t="s">
-        <v>1746</v>
+      <c r="E8" s="419" t="s">
+        <v>1744</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="110" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -34412,10 +34498,10 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="110" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="S11" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -34444,7 +34530,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="Z14" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -34456,10 +34542,10 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="Y15" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="Z15" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -34483,7 +34569,7 @@
         <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -34495,7 +34581,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="Y18" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="Z18" t="s">
         <v>23</v>
@@ -34510,10 +34596,10 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="Y19" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -34555,7 +34641,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="Y23" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -34567,7 +34653,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="Y24" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -34588,7 +34674,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -34600,7 +34686,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="Y27" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -34659,10 +34745,10 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="Y32" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="AA32" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -34673,11 +34759,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="Y33" s="466">
+      <c r="Y33" s="465">
         <v>44925</v>
       </c>
-      <c r="Z33" s="466"/>
-      <c r="AA33" s="466"/>
+      <c r="Z33" s="465"/>
+      <c r="AA33" s="465"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="21"/>
@@ -34688,10 +34774,10 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="Y34" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="Z34" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -34783,24 +34869,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="450" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="451"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="451"/>
-      <c r="F2" s="451"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="452" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="453"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="453"/>
-      <c r="F3" s="453"/>
+      <c r="C3" s="452"/>
+      <c r="D3" s="452"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -34808,13 +34894,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="455">
+      <c r="B4" s="454">
         <v>43970</v>
       </c>
-      <c r="C4" s="455"/>
-      <c r="D4" s="455"/>
-      <c r="E4" s="455"/>
-      <c r="F4" s="455"/>
+      <c r="C4" s="454"/>
+      <c r="D4" s="454"/>
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">

--- a/ZRK SYS 2023.xlsx
+++ b/ZRK SYS 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E61C0FE-0F17-460A-984D-95E4C7CD86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832504AC-D053-44AB-BA14-331EB769E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Inventario!$F$1:$F$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$B$4:$G$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">CORREOS!$B$2:$F$106</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Resumen!$B$1:$G$112</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="1777">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5671,6 +5671,12 @@
   </si>
   <si>
     <t>ANTES DEL 2024</t>
+  </si>
+  <si>
+    <t>VICENTE CUEVA</t>
+  </si>
+  <si>
+    <t>SOPORTE (SAP).</t>
   </si>
 </sst>
 </file>
@@ -8264,6 +8270,12 @@
     <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="28" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="27" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8349,36 +8361,36 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8435,12 +8447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="27" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -13515,13 +13521,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>524693</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>48174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -15945,7 +15951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15965,26 +15971,26 @@
       <c r="F1" s="434"/>
     </row>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="B2" s="437" t="s">
+      <c r="B2" s="439" t="s">
         <v>1767</v>
       </c>
-      <c r="C2" s="437"/>
-      <c r="D2" s="437"/>
-      <c r="E2" s="437"/>
-      <c r="F2" s="437"/>
-      <c r="G2" s="437"/>
-      <c r="H2" s="437"/>
+      <c r="C2" s="439"/>
+      <c r="D2" s="439"/>
+      <c r="E2" s="439"/>
+      <c r="F2" s="439"/>
+      <c r="G2" s="439"/>
+      <c r="H2" s="439"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
-      <c r="B3" s="438" t="s">
+      <c r="B3" s="440" t="s">
         <v>1595</v>
       </c>
-      <c r="C3" s="438"/>
-      <c r="D3" s="438"/>
-      <c r="E3" s="438"/>
-      <c r="F3" s="438"/>
-      <c r="G3" s="438"/>
-      <c r="H3" s="438"/>
+      <c r="C3" s="440"/>
+      <c r="D3" s="440"/>
+      <c r="E3" s="440"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="440"/>
+      <c r="H3" s="440"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
       <c r="C4" s="435"/>
@@ -16014,25 +16020,25 @@
     </row>
     <row r="6" spans="1:10" s="347" customFormat="1" ht="30">
       <c r="A6" s="343"/>
-      <c r="B6" s="495" t="s">
+      <c r="B6" s="437" t="s">
         <v>1447</v>
       </c>
-      <c r="C6" s="495" t="s">
+      <c r="C6" s="437" t="s">
         <v>1448</v>
       </c>
-      <c r="D6" s="495" t="s">
+      <c r="D6" s="437" t="s">
         <v>1449</v>
       </c>
-      <c r="E6" s="495" t="s">
+      <c r="E6" s="437" t="s">
         <v>1336</v>
       </c>
-      <c r="F6" s="495" t="s">
+      <c r="F6" s="437" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="495" t="s">
+      <c r="G6" s="437" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="495" t="s">
+      <c r="H6" s="437" t="s">
         <v>1263</v>
       </c>
       <c r="I6" s="342"/>
@@ -16250,7 +16256,7 @@
       <c r="B17" s="429"/>
       <c r="C17" s="430"/>
       <c r="D17" s="430"/>
-      <c r="E17" s="496" t="s">
+      <c r="E17" s="438" t="s">
         <v>1774</v>
       </c>
       <c r="F17" s="431"/>
@@ -18438,31 +18444,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="452" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="454" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="454">
+      <c r="B4" s="456">
         <v>43396</v>
       </c>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="456"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -22489,39 +22495,39 @@
       <c r="E2" s="474" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="466" t="s">
+      <c r="F2" s="476" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="466" t="s">
+      <c r="G2" s="476" t="s">
         <v>149</v>
       </c>
       <c r="H2" s="468" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="466" t="s">
+      <c r="I2" s="476" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="466"/>
-      <c r="K2" s="466"/>
+      <c r="J2" s="476"/>
+      <c r="K2" s="476"/>
       <c r="L2" s="468" t="s">
         <v>225</v>
       </c>
       <c r="M2" s="468" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="466" t="s">
+      <c r="N2" s="476" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="466" t="s">
+      <c r="O2" s="476" t="s">
         <v>228</v>
       </c>
       <c r="P2" s="468" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="466" t="s">
+      <c r="Q2" s="476" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="466" t="s">
+      <c r="R2" s="476" t="s">
         <v>231</v>
       </c>
       <c r="S2" s="468" t="s">
@@ -22538,8 +22544,8 @@
       <c r="C3" s="473"/>
       <c r="D3" s="37"/>
       <c r="E3" s="475"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
+      <c r="F3" s="477"/>
+      <c r="G3" s="477"/>
       <c r="H3" s="469"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
@@ -22552,11 +22558,11 @@
       </c>
       <c r="L3" s="469"/>
       <c r="M3" s="469"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467"/>
+      <c r="N3" s="477"/>
+      <c r="O3" s="477"/>
       <c r="P3" s="469"/>
-      <c r="Q3" s="467"/>
-      <c r="R3" s="467"/>
+      <c r="Q3" s="477"/>
+      <c r="R3" s="477"/>
       <c r="S3" s="469"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
@@ -26500,12 +26506,6 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26515,6 +26515,12 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -27476,19 +27482,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="476" t="s">
+      <c r="B1" s="478" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="476"/>
-      <c r="D1" s="476"/>
-      <c r="E1" s="476"/>
-      <c r="F1" s="476"/>
-      <c r="G1" s="476"/>
-      <c r="H1" s="476"/>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
-      <c r="K1" s="476"/>
-      <c r="L1" s="476"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
+      <c r="K1" s="478"/>
+      <c r="L1" s="478"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -28108,43 +28114,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="451" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
+      <c r="G1" s="452"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="452"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="453" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="479" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="480"/>
+      <c r="F3" s="480"/>
+      <c r="G3" s="480"/>
+      <c r="H3" s="480"/>
+      <c r="I3" s="480"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -28211,74 +28217,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="439" t="s">
+      <c r="B2" s="441" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="439"/>
-      <c r="I2" s="439"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="441"/>
+      <c r="H2" s="441"/>
+      <c r="I2" s="441"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="442" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
-      <c r="I3" s="440"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="442"/>
+      <c r="G3" s="442"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="442"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="441">
+      <c r="B4" s="443">
         <v>45263</v>
       </c>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="441"/>
-      <c r="H4" s="441"/>
-      <c r="I4" s="441"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
+      <c r="I4" s="443"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="442"/>
-      <c r="C5" s="442"/>
-      <c r="D5" s="442"/>
-      <c r="E5" s="442"/>
-      <c r="F5" s="442"/>
-      <c r="G5" s="442"/>
-      <c r="H5" s="442"/>
-      <c r="I5" s="442"/>
+      <c r="B5" s="444"/>
+      <c r="C5" s="444"/>
+      <c r="D5" s="444"/>
+      <c r="E5" s="444"/>
+      <c r="F5" s="444"/>
+      <c r="G5" s="444"/>
+      <c r="H5" s="444"/>
+      <c r="I5" s="444"/>
     </row>
     <row r="6" spans="2:9" ht="15">
-      <c r="B6" s="495" t="s">
+      <c r="B6" s="437" t="s">
         <v>1537</v>
       </c>
-      <c r="C6" s="495" t="s">
+      <c r="C6" s="437" t="s">
         <v>1538</v>
       </c>
-      <c r="D6" s="495" t="s">
+      <c r="D6" s="437" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="495" t="s">
+      <c r="E6" s="437" t="s">
         <v>1539</v>
       </c>
-      <c r="F6" s="495" t="s">
+      <c r="F6" s="437" t="s">
         <v>1540</v>
       </c>
-      <c r="G6" s="495" t="s">
+      <c r="G6" s="437" t="s">
         <v>1541</v>
       </c>
-      <c r="H6" s="495" t="s">
+      <c r="H6" s="437" t="s">
         <v>1771</v>
       </c>
-      <c r="I6" s="495" t="s">
+      <c r="I6" s="437" t="s">
         <v>223</v>
       </c>
     </row>
@@ -28556,43 +28562,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="451" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
+      <c r="G1" s="452"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="452"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="453" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="479" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="480"/>
+      <c r="F3" s="480"/>
+      <c r="G3" s="480"/>
+      <c r="H3" s="480"/>
+      <c r="I3" s="480"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28651,43 +28657,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="451" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
+      <c r="G1" s="452"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="452"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="453" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="479" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="480"/>
+      <c r="F3" s="480"/>
+      <c r="G3" s="480"/>
+      <c r="H3" s="480"/>
+      <c r="I3" s="480"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28740,51 +28746,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="451" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
+      <c r="G1" s="452"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="452"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="453" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="479" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
-      <c r="J3" s="479" t="s">
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="480"/>
+      <c r="F3" s="480"/>
+      <c r="G3" s="480"/>
+      <c r="H3" s="480"/>
+      <c r="I3" s="480"/>
+      <c r="J3" s="481" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="479"/>
-      <c r="L3" s="479"/>
-      <c r="M3" s="479"/>
-      <c r="N3" s="479"/>
-      <c r="O3" s="479"/>
+      <c r="K3" s="481"/>
+      <c r="L3" s="481"/>
+      <c r="M3" s="481"/>
+      <c r="N3" s="481"/>
+      <c r="O3" s="481"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -28847,43 +28853,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="451" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
+      <c r="B1" s="452"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
+      <c r="G1" s="452"/>
+      <c r="H1" s="452"/>
+      <c r="I1" s="452"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="451" t="s">
+      <c r="A2" s="453" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="452"/>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="452"/>
+      <c r="B2" s="454"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="454"/>
+      <c r="I2" s="454"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="477" t="s">
+      <c r="A3" s="479" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="478"/>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="478"/>
-      <c r="F3" s="478"/>
-      <c r="G3" s="478"/>
-      <c r="H3" s="478"/>
-      <c r="I3" s="478"/>
+      <c r="B3" s="480"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="480"/>
+      <c r="F3" s="480"/>
+      <c r="G3" s="480"/>
+      <c r="H3" s="480"/>
+      <c r="I3" s="480"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -29014,16 +29020,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="486"/>
-      <c r="D10" s="487"/>
-      <c r="E10" s="488"/>
+      <c r="C10" s="488"/>
+      <c r="D10" s="489"/>
+      <c r="E10" s="490"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="489" t="s">
+      <c r="C11" s="491" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="490"/>
-      <c r="E11" s="491"/>
+      <c r="D11" s="492"/>
+      <c r="E11" s="493"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -29071,47 +29077,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="492"/>
-      <c r="D17" s="493"/>
-      <c r="E17" s="494"/>
+      <c r="C17" s="494"/>
+      <c r="D17" s="495"/>
+      <c r="E17" s="496"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="489" t="s">
+      <c r="C18" s="491" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="490"/>
-      <c r="E18" s="491"/>
+      <c r="D18" s="492"/>
+      <c r="E18" s="493"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="492"/>
-      <c r="D19" s="493"/>
-      <c r="E19" s="494"/>
+      <c r="C19" s="494"/>
+      <c r="D19" s="495"/>
+      <c r="E19" s="496"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="489" t="s">
+      <c r="C20" s="491" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="490"/>
-      <c r="E20" s="491"/>
+      <c r="D20" s="492"/>
+      <c r="E20" s="493"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="480"/>
-      <c r="D21" s="481"/>
-      <c r="E21" s="482"/>
+      <c r="C21" s="482"/>
+      <c r="D21" s="483"/>
+      <c r="E21" s="484"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="483" t="s">
+      <c r="C22" s="485" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="484"/>
-      <c r="E22" s="485"/>
+      <c r="D22" s="486"/>
+      <c r="E22" s="487"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="483" t="s">
+      <c r="C23" s="485" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="484"/>
-      <c r="E23" s="485"/>
+      <c r="D23" s="486"/>
+      <c r="E23" s="487"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -29492,11 +29498,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427FEEE2-9745-4725-B681-88E46CFE789D}">
   <sheetPr codeName="Hoja11"/>
-  <dimension ref="B1:J18"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -29516,46 +29522,46 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="439" t="s">
+      <c r="B2" s="441" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="439"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
+      <c r="G2" s="441"/>
+      <c r="H2" s="441"/>
     </row>
     <row r="3" spans="2:10" ht="18">
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="442" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
+      <c r="C3" s="442"/>
+      <c r="D3" s="442"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="442"/>
+      <c r="G3" s="442"/>
+      <c r="H3" s="442"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="441">
+      <c r="B4" s="443">
         <v>44316</v>
       </c>
-      <c r="C4" s="441"/>
-      <c r="D4" s="441"/>
-      <c r="E4" s="441"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="441"/>
-      <c r="H4" s="441"/>
+      <c r="C4" s="443"/>
+      <c r="D4" s="443"/>
+      <c r="E4" s="443"/>
+      <c r="F4" s="443"/>
+      <c r="G4" s="443"/>
+      <c r="H4" s="443"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="442"/>
-      <c r="C5" s="442"/>
-      <c r="D5" s="442"/>
-      <c r="E5" s="442"/>
-      <c r="F5" s="442"/>
-      <c r="G5" s="442"/>
-      <c r="H5" s="442"/>
+      <c r="B5" s="444"/>
+      <c r="C5" s="444"/>
+      <c r="D5" s="444"/>
+      <c r="E5" s="444"/>
+      <c r="F5" s="444"/>
+      <c r="G5" s="444"/>
+      <c r="H5" s="444"/>
     </row>
     <row r="6" spans="2:10" ht="30">
       <c r="B6" s="267" t="s">
@@ -29606,19 +29612,17 @@
         <v>44179</v>
       </c>
       <c r="C8" s="259" t="s">
-        <v>1406</v>
+        <v>1453</v>
       </c>
       <c r="D8" s="257" t="s">
-        <v>1407</v>
+        <v>1776</v>
       </c>
       <c r="E8" s="263" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F8" s="288" t="s">
-        <v>1390</v>
-      </c>
+        <v>1775</v>
+      </c>
+      <c r="F8" s="288"/>
       <c r="G8" s="264" t="s">
-        <v>1409</v>
+        <v>1454</v>
       </c>
       <c r="H8" s="258"/>
     </row>
@@ -29627,108 +29631,106 @@
         <v>44179</v>
       </c>
       <c r="C9" s="259" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="D9" s="257" t="s">
         <v>1407</v>
       </c>
       <c r="E9" s="263" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F9" s="290"/>
+        <v>1408</v>
+      </c>
+      <c r="F9" s="288" t="s">
+        <v>1390</v>
+      </c>
       <c r="G9" s="264" t="s">
         <v>1409</v>
       </c>
       <c r="H9" s="258"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="268"/>
-      <c r="C10" s="259"/>
-      <c r="D10" s="257"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="264"/>
+      <c r="B10" s="268">
+        <v>44179</v>
+      </c>
+      <c r="C10" s="259" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D10" s="257" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E10" s="263" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F10" s="290"/>
+      <c r="G10" s="264" t="s">
+        <v>1409</v>
+      </c>
       <c r="H10" s="258"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="268">
-        <v>44316</v>
-      </c>
-      <c r="C11" s="259" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D11" s="257" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E11" s="263" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F11" s="288" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G11" s="264" t="s">
-        <v>1415</v>
-      </c>
+      <c r="B11" s="268"/>
+      <c r="C11" s="259"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="264"/>
       <c r="H11" s="258"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="268">
-        <v>44179</v>
+        <v>44316</v>
       </c>
       <c r="C12" s="259" t="s">
-        <v>877</v>
+        <v>1402</v>
       </c>
       <c r="D12" s="257" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E12" s="263" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F12" s="290" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F12" s="288" t="s">
         <v>1390</v>
       </c>
       <c r="G12" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H12" s="258" t="s">
-        <v>1416</v>
-      </c>
+      <c r="H12" s="258"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="268">
         <v>44179</v>
       </c>
-      <c r="C13" s="412" t="s">
-        <v>1391</v>
+      <c r="C13" s="259" t="s">
+        <v>877</v>
       </c>
       <c r="D13" s="257" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="E13" s="263" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F13" s="288" t="s">
-        <v>1394</v>
+        <v>1359</v>
+      </c>
+      <c r="F13" s="290" t="s">
+        <v>1390</v>
       </c>
       <c r="G13" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H13" s="291" t="s">
-        <v>1419</v>
+      <c r="H13" s="258" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="268">
-        <v>44316</v>
+        <v>44179</v>
       </c>
       <c r="C14" s="412" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="D14" s="257" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E14" s="263" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="F14" s="288" t="s">
         <v>1394</v>
@@ -29736,20 +29738,22 @@
       <c r="G14" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H14" s="258"/>
+      <c r="H14" s="291" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="268">
-        <v>44179</v>
-      </c>
-      <c r="C15" s="259" t="s">
-        <v>876</v>
+        <v>44316</v>
+      </c>
+      <c r="C15" s="412" t="s">
+        <v>1395</v>
       </c>
       <c r="D15" s="257" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E15" s="263" t="s">
-        <v>151</v>
+        <v>1397</v>
       </c>
       <c r="F15" s="288" t="s">
         <v>1394</v>
@@ -29757,59 +29761,80 @@
       <c r="G15" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H15" s="266" t="s">
-        <v>875</v>
-      </c>
+      <c r="H15" s="258"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="268">
         <v>44179</v>
       </c>
       <c r="C16" s="259" t="s">
-        <v>1399</v>
+        <v>876</v>
       </c>
       <c r="D16" s="257" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E16" s="263" t="s">
-        <v>1401</v>
+        <v>151</v>
       </c>
       <c r="F16" s="288" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G16" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H16" s="258"/>
+      <c r="H16" s="266" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="268"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="257"/>
-      <c r="E17" s="263"/>
-      <c r="F17" s="288"/>
-      <c r="G17" s="264"/>
+      <c r="B17" s="268">
+        <v>44179</v>
+      </c>
+      <c r="C17" s="259" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D17" s="257" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="263" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F17" s="288" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G17" s="264" t="s">
+        <v>1415</v>
+      </c>
       <c r="H17" s="258"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="268">
-        <v>44196</v>
-      </c>
+      <c r="B18" s="268"/>
       <c r="C18" s="259"/>
       <c r="D18" s="257"/>
-      <c r="E18" s="263" t="s">
+      <c r="E18" s="263"/>
+      <c r="F18" s="288"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="258"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="268">
+        <v>44196</v>
+      </c>
+      <c r="C19" s="259"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="263" t="s">
         <v>1420</v>
       </c>
-      <c r="F18" s="288" t="s">
+      <c r="F19" s="288" t="s">
         <v>1421</v>
       </c>
-      <c r="G18" s="264" t="s">
+      <c r="G19" s="264" t="s">
         <v>1422</v>
       </c>
-      <c r="H18" s="258"/>
+      <c r="H19" s="258"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H18" xr:uid="{DF1C36DE-7671-4C4B-A272-B58D135CECFA}"/>
+  <autoFilter ref="B6:H19" xr:uid="{DF1C36DE-7671-4C4B-A272-B58D135CECFA}"/>
   <mergeCells count="4">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -29903,38 +29928,38 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="449" t="s">
+      <c r="B1" s="451" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
+      <c r="C1" s="452"/>
+      <c r="D1" s="452"/>
+      <c r="E1" s="452"/>
+      <c r="F1" s="452"/>
+      <c r="G1" s="452"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="451" t="s">
+      <c r="B2" s="453" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
+      <c r="C2" s="454"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="454"/>
+      <c r="F2" s="454"/>
+      <c r="G2" s="454"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="453">
+      <c r="B3" s="455">
         <v>44133</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="454"/>
+      <c r="C3" s="456"/>
+      <c r="D3" s="456"/>
+      <c r="E3" s="456"/>
+      <c r="F3" s="456"/>
+      <c r="G3" s="456"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -30365,15 +30390,15 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="461" t="s">
+      <c r="B26" s="463" t="s">
         <v>1594</v>
       </c>
-      <c r="C26" s="462"/>
-      <c r="D26" s="462"/>
-      <c r="E26" s="462"/>
-      <c r="F26" s="462"/>
-      <c r="G26" s="462"/>
-      <c r="H26" s="463"/>
+      <c r="C26" s="464"/>
+      <c r="D26" s="464"/>
+      <c r="E26" s="464"/>
+      <c r="F26" s="464"/>
+      <c r="G26" s="464"/>
+      <c r="H26" s="465"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
@@ -31777,14 +31802,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="458" t="s">
+      <c r="B91" s="460" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="459"/>
-      <c r="D91" s="459"/>
-      <c r="E91" s="459"/>
-      <c r="F91" s="459"/>
-      <c r="G91" s="460"/>
+      <c r="C91" s="461"/>
+      <c r="D91" s="461"/>
+      <c r="E91" s="461"/>
+      <c r="F91" s="461"/>
+      <c r="G91" s="462"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -32899,14 +32924,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="458" t="s">
+      <c r="B164" s="460" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="459"/>
-      <c r="D164" s="459"/>
-      <c r="E164" s="459"/>
-      <c r="F164" s="459"/>
-      <c r="G164" s="460"/>
+      <c r="C164" s="461"/>
+      <c r="D164" s="461"/>
+      <c r="E164" s="461"/>
+      <c r="F164" s="461"/>
+      <c r="G164" s="462"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -33053,14 +33078,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="458" t="s">
+      <c r="B174" s="460" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="459"/>
-      <c r="D174" s="459"/>
-      <c r="E174" s="459"/>
-      <c r="F174" s="459"/>
-      <c r="G174" s="460"/>
+      <c r="C174" s="461"/>
+      <c r="D174" s="461"/>
+      <c r="E174" s="461"/>
+      <c r="F174" s="461"/>
+      <c r="G174" s="462"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -33565,14 +33590,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="455" t="s">
+      <c r="B242" s="457" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="456"/>
-      <c r="D242" s="456"/>
-      <c r="E242" s="456"/>
-      <c r="F242" s="456"/>
-      <c r="G242" s="457"/>
+      <c r="C242" s="458"/>
+      <c r="D242" s="458"/>
+      <c r="E242" s="458"/>
+      <c r="F242" s="458"/>
+      <c r="G242" s="459"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -33606,10 +33631,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="446" t="s">
+      <c r="E245" s="448" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="446"/>
+      <c r="F245" s="448"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -33618,32 +33643,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="447"/>
-      <c r="F246" s="447"/>
+      <c r="E246" s="449"/>
+      <c r="F246" s="449"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="447"/>
-      <c r="F247" s="447"/>
+      <c r="E247" s="449"/>
+      <c r="F247" s="449"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="447"/>
-      <c r="F248" s="447"/>
+      <c r="E248" s="449"/>
+      <c r="F248" s="449"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="447"/>
-      <c r="F249" s="447"/>
+      <c r="E249" s="449"/>
+      <c r="F249" s="449"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -33654,8 +33679,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="447"/>
-      <c r="F250" s="447"/>
+      <c r="E250" s="449"/>
+      <c r="F250" s="449"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -33664,8 +33689,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="447"/>
-      <c r="F251" s="447"/>
+      <c r="E251" s="449"/>
+      <c r="F251" s="449"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -33674,8 +33699,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="448"/>
-      <c r="F252" s="448"/>
+      <c r="E252" s="450"/>
+      <c r="F252" s="450"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -33688,7 +33713,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="443" t="s">
+      <c r="E253" s="445" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -33702,7 +33727,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="444"/>
+      <c r="E254" s="446"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -33716,7 +33741,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="444"/>
+      <c r="E255" s="446"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -33728,7 +33753,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="444"/>
+      <c r="E256" s="446"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -33740,7 +33765,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="444"/>
+      <c r="E257" s="446"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -33752,7 +33777,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="444"/>
+      <c r="E258" s="446"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -33764,7 +33789,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="444"/>
+      <c r="E259" s="446"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -33774,7 +33799,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="444"/>
+      <c r="E260" s="446"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -33782,7 +33807,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="444"/>
+      <c r="E261" s="446"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -33792,7 +33817,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="444"/>
+      <c r="E262" s="446"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -33802,7 +33827,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="444"/>
+      <c r="E263" s="446"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -33812,7 +33837,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="445"/>
+      <c r="E264" s="447"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -33824,7 +33849,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="446" t="s">
+      <c r="E265" s="448" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -33838,7 +33863,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="447"/>
+      <c r="E266" s="449"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -33852,7 +33877,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="447"/>
+      <c r="E267" s="449"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -33862,7 +33887,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="448"/>
+      <c r="E268" s="450"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -34056,35 +34081,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="452" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="454" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="464">
+      <c r="B4" s="466">
         <v>43928</v>
       </c>
-      <c r="C4" s="464"/>
-      <c r="D4" s="464"/>
-      <c r="E4" s="464"/>
-      <c r="F4" s="464"/>
+      <c r="C4" s="466"/>
+      <c r="D4" s="466"/>
+      <c r="E4" s="466"/>
+      <c r="F4" s="466"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -34363,13 +34388,13 @@
     </row>
     <row r="2" spans="1:26" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="452" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -34380,13 +34405,13 @@
     </row>
     <row r="3" spans="1:26" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="454" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -34397,13 +34422,13 @@
     </row>
     <row r="4" spans="1:26" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="454">
+      <c r="B4" s="456">
         <v>43944</v>
       </c>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="456"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -34759,11 +34784,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="Y33" s="465">
+      <c r="Y33" s="467">
         <v>44925</v>
       </c>
-      <c r="Z33" s="465"/>
-      <c r="AA33" s="465"/>
+      <c r="Z33" s="467"/>
+      <c r="AA33" s="467"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="21"/>
@@ -34869,24 +34894,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="450" t="s">
+      <c r="B2" s="452" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
+      <c r="C2" s="452"/>
+      <c r="D2" s="452"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="454" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="452"/>
-      <c r="D3" s="452"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
+      <c r="C3" s="454"/>
+      <c r="D3" s="454"/>
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -34894,13 +34919,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="454">
+      <c r="B4" s="456">
         <v>43970</v>
       </c>
-      <c r="C4" s="454"/>
-      <c r="D4" s="454"/>
-      <c r="E4" s="454"/>
-      <c r="F4" s="454"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="456"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">

--- a/ZRK SYS 2023.xlsx
+++ b/ZRK SYS 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832504AC-D053-44AB-BA14-331EB769E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB07923-20CB-4221-825F-24DC46B13B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWS" sheetId="45" r:id="rId1"/>
@@ -50,7 +50,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">CORREOS!$B$6:$F$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Inventario!$F$1:$F$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$B$4:$G$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1742">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -5135,75 +5135,6 @@
     <t>Relacion de Accesos Varios</t>
   </si>
   <si>
-    <t>EQUIPO COMPRAS ITEKNIA</t>
-  </si>
-  <si>
-    <t>757-303-105</t>
-  </si>
-  <si>
-    <t>iteknia2019</t>
-  </si>
-  <si>
-    <t>Equipo SAP 10 (Sistemas)</t>
-  </si>
-  <si>
-    <t>Para manejo de SAP 10 con el cliente de escritorio.</t>
-  </si>
-  <si>
-    <t>311 730 299</t>
-  </si>
-  <si>
-    <t>Sin contraseña el Equipo</t>
-  </si>
-  <si>
-    <t>EQUIPO PRUEBAS SAP - 10, SISTEMAS</t>
-  </si>
-  <si>
-    <t>311-730-299</t>
-  </si>
-  <si>
-    <t>Usuario sin Contraseña.</t>
-  </si>
-  <si>
-    <t>CAJA SAN RAFAEL</t>
-  </si>
-  <si>
-    <t>Caja Popular San Rafael S.C. de A.P. de R.L. de C.V.</t>
-  </si>
-  <si>
-    <t>https://cajasanrafael.turbopac.mx/PortalConsulta/</t>
-  </si>
-  <si>
-    <t>10070151089</t>
-  </si>
-  <si>
-    <t>Mauricio&amp;63</t>
-  </si>
-  <si>
-    <t>Edos de Cuenta. Yolanda.</t>
-  </si>
-  <si>
-    <t>10110316750</t>
-  </si>
-  <si>
-    <t>Victoria&amp;77</t>
-  </si>
-  <si>
-    <t>Edos de Cuenta. Vicente.</t>
-  </si>
-  <si>
-    <t>CANVA</t>
-  </si>
-  <si>
-    <t>Diseños varios formatos</t>
-  </si>
-  <si>
-    <t>canva.com</t>
-  </si>
-  <si>
-    <t>Conectado a Gogle toma credenciales.</t>
-  </si>
-  <si>
     <t>CELULAR</t>
   </si>
   <si>
@@ -5241,21 +5172,6 @@
   </si>
   <si>
     <t>vcuevar@hotmail.com</t>
-  </si>
-  <si>
-    <t>FACEBOOCK</t>
-  </si>
-  <si>
-    <t>San Judas Tadeo</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com</t>
-  </si>
-  <si>
-    <t>samarepa@hotmail.com</t>
-  </si>
-  <si>
-    <t>SantaMaria2015</t>
   </si>
   <si>
     <t>ACADEMIA</t>
@@ -5545,27 +5461,6 @@
   </si>
   <si>
     <t>USUARIO SISTEMAS</t>
-  </si>
-  <si>
-    <t>1.- REVISAR QUE TODOS LOS EQUIPOS TENGAN EL ARCHIVOS “Respaldo Zrk.bat” EN EL ESCRITORIO DE WINDOWS, DE NO SER ASI HAY QUE COLOCARLO.</t>
-  </si>
-  <si>
-    <t>2.-ACTUALIZAR EL ARCHIVO “RESUMEN RESPALDOS.xlsx” QUE DE ENCUENTRA EN LA SIGUIENTE RUTA \\ZRK_DCCONTROLER\respaldos_equipos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t> *OBSERVACION LAS CREDENCIALES PARA ACCESAR A LA RUTA SON:</t>
-  </si>
-  <si>
-    <t>      USUARIO: acceso</t>
-  </si>
-  <si>
-    <t>      CONTRASEÑA: @cc3s0*2022</t>
-  </si>
-  <si>
-    <t>3.-DEPURAR Y REVISAR (LIBRE DE VIRUS) LOS ARCHIVOS DE LA RUTA \\ZRK_DCCONTROLER\respaldos_equipos, SOLAMENTE DEBEN ESTAR LOS VIGENTES.</t>
   </si>
   <si>
     <t>System Landscape Directory</t>
@@ -5687,7 +5582,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="73">
+  <fonts count="72">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -6122,12 +6017,6 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -7154,7 +7043,7 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="497">
+  <cellXfs count="487">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8027,9 +7916,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8043,12 +7929,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8150,24 +8030,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="62" fillId="25" borderId="50" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8205,9 +8067,6 @@
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="6" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -8220,7 +8079,7 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8270,10 +8129,10 @@
     <xf numFmtId="164" fontId="66" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="28" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="27" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="27" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -8361,6 +8220,12 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8383,12 +8248,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -15947,11 +15806,11 @@
   <sheetPr codeName="Hoja3">
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -15961,84 +15820,84 @@
     <col min="3" max="3" width="14" style="342" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="342" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" style="342" customWidth="1"/>
-    <col min="6" max="6" width="29" style="410" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="411" customWidth="1"/>
+    <col min="6" max="6" width="29" style="401" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="402" customWidth="1"/>
     <col min="8" max="8" width="30.7109375" style="342" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="342"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="F1" s="434"/>
+      <c r="F1" s="424"/>
     </row>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="B2" s="439" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C2" s="439"/>
-      <c r="D2" s="439"/>
-      <c r="E2" s="439"/>
-      <c r="F2" s="439"/>
-      <c r="G2" s="439"/>
-      <c r="H2" s="439"/>
+      <c r="B2" s="429" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C2" s="429"/>
+      <c r="D2" s="429"/>
+      <c r="E2" s="429"/>
+      <c r="F2" s="429"/>
+      <c r="G2" s="429"/>
+      <c r="H2" s="429"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
-      <c r="B3" s="440" t="s">
+      <c r="B3" s="430" t="s">
         <v>1595</v>
       </c>
-      <c r="C3" s="440"/>
-      <c r="D3" s="440"/>
-      <c r="E3" s="440"/>
-      <c r="F3" s="440"/>
-      <c r="G3" s="440"/>
-      <c r="H3" s="440"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="430"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="C4" s="435"/>
-      <c r="D4" s="436" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E4" s="435">
-        <f>MAX(B6:B146)</f>
+      <c r="C4" s="425"/>
+      <c r="D4" s="426" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E4" s="425">
+        <f>MAX(B6:B96)</f>
         <v>45043</v>
       </c>
-      <c r="F4" s="435"/>
-      <c r="G4" s="435"/>
-      <c r="H4" s="435"/>
+      <c r="F4" s="425"/>
+      <c r="G4" s="425"/>
+      <c r="H4" s="425"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="C5" s="435"/>
-      <c r="D5" s="436" t="s">
-        <v>1769</v>
-      </c>
-      <c r="E5" s="435">
-        <f>MIN(B6:B146)</f>
+      <c r="C5" s="425"/>
+      <c r="D5" s="426" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E5" s="425">
+        <f>MIN(B6:B96)</f>
         <v>43613</v>
       </c>
-      <c r="F5" s="435"/>
-      <c r="G5" s="435"/>
-      <c r="H5" s="435"/>
+      <c r="F5" s="425"/>
+      <c r="G5" s="425"/>
+      <c r="H5" s="425"/>
     </row>
     <row r="6" spans="1:10" s="347" customFormat="1" ht="30">
       <c r="A6" s="343"/>
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="427" t="s">
         <v>1447</v>
       </c>
-      <c r="C6" s="437" t="s">
+      <c r="C6" s="427" t="s">
         <v>1448</v>
       </c>
-      <c r="D6" s="437" t="s">
+      <c r="D6" s="427" t="s">
         <v>1449</v>
       </c>
-      <c r="E6" s="437" t="s">
+      <c r="E6" s="427" t="s">
         <v>1336</v>
       </c>
-      <c r="F6" s="437" t="s">
+      <c r="F6" s="427" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="437" t="s">
+      <c r="G6" s="427" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="437" t="s">
+      <c r="H6" s="427" t="s">
         <v>1263</v>
       </c>
       <c r="I6" s="342"/>
@@ -16049,19 +15908,19 @@
       <c r="B7" s="348">
         <v>45035</v>
       </c>
-      <c r="C7" s="433" t="s">
+      <c r="C7" s="423" t="s">
         <v>1477</v>
       </c>
-      <c r="D7" s="365" t="s">
+      <c r="D7" s="362" t="s">
         <v>1337</v>
       </c>
-      <c r="E7" s="366" t="s">
+      <c r="E7" s="363" t="s">
         <v>1241</v>
       </c>
       <c r="F7" s="316" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="367" t="s">
+      <c r="G7" s="364" t="s">
         <v>845</v>
       </c>
       <c r="H7" s="349" t="s">
@@ -16073,22 +15932,22 @@
       <c r="B8" s="348">
         <v>45035</v>
       </c>
-      <c r="C8" s="433" t="s">
+      <c r="C8" s="423" t="s">
         <v>1477</v>
       </c>
-      <c r="D8" s="365" t="s">
+      <c r="D8" s="362" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="366" t="s">
+      <c r="E8" s="363" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="368" t="s">
+      <c r="F8" s="365" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="367" t="s">
+      <c r="G8" s="364" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="362" t="s">
+      <c r="H8" s="359" t="s">
         <v>1536</v>
       </c>
       <c r="I8" s="341"/>
@@ -16098,22 +15957,22 @@
       <c r="B9" s="348">
         <v>43613</v>
       </c>
-      <c r="C9" s="433" t="s">
+      <c r="C9" s="423" t="s">
         <v>1477</v>
       </c>
-      <c r="D9" s="383" t="s">
+      <c r="D9" s="380" t="s">
         <v>1465</v>
       </c>
-      <c r="E9" s="383" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F9" s="368" t="s">
+      <c r="E9" s="380" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F9" s="365" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="367" t="s">
+      <c r="G9" s="364" t="s">
         <v>1466</v>
       </c>
-      <c r="H9" s="383" t="s">
+      <c r="H9" s="380" t="s">
         <v>1467</v>
       </c>
       <c r="I9" s="341"/>
@@ -16123,22 +15982,22 @@
       <c r="B10" s="348">
         <v>43665</v>
       </c>
-      <c r="C10" s="433" t="s">
+      <c r="C10" s="423" t="s">
         <v>1477</v>
       </c>
-      <c r="D10" s="383" t="s">
+      <c r="D10" s="380" t="s">
         <v>1465</v>
       </c>
-      <c r="E10" s="383" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F10" s="368" t="s">
+      <c r="E10" s="380" t="s">
+        <v>1735</v>
+      </c>
+      <c r="F10" s="365" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="367" t="s">
+      <c r="G10" s="364" t="s">
         <v>1468</v>
       </c>
-      <c r="H10" s="383" t="s">
+      <c r="H10" s="380" t="s">
         <v>1469</v>
       </c>
       <c r="I10" s="341"/>
@@ -16148,7 +16007,7 @@
       <c r="B11" s="348">
         <v>45043</v>
       </c>
-      <c r="C11" s="433" t="s">
+      <c r="C11" s="423" t="s">
         <v>1477</v>
       </c>
       <c r="D11" s="349" t="s">
@@ -16157,7 +16016,7 @@
       <c r="E11" s="349" t="s">
         <v>882</v>
       </c>
-      <c r="F11" s="356">
+      <c r="F11" s="355">
         <v>1059</v>
       </c>
       <c r="G11" s="351" t="s">
@@ -16173,7 +16032,7 @@
       <c r="B12" s="348">
         <v>45043</v>
       </c>
-      <c r="C12" s="433" t="s">
+      <c r="C12" s="423" t="s">
         <v>1477</v>
       </c>
       <c r="D12" s="349" t="s">
@@ -16182,10 +16041,10 @@
       <c r="E12" s="349" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="356" t="s">
+      <c r="F12" s="355" t="s">
         <v>1529</v>
       </c>
-      <c r="G12" s="367" t="s">
+      <c r="G12" s="364" t="s">
         <v>883</v>
       </c>
       <c r="H12" s="349" t="s">
@@ -16195,27 +16054,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="341"/>
-      <c r="B13" s="367">
-        <v>44640</v>
-      </c>
-      <c r="C13" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D13" s="369" t="s">
-        <v>942</v>
-      </c>
-      <c r="E13" s="370" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F13" s="356" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G13" s="353" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H13" s="349" t="s">
-        <v>1580</v>
-      </c>
+      <c r="B13" s="348"/>
+      <c r="C13" s="349"/>
+      <c r="D13" s="349"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="350"/>
+      <c r="G13" s="351"/>
+      <c r="H13" s="349"/>
       <c r="I13" s="341"/>
     </row>
     <row r="14" spans="1:10">
@@ -16242,2095 +16087,1690 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="341"/>
-      <c r="B16" s="348"/>
-      <c r="C16" s="349"/>
-      <c r="D16" s="349"/>
-      <c r="E16" s="349"/>
-      <c r="F16" s="350"/>
-      <c r="G16" s="351"/>
-      <c r="H16" s="349"/>
+      <c r="B16" s="419"/>
+      <c r="C16" s="420"/>
+      <c r="D16" s="420"/>
+      <c r="E16" s="428" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F16" s="421"/>
+      <c r="G16" s="422"/>
+      <c r="H16" s="420"/>
       <c r="I16" s="341"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" ht="30">
       <c r="A17" s="341"/>
-      <c r="B17" s="429"/>
-      <c r="C17" s="430"/>
-      <c r="D17" s="430"/>
-      <c r="E17" s="438" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F17" s="431"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="430"/>
+      <c r="B17" s="344" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C17" s="345" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D17" s="345" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E17" s="345" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F17" s="346" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="345" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="345" t="s">
+        <v>1263</v>
+      </c>
       <c r="I17" s="341"/>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9">
       <c r="A18" s="341"/>
-      <c r="B18" s="344" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C18" s="345" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D18" s="345" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E18" s="345" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F18" s="346" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="345" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="345" t="s">
-        <v>1263</v>
-      </c>
+      <c r="B18" s="348"/>
+      <c r="C18" s="357" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D18" s="349" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E18" s="349" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F18" s="350" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G18" s="351">
+        <v>4578</v>
+      </c>
+      <c r="H18" s="349"/>
       <c r="I18" s="341"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="105">
       <c r="A19" s="341"/>
-      <c r="B19" s="348"/>
-      <c r="C19" s="349" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D19" s="349" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E19" s="349" t="s">
-        <v>1351</v>
-      </c>
-      <c r="F19" s="351" t="s">
-        <v>1354</v>
-      </c>
-      <c r="G19" s="351" t="s">
-        <v>979</v>
-      </c>
-      <c r="H19" s="349"/>
+      <c r="B19" s="348">
+        <v>44188</v>
+      </c>
+      <c r="C19" s="358" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D19" s="359" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E19" s="360" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F19" s="352" t="s">
+        <v>718</v>
+      </c>
+      <c r="G19" s="352" t="s">
+        <v>895</v>
+      </c>
+      <c r="H19" s="361" t="s">
+        <v>1304</v>
+      </c>
       <c r="I19" s="341"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="341"/>
-      <c r="B20" s="348">
-        <v>44300</v>
-      </c>
+      <c r="B20" s="348"/>
       <c r="C20" s="349" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D20" s="349" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E20" s="349" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F20" s="351" t="s">
-        <v>1597</v>
+        <v>1601</v>
+      </c>
+      <c r="D20" s="349"/>
+      <c r="E20" s="349"/>
+      <c r="F20" s="350" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="351" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="H20" s="349"/>
-      <c r="I20" s="341"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="341"/>
       <c r="B21" s="348"/>
       <c r="C21" s="349" t="s">
-        <v>1346</v>
+        <v>1605</v>
       </c>
       <c r="D21" s="349" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E21" s="349" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F21" s="351" t="s">
-        <v>1349</v>
+        <v>1606</v>
+      </c>
+      <c r="E21" s="368" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F21" s="350" t="s">
+        <v>1608</v>
       </c>
       <c r="G21" s="351" t="s">
-        <v>979</v>
+        <v>1232</v>
       </c>
       <c r="H21" s="349"/>
-      <c r="I21" s="341"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="341"/>
-      <c r="B22" s="348">
-        <v>44307</v>
-      </c>
+      <c r="B22" s="348"/>
       <c r="C22" s="349" t="s">
-        <v>1346</v>
+        <v>1609</v>
       </c>
       <c r="D22" s="349" t="s">
-        <v>1599</v>
-      </c>
-      <c r="E22" s="352" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E22" s="368" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F22" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="352" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H22" s="349"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="348">
+        <v>44305</v>
+      </c>
+      <c r="C23" s="354" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D23" s="349" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E23" s="349" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F23" s="351" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G23" s="351" t="s">
+        <v>845</v>
+      </c>
+      <c r="H23" s="367" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="353">
+        <v>44105</v>
+      </c>
+      <c r="C24" s="354" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D24" s="367" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="367" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F24" s="355" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G24" s="352" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="367" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="364">
+        <v>44354</v>
+      </c>
+      <c r="C25" s="366" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D25" s="366" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E25" s="366" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F25" s="355" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G25" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="367" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="353">
+        <v>43945</v>
+      </c>
+      <c r="C26" s="354" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D26" s="354" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E26" s="367" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F26" s="355" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G26" s="355" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H26" s="367" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="348"/>
+      <c r="C27" s="357" t="s">
         <v>1600</v>
       </c>
-      <c r="F22" s="351" t="s">
-        <v>1601</v>
-      </c>
-      <c r="G22" s="353" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="349" t="s">
+      <c r="D27" s="349" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E27" s="368" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F27" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H27" s="349" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="348"/>
+      <c r="C28" s="349" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D28" s="349" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E28" s="349"/>
+      <c r="F28" s="350"/>
+      <c r="G28" s="351"/>
+      <c r="H28" s="349" t="s">
         <v>1602</v>
       </c>
-      <c r="I22" s="341"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="341"/>
-      <c r="B23" s="354">
-        <v>44309</v>
-      </c>
-      <c r="C23" s="355" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D23" s="355" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E23" s="356" t="s">
-        <v>1603</v>
-      </c>
-      <c r="F23" s="353" t="s">
-        <v>1604</v>
-      </c>
-      <c r="G23" s="353" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="357" t="s">
-        <v>1605</v>
-      </c>
-      <c r="I23" s="341"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="341"/>
-      <c r="B24" s="348"/>
-      <c r="C24" s="349" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D24" s="349" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E24" s="358" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F24" s="353" t="s">
-        <v>1609</v>
-      </c>
-      <c r="G24" s="351" t="s">
-        <v>1610</v>
-      </c>
-      <c r="H24" s="359" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I24" s="341"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="341"/>
-      <c r="B25" s="348"/>
-      <c r="C25" s="349" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D25" s="349" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E25" s="358" t="s">
-        <v>1608</v>
-      </c>
-      <c r="F25" s="353" t="s">
-        <v>1612</v>
-      </c>
-      <c r="G25" s="351" t="s">
-        <v>1613</v>
-      </c>
-      <c r="H25" s="359" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I25" s="341"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="341"/>
-      <c r="B26" s="348"/>
-      <c r="C26" s="349" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D26" s="349" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E26" s="349" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F26" s="350" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="351"/>
-      <c r="H26" s="349" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I26" s="341"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="341"/>
-      <c r="B27" s="348"/>
-      <c r="C27" s="360" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D27" s="349" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E27" s="349" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F27" s="350" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G27" s="351">
-        <v>4578</v>
-      </c>
-      <c r="H27" s="349"/>
-      <c r="I27" s="341"/>
-    </row>
-    <row r="28" spans="1:9" ht="105">
-      <c r="A28" s="341"/>
-      <c r="B28" s="348">
-        <v>44188</v>
-      </c>
-      <c r="C28" s="361" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D28" s="362" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E28" s="363" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F28" s="353" t="s">
-        <v>718</v>
-      </c>
-      <c r="G28" s="353" t="s">
-        <v>895</v>
-      </c>
-      <c r="H28" s="364" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I28" s="341"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="348"/>
-      <c r="C29" s="349" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D29" s="349"/>
-      <c r="E29" s="349"/>
+      <c r="C29" s="357" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D29" s="349" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E29" s="349" t="s">
+        <v>1621</v>
+      </c>
       <c r="F29" s="350" t="s">
-        <v>9</v>
+        <v>1608</v>
       </c>
       <c r="G29" s="351" t="s">
-        <v>1627</v>
-      </c>
-      <c r="H29" s="349"/>
+        <v>1232</v>
+      </c>
+      <c r="H29" s="349" t="s">
+        <v>1622</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="348"/>
       <c r="C30" s="349" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="D30" s="349" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E30" s="371" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F30" s="350" t="s">
-        <v>1631</v>
+        <v>1624</v>
+      </c>
+      <c r="E30" s="368" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F30" s="352" t="s">
+        <v>1626</v>
       </c>
       <c r="G30" s="351" t="s">
-        <v>1232</v>
+        <v>1627</v>
       </c>
       <c r="H30" s="349"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="348"/>
       <c r="C31" s="349" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D31" s="349" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E31" s="368" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F31" s="350" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G31" s="351" t="s">
         <v>1632</v>
       </c>
-      <c r="D31" s="349" t="s">
+      <c r="H31" s="349"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="369">
+        <v>44108</v>
+      </c>
+      <c r="C32" s="370" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D32" s="354" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E32" s="355" t="s">
+        <v>944</v>
+      </c>
+      <c r="F32" s="352"/>
+      <c r="G32" s="352"/>
+      <c r="H32" s="356" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="348"/>
+      <c r="C33" s="371" t="s">
         <v>1633</v>
       </c>
-      <c r="E31" s="349" t="s">
+      <c r="D33" s="372"/>
+      <c r="E33" s="349"/>
+      <c r="F33" s="350"/>
+      <c r="G33" s="351" t="s">
+        <v>843</v>
+      </c>
+      <c r="H33" s="349" t="s">
         <v>1634</v>
       </c>
-      <c r="F31" s="350" t="s">
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="348"/>
+      <c r="C34" s="371" t="s">
         <v>1635</v>
       </c>
-      <c r="G31" s="351" t="s">
+      <c r="D34" s="372" t="s">
         <v>1636</v>
       </c>
-      <c r="H31" s="349"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="348"/>
-      <c r="C32" s="349" t="s">
+      <c r="E34" s="372" t="s">
         <v>1637</v>
       </c>
-      <c r="D32" s="349" t="s">
+      <c r="F34" s="373" t="s">
         <v>1638</v>
       </c>
-      <c r="E32" s="371" t="s">
+      <c r="G34" s="374" t="s">
         <v>1639</v>
       </c>
-      <c r="F32" s="350" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="353" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H32" s="349"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="348">
-        <v>44305</v>
-      </c>
-      <c r="C33" s="355" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D33" s="349" t="s">
+      <c r="H34" s="375"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="369">
+        <v>44133</v>
+      </c>
+      <c r="C35" s="370" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D35" s="354" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E35" s="355" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F35" s="355" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G35" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="356" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="348"/>
+      <c r="C36" s="349" t="s">
+        <v>398</v>
+      </c>
+      <c r="D36" s="349" t="s">
         <v>1640</v>
       </c>
-      <c r="E33" s="349" t="s">
+      <c r="E36" s="349"/>
+      <c r="F36" s="350" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G36" s="351" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H36" s="349" t="s">
         <v>1641</v>
-      </c>
-      <c r="F33" s="351" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G33" s="351" t="s">
-        <v>845</v>
-      </c>
-      <c r="H33" s="370" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="354">
-        <v>44105</v>
-      </c>
-      <c r="C34" s="355" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D34" s="370" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E34" s="370" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F34" s="356" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G34" s="353" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="370" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="367">
-        <v>44354</v>
-      </c>
-      <c r="C35" s="369" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D35" s="369" t="s">
-        <v>1500</v>
-      </c>
-      <c r="E35" s="369" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F35" s="356" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G35" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="370" t="s">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="354">
-        <v>43945</v>
-      </c>
-      <c r="C36" s="355" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D36" s="355" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E36" s="370" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F36" s="356" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G36" s="356" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H36" s="370" t="s">
-        <v>1500</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="348"/>
-      <c r="C37" s="360" t="s">
-        <v>1623</v>
+      <c r="C37" s="349" t="s">
+        <v>1642</v>
       </c>
       <c r="D37" s="349" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E37" s="349" t="s">
         <v>1644</v>
-      </c>
-      <c r="E37" s="371" t="s">
-        <v>1534</v>
       </c>
       <c r="F37" s="350" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="351" t="s">
+      <c r="G37" s="376" t="s">
         <v>1232</v>
       </c>
-      <c r="H37" s="349" t="s">
+      <c r="H37" s="351" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="348"/>
-      <c r="C38" s="349" t="s">
+      <c r="B38" s="353">
+        <v>44144</v>
+      </c>
+      <c r="C38" s="354" t="s">
         <v>1646</v>
       </c>
-      <c r="D38" s="349" t="s">
+      <c r="D38" s="354" t="s">
         <v>1647</v>
       </c>
-      <c r="E38" s="349"/>
-      <c r="F38" s="350"/>
-      <c r="G38" s="351"/>
-      <c r="H38" s="349" t="s">
-        <v>1625</v>
+      <c r="E38" s="367" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F38" s="377" t="s">
+        <v>951</v>
+      </c>
+      <c r="G38" s="352" t="s">
+        <v>953</v>
+      </c>
+      <c r="H38" s="356" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="348"/>
-      <c r="C39" s="360" t="s">
-        <v>1623</v>
+      <c r="C39" s="349" t="s">
+        <v>1649</v>
       </c>
       <c r="D39" s="349" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E39" s="349" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F39" s="350" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G39" s="351" t="s">
-        <v>1232</v>
-      </c>
+        <v>1650</v>
+      </c>
+      <c r="E39" s="368" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F39" s="350"/>
+      <c r="G39" s="351"/>
       <c r="H39" s="349" t="s">
-        <v>1650</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="348"/>
       <c r="C40" s="349" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="D40" s="349" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E40" s="371" t="s">
         <v>1653</v>
       </c>
-      <c r="F40" s="353" t="s">
+      <c r="E40" s="368" t="s">
         <v>1654</v>
       </c>
+      <c r="F40" s="350" t="s">
+        <v>1655</v>
+      </c>
       <c r="G40" s="351" t="s">
-        <v>1655</v>
-      </c>
-      <c r="H40" s="349"/>
+        <v>1232</v>
+      </c>
+      <c r="H40" s="349" t="s">
+        <v>1656</v>
+      </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="348"/>
       <c r="C41" s="349" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="D41" s="349" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E41" s="371" t="s">
         <v>1658</v>
       </c>
-      <c r="F41" s="350" t="s">
-        <v>1659</v>
-      </c>
-      <c r="G41" s="351" t="s">
-        <v>1660</v>
-      </c>
-      <c r="H41" s="349"/>
+      <c r="E41" s="349"/>
+      <c r="F41" s="350"/>
+      <c r="G41" s="351"/>
+      <c r="H41" s="349" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="372">
-        <v>44108</v>
-      </c>
-      <c r="C42" s="373" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D42" s="355" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E42" s="356" t="s">
-        <v>944</v>
-      </c>
-      <c r="F42" s="353"/>
-      <c r="G42" s="353"/>
-      <c r="H42" s="357" t="s">
-        <v>1533</v>
+      <c r="B42" s="369">
+        <v>44165</v>
+      </c>
+      <c r="C42" s="370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D42" s="354" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E42" s="296" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F42" s="355" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G42" s="355" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H42" s="356" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="348"/>
-      <c r="C43" s="374" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D43" s="375"/>
-      <c r="E43" s="349"/>
-      <c r="F43" s="350"/>
-      <c r="G43" s="351" t="s">
-        <v>843</v>
-      </c>
-      <c r="H43" s="349" t="s">
-        <v>1662</v>
+      <c r="B43" s="369">
+        <v>44165</v>
+      </c>
+      <c r="C43" s="370" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D43" s="354" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E43" s="296" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F43" s="355" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G43" s="355" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H43" s="378" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="348"/>
-      <c r="C44" s="374" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D44" s="375" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E44" s="375" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F44" s="376" t="s">
-        <v>1666</v>
-      </c>
-      <c r="G44" s="377" t="s">
-        <v>1667</v>
-      </c>
-      <c r="H44" s="378"/>
+      <c r="C44" s="357" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D44" s="349" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E44" s="349" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F44" s="379" t="s">
+        <v>882</v>
+      </c>
+      <c r="G44" s="352" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H44" s="349"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="372">
-        <v>44133</v>
-      </c>
-      <c r="C45" s="373" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D45" s="355" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E45" s="356" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F45" s="356" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G45" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="357" t="s">
-        <v>1481</v>
-      </c>
+      <c r="B45" s="364"/>
+      <c r="C45" s="357" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D45" s="380" t="s">
+        <v>874</v>
+      </c>
+      <c r="E45" s="365" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F45" s="364" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G45" s="364" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H45" s="380"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="348"/>
-      <c r="C46" s="349" t="s">
-        <v>398</v>
-      </c>
-      <c r="D46" s="349" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E46" s="349"/>
-      <c r="F46" s="350" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G46" s="351" t="s">
-        <v>1627</v>
-      </c>
-      <c r="H46" s="349" t="s">
-        <v>1669</v>
-      </c>
+      <c r="C46" s="357" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D46" s="380" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E46" s="380"/>
+      <c r="F46" s="365" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="364" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H46" s="380"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="348"/>
-      <c r="C47" s="349" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D47" s="349" t="s">
-        <v>1671</v>
-      </c>
-      <c r="E47" s="349" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F47" s="350" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="379" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H47" s="351" t="s">
-        <v>1673</v>
-      </c>
+      <c r="C47" s="357" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D47" s="380" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E47" s="380" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="365" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G47" s="364" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H47" s="380"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="354">
-        <v>44144</v>
-      </c>
-      <c r="C48" s="355" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D48" s="355" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E48" s="370" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F48" s="380" t="s">
-        <v>951</v>
-      </c>
-      <c r="G48" s="353" t="s">
-        <v>953</v>
-      </c>
-      <c r="H48" s="357" t="s">
-        <v>1490</v>
-      </c>
+      <c r="B48" s="348"/>
+      <c r="C48" s="357" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D48" s="349" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E48" s="349"/>
+      <c r="F48" s="379" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G48" s="351" t="s">
+        <v>845</v>
+      </c>
+      <c r="H48" s="349"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="348"/>
       <c r="C49" s="349" t="s">
-        <v>1677</v>
+        <v>1659</v>
       </c>
       <c r="D49" s="349" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E49" s="371" t="s">
-        <v>1679</v>
-      </c>
+        <v>1660</v>
+      </c>
+      <c r="E49" s="349"/>
       <c r="F49" s="350"/>
       <c r="G49" s="351"/>
       <c r="H49" s="349" t="s">
-        <v>1625</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="348"/>
-      <c r="C50" s="349" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D50" s="349" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E50" s="371" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F50" s="350" t="s">
-        <v>1683</v>
-      </c>
-      <c r="G50" s="351" t="s">
+      <c r="B50" s="364">
+        <v>44295</v>
+      </c>
+      <c r="C50" s="358" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D50" s="366" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E50" s="367" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F50" s="355" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G50" s="352" t="s">
+        <v>845</v>
+      </c>
+      <c r="H50" s="349" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="364">
+        <v>44295</v>
+      </c>
+      <c r="C51" s="358" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D51" s="366" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E51" s="367" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F51" s="355" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G51" s="352" t="s">
+        <v>845</v>
+      </c>
+      <c r="H51" s="349" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="364">
+        <v>44147</v>
+      </c>
+      <c r="C52" s="358" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D52" s="366" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E52" s="367" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F52" s="355" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G52" s="352" t="s">
+        <v>845</v>
+      </c>
+      <c r="H52" s="349" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="348"/>
+      <c r="C53" s="349" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D53" s="349" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E53" s="349"/>
+      <c r="F53" s="350"/>
+      <c r="G53" s="351"/>
+      <c r="H53" s="349" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="348"/>
+      <c r="C54" s="349" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D54" s="349" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E54" s="349"/>
+      <c r="F54" s="350"/>
+      <c r="G54" s="351"/>
+      <c r="H54" s="349" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="348"/>
+      <c r="C55" s="349" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D55" s="349" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E55" s="368" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F55" s="350" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G55" s="351" t="s">
+        <v>1667</v>
+      </c>
+      <c r="H55" s="349"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="353">
+        <v>44162</v>
+      </c>
+      <c r="C56" s="370" t="s">
+        <v>751</v>
+      </c>
+      <c r="D56" s="354" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E56" s="355" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F56" s="355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="355" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H56" s="378"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="369">
+        <v>44302</v>
+      </c>
+      <c r="C57" s="370" t="s">
+        <v>751</v>
+      </c>
+      <c r="D57" s="354" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E57" s="355" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="355" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G57" s="355" t="s">
+        <v>845</v>
+      </c>
+      <c r="H57" s="356" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="353"/>
+      <c r="C58" s="370" t="s">
+        <v>751</v>
+      </c>
+      <c r="D58" s="354" t="s">
+        <v>748</v>
+      </c>
+      <c r="E58" s="355" t="s">
+        <v>748</v>
+      </c>
+      <c r="F58" s="355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="355" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="356" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="369">
+        <v>44139</v>
+      </c>
+      <c r="C59" s="370" t="s">
+        <v>751</v>
+      </c>
+      <c r="D59" s="354" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E59" s="355" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F59" s="355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="355" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="356" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="381">
+        <v>44302</v>
+      </c>
+      <c r="C60" s="349" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D60" s="349" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E60" s="349" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F60" s="350" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G60" s="351" t="s">
         <v>1232</v>
       </c>
-      <c r="H50" s="349" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="348"/>
-      <c r="C51" s="349" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D51" s="349" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E51" s="349"/>
-      <c r="F51" s="350"/>
-      <c r="G51" s="351"/>
-      <c r="H51" s="349" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="372">
-        <v>44165</v>
-      </c>
-      <c r="C54" s="373" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D54" s="355" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E54" s="296" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F54" s="356" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G54" s="356" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H54" s="357" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="372">
-        <v>44165</v>
-      </c>
-      <c r="C55" s="373" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D55" s="355" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E55" s="296" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F55" s="356" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G55" s="356" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H55" s="381" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="348"/>
-      <c r="C56" s="360" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D56" s="349" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E56" s="349" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F56" s="382" t="s">
-        <v>882</v>
-      </c>
-      <c r="G56" s="353" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H56" s="349"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="F57" s="342"/>
-      <c r="G57" s="342"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="F58" s="342"/>
-      <c r="G58" s="342"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="367"/>
-      <c r="C59" s="360" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D59" s="383" t="s">
-        <v>874</v>
-      </c>
-      <c r="E59" s="368" t="s">
-        <v>1470</v>
-      </c>
-      <c r="F59" s="367" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G59" s="367" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H59" s="383"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="348"/>
-      <c r="C60" s="360" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D60" s="383" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E60" s="383"/>
-      <c r="F60" s="368" t="s">
-        <v>47</v>
-      </c>
-      <c r="G60" s="367" t="s">
-        <v>1474</v>
-      </c>
-      <c r="H60" s="383"/>
+      <c r="H60" s="349" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="348"/>
-      <c r="C61" s="360" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D61" s="383" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E61" s="383" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="368" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G61" s="367" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H61" s="383"/>
+      <c r="B61" s="381">
+        <v>44302</v>
+      </c>
+      <c r="C61" s="349" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D61" s="349" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E61" s="349"/>
+      <c r="F61" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H61" s="349"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62" s="348"/>
-      <c r="C62" s="360" t="s">
-        <v>1465</v>
+      <c r="C62" s="349" t="s">
+        <v>1673</v>
       </c>
       <c r="D62" s="349" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E62" s="349"/>
-      <c r="F62" s="382" t="s">
-        <v>1453</v>
+        <v>1674</v>
+      </c>
+      <c r="E62" s="349" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F62" s="352" t="s">
+        <v>1676</v>
       </c>
       <c r="G62" s="351" t="s">
-        <v>845</v>
+        <v>1232</v>
       </c>
       <c r="H62" s="349"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63" s="348"/>
       <c r="C63" s="349" t="s">
-        <v>1687</v>
+        <v>1677</v>
       </c>
       <c r="D63" s="349" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E63" s="349"/>
-      <c r="F63" s="350"/>
-      <c r="G63" s="351"/>
-      <c r="H63" s="349" t="s">
-        <v>1625</v>
-      </c>
+        <v>1678</v>
+      </c>
+      <c r="E63" s="349" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F63" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="351" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H63" s="349"/>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="367">
-        <v>44295</v>
-      </c>
-      <c r="C64" s="361" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D64" s="369" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E64" s="370" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F64" s="356" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G64" s="353" t="s">
-        <v>845</v>
-      </c>
+      <c r="B64" s="348"/>
+      <c r="C64" s="349" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D64" s="349" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E64" s="349"/>
+      <c r="F64" s="350"/>
+      <c r="G64" s="351"/>
       <c r="H64" s="349" t="s">
-        <v>1521</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="367">
-        <v>44295</v>
-      </c>
-      <c r="C65" s="361" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D65" s="369" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E65" s="370" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F65" s="356" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G65" s="353" t="s">
-        <v>845</v>
-      </c>
+      <c r="B65" s="348"/>
+      <c r="C65" s="349" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D65" s="349" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E65" s="349"/>
+      <c r="F65" s="350"/>
+      <c r="G65" s="351"/>
       <c r="H65" s="349" t="s">
-        <v>1523</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="367">
-        <v>44147</v>
-      </c>
-      <c r="C66" s="361" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D66" s="369" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E66" s="370" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F66" s="356" t="s">
-        <v>1522</v>
-      </c>
-      <c r="G66" s="353" t="s">
-        <v>845</v>
-      </c>
+      <c r="B66" s="348"/>
+      <c r="C66" s="349" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D66" s="349" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E66" s="349"/>
+      <c r="F66" s="350"/>
+      <c r="G66" s="351"/>
       <c r="H66" s="349" t="s">
-        <v>1526</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="348"/>
       <c r="C67" s="349" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="D67" s="349" t="s">
-        <v>1690</v>
-      </c>
-      <c r="E67" s="349"/>
-      <c r="F67" s="350"/>
-      <c r="G67" s="351"/>
+        <v>1685</v>
+      </c>
+      <c r="E67" s="349" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F67" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="351" t="s">
+        <v>1232</v>
+      </c>
       <c r="H67" s="349" t="s">
-        <v>1625</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="348"/>
       <c r="C68" s="349" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D68" s="349" t="s">
         <v>1689</v>
       </c>
-      <c r="D68" s="349" t="s">
+      <c r="E68" s="349" t="s">
         <v>1690</v>
       </c>
-      <c r="E68" s="349"/>
-      <c r="F68" s="350"/>
+      <c r="F68" s="350" t="s">
+        <v>9</v>
+      </c>
       <c r="G68" s="351"/>
       <c r="H68" s="349" t="s">
-        <v>1626</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="348"/>
-      <c r="C69" s="349" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D69" s="349" t="s">
+      <c r="B69" s="364">
+        <v>44329</v>
+      </c>
+      <c r="C69" s="358" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D69" s="366" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E69" s="366" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F69" s="355" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G69" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H69" s="349" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="364">
+        <v>44329</v>
+      </c>
+      <c r="C70" s="358" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D70" s="366" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E70" s="366" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F70" s="355" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="352" t="s">
+        <v>895</v>
+      </c>
+      <c r="H70" s="349" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="364">
+        <v>44369</v>
+      </c>
+      <c r="C71" s="358" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D71" s="366" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E71" s="367" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F71" s="382" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G71" s="383" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="349" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="364">
+        <v>44329</v>
+      </c>
+      <c r="C72" s="358" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D72" s="366" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E72" s="384" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F72" s="355" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G72" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="349" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="364">
+        <v>44329</v>
+      </c>
+      <c r="C73" s="358" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D73" s="366" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E73" s="367" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F73" s="355" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G73" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="349" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="385">
+        <v>44925</v>
+      </c>
+      <c r="C74" s="358" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D74" s="387" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E74" s="388" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F74" s="417" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G74" s="390" t="s">
+        <v>979</v>
+      </c>
+      <c r="H74" s="418" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="45">
+      <c r="B75" s="385">
+        <v>44511</v>
+      </c>
+      <c r="C75" s="386" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D75" s="387" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E75" s="388" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F75" s="389" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="390" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H75" s="391" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="30">
+      <c r="B76" s="392" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C76" s="392" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D76" s="392" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E76" s="392" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F76" s="392" t="s">
+        <v>172</v>
+      </c>
+      <c r="G76" s="392" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="392" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="364">
+        <v>44581</v>
+      </c>
+      <c r="C77" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D77" s="366" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E77" s="367"/>
+      <c r="F77" s="355" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="393" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H77" s="349" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="F78" s="342"/>
+      <c r="G78" s="342"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="364">
+        <v>44640</v>
+      </c>
+      <c r="C79" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D79" s="366" t="s">
+        <v>942</v>
+      </c>
+      <c r="E79" s="367" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F79" s="393" t="s">
+        <v>129</v>
+      </c>
+      <c r="G79" s="352" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H79" s="349" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="364">
+        <v>44563</v>
+      </c>
+      <c r="C80" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D80" s="366" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E80" s="367" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F80" s="355" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G80" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H80" s="394" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="364">
+        <v>44581</v>
+      </c>
+      <c r="C81" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D81" s="366" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E81" s="367" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F81" s="355" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G81" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H81" s="349"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="395">
+        <v>44581</v>
+      </c>
+      <c r="C82" s="396" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D82" s="396" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E82" s="397" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F82" s="398" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G82" s="399" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H82" s="400" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="364">
+        <v>44581</v>
+      </c>
+      <c r="C83" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D83" s="366" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E83" s="367" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F83" s="355" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G83" s="352" t="s">
+        <v>895</v>
+      </c>
+      <c r="H83" s="349" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="364">
+        <v>44581</v>
+      </c>
+      <c r="C84" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D84" s="366" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E84" s="367" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F84" s="355" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G84" s="352" t="s">
+        <v>979</v>
+      </c>
+      <c r="H84" s="349" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="364">
+        <v>44606</v>
+      </c>
+      <c r="C85" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D85" s="366" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E85" s="367" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F85" s="355" t="s">
+        <v>975</v>
+      </c>
+      <c r="G85" s="352" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H85" s="349" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="364">
+        <v>44661</v>
+      </c>
+      <c r="C86" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D86" s="366" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E86" s="367" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F86" s="355" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G86" s="352" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H86" s="349"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="364">
+        <v>44139</v>
+      </c>
+      <c r="C87" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D87" s="366" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E87" s="367" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F87" s="355" t="s">
+        <v>47</v>
+      </c>
+      <c r="G87" s="352" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H87" s="349" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="348"/>
+      <c r="C88" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D88" s="366" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E88" s="349" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F88" s="379" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G88" s="352" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H88" s="349"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="348"/>
+      <c r="C89" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D89" s="366" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E89" s="349" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F89" s="379" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G89" s="352" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H89" s="349"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="348">
+        <v>44873</v>
+      </c>
+      <c r="C90" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D90" s="366" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="349" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="364">
+        <v>44652</v>
+      </c>
+      <c r="C91" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D91" s="366" t="s">
+        <v>751</v>
+      </c>
+      <c r="E91" s="367" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F91" s="355" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="352" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="349" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="411">
+        <v>44910</v>
+      </c>
+      <c r="C92" s="412" t="s">
         <v>1692</v>
       </c>
-      <c r="E69" s="371" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F69" s="350" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G69" s="351" t="s">
-        <v>1695</v>
-      </c>
-      <c r="H69" s="349"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="354">
-        <v>44162</v>
-      </c>
-      <c r="C70" s="373" t="s">
-        <v>751</v>
-      </c>
-      <c r="D70" s="355" t="s">
-        <v>1507</v>
-      </c>
-      <c r="E70" s="356" t="s">
-        <v>1508</v>
-      </c>
-      <c r="F70" s="356" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="356" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H70" s="381"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="372">
-        <v>44302</v>
-      </c>
-      <c r="C71" s="373" t="s">
-        <v>751</v>
-      </c>
-      <c r="D71" s="355" t="s">
-        <v>1509</v>
-      </c>
-      <c r="E71" s="356" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F71" s="356" t="s">
-        <v>1510</v>
-      </c>
-      <c r="G71" s="356" t="s">
-        <v>845</v>
-      </c>
-      <c r="H71" s="357" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="354"/>
-      <c r="C72" s="373" t="s">
-        <v>751</v>
-      </c>
-      <c r="D72" s="355" t="s">
-        <v>748</v>
-      </c>
-      <c r="E72" s="356" t="s">
-        <v>748</v>
-      </c>
-      <c r="F72" s="356" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="356" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="357" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="372">
-        <v>44139</v>
-      </c>
-      <c r="C73" s="373" t="s">
-        <v>751</v>
-      </c>
-      <c r="D73" s="355" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E73" s="356" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F73" s="356" t="s">
-        <v>28</v>
-      </c>
-      <c r="G73" s="356" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="357" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="384">
-        <v>44302</v>
-      </c>
-      <c r="C74" s="349" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D74" s="349" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E74" s="349" t="s">
+      <c r="D92" s="412" t="s">
         <v>1698</v>
       </c>
-      <c r="F74" s="350" t="s">
-        <v>1683</v>
-      </c>
-      <c r="G74" s="351" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H74" s="349" t="s">
+      <c r="E92" s="413" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F92" s="414"/>
+      <c r="G92" s="415"/>
+      <c r="H92" s="416" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
-      <c r="B75" s="384">
-        <v>44302</v>
-      </c>
-      <c r="C75" s="349" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D75" s="349" t="s">
+    <row r="93" spans="2:8">
+      <c r="B93" s="348"/>
+      <c r="C93" s="349" t="s">
         <v>1700</v>
       </c>
-      <c r="E75" s="349"/>
-      <c r="F75" s="350" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="351" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H75" s="349"/>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" s="348"/>
-      <c r="C76" s="349" t="s">
+      <c r="D93" s="349" t="s">
         <v>1701</v>
       </c>
-      <c r="D76" s="349" t="s">
+      <c r="E93" s="349" t="s">
         <v>1702</v>
       </c>
-      <c r="E76" s="349" t="s">
+      <c r="F93" s="352" t="s">
         <v>1703</v>
       </c>
-      <c r="F76" s="353" t="s">
+      <c r="G93" s="351" t="s">
+        <v>979</v>
+      </c>
+      <c r="H93" s="349"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="348">
+        <v>44313</v>
+      </c>
+      <c r="C94" s="349" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D94" s="349" t="s">
+        <v>754</v>
+      </c>
+      <c r="E94" s="349" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F94" s="355">
+        <v>1059</v>
+      </c>
+      <c r="G94" s="351" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" s="349" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="348">
+        <v>44313</v>
+      </c>
+      <c r="C95" s="349" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D95" s="349" t="s">
+        <v>754</v>
+      </c>
+      <c r="E95" s="349" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F95" s="355" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G95" s="364" t="s">
+        <v>883</v>
+      </c>
+      <c r="H95" s="349" t="s">
         <v>1704</v>
       </c>
-      <c r="G76" s="351" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H76" s="349"/>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" s="348"/>
-      <c r="C77" s="349" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D77" s="349" t="s">
+    </row>
+    <row r="96" spans="2:8" ht="30">
+      <c r="B96" s="364">
+        <v>44874</v>
+      </c>
+      <c r="C96" s="366" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D96" s="366" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E96" s="367" t="s">
+        <v>752</v>
+      </c>
+      <c r="F96" s="404" t="s">
         <v>1706</v>
       </c>
-      <c r="E77" s="349" t="s">
+      <c r="G96" s="352" t="s">
+        <v>37</v>
+      </c>
+      <c r="H96" s="359" t="s">
         <v>1707</v>
       </c>
-      <c r="F77" s="350" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="351" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H77" s="349"/>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" s="348"/>
-      <c r="C78" s="349" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D78" s="349" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E78" s="349"/>
-      <c r="F78" s="350"/>
-      <c r="G78" s="351"/>
-      <c r="H78" s="349" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" s="348"/>
-      <c r="C79" s="349" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D79" s="349" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E79" s="349"/>
-      <c r="F79" s="350"/>
-      <c r="G79" s="351"/>
-      <c r="H79" s="349" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" s="348"/>
-      <c r="C80" s="349" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D80" s="349" t="s">
-        <v>1711</v>
-      </c>
-      <c r="E80" s="349"/>
-      <c r="F80" s="350"/>
-      <c r="G80" s="351"/>
-      <c r="H80" s="349" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="F81" s="342"/>
-      <c r="G81" s="342"/>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" s="348"/>
-      <c r="C82" s="349" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D82" s="349" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E82" s="349" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F82" s="350" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="351" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H82" s="349" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" s="348"/>
-      <c r="C83" s="349" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D83" s="349" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E83" s="349" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F83" s="350" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="351"/>
-      <c r="H83" s="349" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" s="367">
-        <v>44329</v>
-      </c>
-      <c r="C84" s="361" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D84" s="369" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E84" s="369" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F84" s="356" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G84" s="353" t="s">
-        <v>979</v>
-      </c>
-      <c r="H84" s="349" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" s="367">
-        <v>44329</v>
-      </c>
-      <c r="C85" s="361" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D85" s="369" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E85" s="369" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F85" s="356" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85" s="353" t="s">
-        <v>895</v>
-      </c>
-      <c r="H85" s="349" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" s="367">
-        <v>44369</v>
-      </c>
-      <c r="C87" s="361" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D87" s="369" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E87" s="370" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F87" s="385" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G87" s="386" t="s">
-        <v>18</v>
-      </c>
-      <c r="H87" s="349" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" s="367">
-        <v>44329</v>
-      </c>
-      <c r="C88" s="361" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D88" s="369" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E88" s="387" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F88" s="356" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G88" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="H88" s="349" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="367">
-        <v>44329</v>
-      </c>
-      <c r="C89" s="361" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D89" s="369" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E89" s="370" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F89" s="356" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G89" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="H89" s="349" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="388">
-        <v>44925</v>
-      </c>
-      <c r="C90" s="361" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D90" s="390" t="s">
-        <v>1763</v>
-      </c>
-      <c r="E90" s="391" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F90" s="427" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G90" s="393" t="s">
-        <v>979</v>
-      </c>
-      <c r="H90" s="428" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="45">
-      <c r="B91" s="388">
-        <v>44511</v>
-      </c>
-      <c r="C91" s="389" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D91" s="390" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E91" s="391" t="s">
-        <v>1572</v>
-      </c>
-      <c r="F91" s="392" t="s">
-        <v>129</v>
-      </c>
-      <c r="G91" s="393" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H91" s="394" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="395"/>
-      <c r="C92" s="396"/>
-      <c r="D92" s="396"/>
-      <c r="E92" s="397"/>
-      <c r="F92" s="398"/>
-      <c r="G92" s="399"/>
-      <c r="H92" s="400"/>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="395"/>
-      <c r="C93" s="396"/>
-      <c r="D93" s="396"/>
-      <c r="E93" s="397"/>
-      <c r="F93" s="398"/>
-      <c r="G93" s="399"/>
-      <c r="H93" s="400"/>
-    </row>
-    <row r="94" spans="2:8" ht="30">
-      <c r="B94" s="401" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C94" s="401" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D94" s="401" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E94" s="401" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F94" s="401" t="s">
-        <v>172</v>
-      </c>
-      <c r="G94" s="401" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="401" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="367">
-        <v>44581</v>
-      </c>
-      <c r="C95" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D95" s="369" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E95" s="370"/>
-      <c r="F95" s="356" t="s">
-        <v>44</v>
-      </c>
-      <c r="G95" s="402" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H95" s="349" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="F96" s="342"/>
-      <c r="G96" s="342"/>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" s="367">
-        <v>44640</v>
-      </c>
-      <c r="C97" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D97" s="369" t="s">
-        <v>942</v>
-      </c>
-      <c r="E97" s="370" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F97" s="402" t="s">
-        <v>129</v>
-      </c>
-      <c r="G97" s="353" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H97" s="349" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" s="367">
-        <v>44563</v>
-      </c>
-      <c r="C98" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D98" s="369" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E98" s="370" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F98" s="356" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G98" s="353" t="s">
-        <v>979</v>
-      </c>
-      <c r="H98" s="403" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" s="367">
-        <v>44581</v>
-      </c>
-      <c r="C99" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D99" s="369" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E99" s="370" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F99" s="356" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G99" s="353" t="s">
-        <v>979</v>
-      </c>
-      <c r="H99" s="349"/>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" s="404">
-        <v>44581</v>
-      </c>
-      <c r="C100" s="405" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D100" s="405" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E100" s="406" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F100" s="407" t="s">
-        <v>1723</v>
-      </c>
-      <c r="G100" s="408" t="s">
-        <v>1724</v>
-      </c>
-      <c r="H100" s="409" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" s="367">
-        <v>44581</v>
-      </c>
-      <c r="C101" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D101" s="369" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E101" s="370" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F101" s="356" t="s">
-        <v>1586</v>
-      </c>
-      <c r="G101" s="353" t="s">
-        <v>895</v>
-      </c>
-      <c r="H101" s="349" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" s="367">
-        <v>44581</v>
-      </c>
-      <c r="C102" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D102" s="369" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E102" s="370" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F102" s="356" t="s">
-        <v>1588</v>
-      </c>
-      <c r="G102" s="353" t="s">
-        <v>979</v>
-      </c>
-      <c r="H102" s="349" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" s="367">
-        <v>44606</v>
-      </c>
-      <c r="C103" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D103" s="369" t="s">
-        <v>1488</v>
-      </c>
-      <c r="E103" s="370" t="s">
-        <v>1489</v>
-      </c>
-      <c r="F103" s="356" t="s">
-        <v>975</v>
-      </c>
-      <c r="G103" s="353" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H103" s="349" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" s="367">
-        <v>44661</v>
-      </c>
-      <c r="C104" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D104" s="369" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E104" s="370" t="s">
-        <v>1463</v>
-      </c>
-      <c r="F104" s="356" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G104" s="353" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H104" s="349"/>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" s="367">
-        <v>44139</v>
-      </c>
-      <c r="C105" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D105" s="369" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E105" s="370" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F105" s="356" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105" s="353" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H105" s="349" t="s">
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" s="348"/>
-      <c r="C106" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D106" s="369" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E106" s="349" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F106" s="382" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G106" s="353" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H106" s="349"/>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" s="348"/>
-      <c r="C107" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D107" s="369" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E107" s="349" t="s">
-        <v>1462</v>
-      </c>
-      <c r="F107" s="382" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G107" s="353" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H107" s="349"/>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108" s="348">
-        <v>44873</v>
-      </c>
-      <c r="C108" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D108" s="369" t="s">
-        <v>1450</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F108" s="28" t="s">
-        <v>1495</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="349" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8">
-      <c r="B109" s="367">
-        <v>44652</v>
-      </c>
-      <c r="C109" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D109" s="369" t="s">
-        <v>751</v>
-      </c>
-      <c r="E109" s="370" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F109" s="356" t="s">
-        <v>28</v>
-      </c>
-      <c r="G109" s="353" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" s="349" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8">
-      <c r="B110" s="421">
-        <v>44910</v>
-      </c>
-      <c r="C110" s="422" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D110" s="422" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E110" s="423" t="s">
-        <v>1747</v>
-      </c>
-      <c r="F110" s="424"/>
-      <c r="G110" s="425"/>
-      <c r="H110" s="426" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8">
-      <c r="B111" s="348"/>
-      <c r="C111" s="349" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D111" s="349" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E111" s="349" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F111" s="353" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G111" s="351" t="s">
-        <v>979</v>
-      </c>
-      <c r="H111" s="349"/>
-    </row>
-    <row r="112" spans="2:8">
-      <c r="B112" s="348">
-        <v>44313</v>
-      </c>
-      <c r="C112" s="349" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D112" s="349" t="s">
-        <v>754</v>
-      </c>
-      <c r="E112" s="349" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F112" s="356">
-        <v>1059</v>
-      </c>
-      <c r="G112" s="351" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" s="349" t="s">
-        <v>1458</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8">
-      <c r="B113" s="348">
-        <v>44313</v>
-      </c>
-      <c r="C113" s="349" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D113" s="349" t="s">
-        <v>754</v>
-      </c>
-      <c r="E113" s="349" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F113" s="356" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G113" s="367" t="s">
-        <v>883</v>
-      </c>
-      <c r="H113" s="349" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="30">
-      <c r="B114" s="367">
-        <v>44874</v>
-      </c>
-      <c r="C114" s="369" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D114" s="369" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E114" s="370" t="s">
-        <v>752</v>
-      </c>
-      <c r="F114" s="414" t="s">
-        <v>1741</v>
-      </c>
-      <c r="G114" s="353" t="s">
-        <v>37</v>
-      </c>
-      <c r="H114" s="362" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8">
-      <c r="B115" s="367"/>
-      <c r="C115" s="369"/>
-      <c r="D115" s="369"/>
-      <c r="E115" s="370"/>
-      <c r="F115" s="356"/>
-      <c r="G115" s="353"/>
-      <c r="H115" s="349"/>
-    </row>
-    <row r="116" spans="2:8">
-      <c r="B116" s="367"/>
-      <c r="C116" s="369"/>
-      <c r="D116" s="369"/>
-      <c r="E116" s="370"/>
-      <c r="F116" s="356"/>
-      <c r="G116" s="353"/>
-      <c r="H116" s="349"/>
-    </row>
-    <row r="117" spans="2:8">
-      <c r="B117" s="367"/>
-      <c r="C117" s="369"/>
-      <c r="D117" s="369"/>
-      <c r="E117" s="370"/>
-      <c r="F117" s="356"/>
-      <c r="G117" s="353"/>
-      <c r="H117" s="349"/>
-    </row>
-    <row r="118" spans="2:8">
-      <c r="B118" s="367"/>
-      <c r="C118" s="369"/>
-      <c r="D118" s="369"/>
-      <c r="E118" s="370"/>
-      <c r="F118" s="356"/>
-      <c r="G118" s="353"/>
-      <c r="H118" s="349"/>
-    </row>
-    <row r="119" spans="2:8" ht="15.75">
-      <c r="B119" s="367"/>
-      <c r="C119" s="369"/>
-      <c r="D119" s="413"/>
-      <c r="E119" s="370"/>
-      <c r="F119" s="356"/>
-      <c r="G119" s="353"/>
-      <c r="H119" s="349"/>
-    </row>
-    <row r="120" spans="2:8" ht="15.75">
-      <c r="B120" s="367"/>
-      <c r="C120" s="369"/>
-      <c r="D120" s="413" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E120" s="370"/>
-      <c r="F120" s="356"/>
-      <c r="G120" s="353"/>
-      <c r="H120" s="349"/>
-    </row>
-    <row r="121" spans="2:8" ht="15.75">
-      <c r="B121" s="367"/>
-      <c r="C121" s="369"/>
-      <c r="D121" s="413"/>
-      <c r="E121" s="370"/>
-      <c r="F121" s="356"/>
-      <c r="G121" s="353"/>
-      <c r="H121" s="349"/>
-    </row>
-    <row r="122" spans="2:8">
-      <c r="B122" s="367"/>
-      <c r="C122" s="369"/>
-      <c r="D122" s="83" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E122" s="370"/>
-      <c r="F122" s="356"/>
-      <c r="G122" s="353"/>
-      <c r="H122" s="349"/>
-    </row>
-    <row r="123" spans="2:8" ht="15.75">
-      <c r="B123" s="367"/>
-      <c r="C123" s="369"/>
-      <c r="D123" s="413" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E123" s="370"/>
-      <c r="F123" s="356"/>
-      <c r="G123" s="353"/>
-      <c r="H123" s="349"/>
-    </row>
-    <row r="124" spans="2:8" ht="15.75">
-      <c r="B124" s="367"/>
-      <c r="C124" s="369"/>
-      <c r="D124" s="413" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E124" s="370"/>
-      <c r="F124" s="356"/>
-      <c r="G124" s="353"/>
-      <c r="H124" s="349"/>
-    </row>
-    <row r="125" spans="2:8" ht="15.75">
-      <c r="B125" s="367"/>
-      <c r="C125" s="369"/>
-      <c r="D125" s="413"/>
-      <c r="E125" s="370"/>
-      <c r="F125" s="356"/>
-      <c r="G125" s="353"/>
-      <c r="H125" s="349"/>
-    </row>
-    <row r="126" spans="2:8" ht="15.75">
-      <c r="B126" s="367"/>
-      <c r="C126" s="369"/>
-      <c r="D126" s="413" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E126" s="370"/>
-      <c r="F126" s="356"/>
-      <c r="G126" s="353"/>
-      <c r="H126" s="349"/>
-    </row>
-    <row r="127" spans="2:8" ht="15.75">
-      <c r="B127" s="367"/>
-      <c r="C127" s="369"/>
-      <c r="D127" s="413" t="s">
-        <v>1738</v>
-      </c>
-      <c r="E127" s="370"/>
-      <c r="F127" s="356"/>
-      <c r="G127" s="353"/>
-      <c r="H127" s="349"/>
-    </row>
-    <row r="128" spans="2:8" ht="15.75">
-      <c r="B128" s="367"/>
-      <c r="C128" s="369"/>
-      <c r="D128" s="413"/>
-      <c r="E128" s="370"/>
-      <c r="F128" s="356"/>
-      <c r="G128" s="353"/>
-      <c r="H128" s="349"/>
-    </row>
-    <row r="129" spans="2:8">
-      <c r="B129" s="367"/>
-      <c r="C129" s="369"/>
-      <c r="D129" s="83" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E129" s="370"/>
-      <c r="F129" s="356"/>
-      <c r="G129" s="353"/>
-      <c r="H129" s="349"/>
-    </row>
-    <row r="130" spans="2:8">
-      <c r="B130" s="367"/>
-      <c r="C130" s="369"/>
-      <c r="D130" s="369"/>
-      <c r="E130" s="370"/>
-      <c r="F130" s="356"/>
-      <c r="G130" s="353"/>
-      <c r="H130" s="349"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H91" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
+  <autoFilter ref="B6:H75" xr:uid="{7586506B-F1B2-40C6-8105-13ED223D869C}"/>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E40" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
-    <hyperlink ref="F39" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
-    <hyperlink ref="F47" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
-    <hyperlink ref="F30" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
-    <hyperlink ref="E30" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
-    <hyperlink ref="E37" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
-    <hyperlink ref="F37" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
-    <hyperlink ref="F46" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
-    <hyperlink ref="F29" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
-    <hyperlink ref="E69" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
-    <hyperlink ref="F69" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
-    <hyperlink ref="F77" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
-    <hyperlink ref="F41" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
-    <hyperlink ref="E41" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
-    <hyperlink ref="E50" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
-    <hyperlink ref="E49" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{52FB54D5-0069-4D4A-987A-2807E6336DB5}"/>
-    <hyperlink ref="F26" r:id="rId18" xr:uid="{571FEDAD-7C80-49C9-8FE3-5B4F29870591}"/>
-    <hyperlink ref="E25" r:id="rId19" xr:uid="{F0D721FB-291D-48D0-8D83-EA319D9DA7CB}"/>
-    <hyperlink ref="F7" r:id="rId20" xr:uid="{E4AAAD17-E368-4C88-BEAB-E6FBFA07372F}"/>
-    <hyperlink ref="E7" r:id="rId21" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
-    <hyperlink ref="E8" r:id="rId22" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
-    <hyperlink ref="E28" r:id="rId23" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
-    <hyperlink ref="E54" r:id="rId24" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
-    <hyperlink ref="E55" r:id="rId25" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
-    <hyperlink ref="E88" r:id="rId26" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
-    <hyperlink ref="F91" r:id="rId27" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
-    <hyperlink ref="F32" r:id="rId28" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
-    <hyperlink ref="E32" r:id="rId29" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
-    <hyperlink ref="G95" r:id="rId30" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
-    <hyperlink ref="F97" r:id="rId31" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
-    <hyperlink ref="D122" r:id="rId32" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{307F7BE9-7D18-465B-9592-11891264B35A}"/>
-    <hyperlink ref="D129" r:id="rId33" display="\\ZRK_DCCONTROLER\respaldos_equipos" xr:uid="{DE02689E-F302-4ED2-9760-F6ED09AE006A}"/>
-    <hyperlink ref="E108" r:id="rId34" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{CFA7C3CE-0472-48A6-90F7-1EA37834B370}"/>
+    <hyperlink ref="F29" r:id="rId2" xr:uid="{B2C3C3AD-4752-4690-8139-95CC21166527}"/>
+    <hyperlink ref="F37" r:id="rId3" xr:uid="{A4B4A531-FFB9-4B44-8FA0-E8395140C639}"/>
+    <hyperlink ref="F21" r:id="rId4" xr:uid="{6B7E4C23-B5C6-48B7-912D-ADD90AACD362}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{82B69C5F-2C08-498D-BA49-6110574600D8}"/>
+    <hyperlink ref="E27" r:id="rId6" xr:uid="{10CF9AD3-4340-4241-8488-1C9128639F8C}"/>
+    <hyperlink ref="F27" r:id="rId7" xr:uid="{02BD85AC-C98E-43DC-8C18-175780F5C0B0}"/>
+    <hyperlink ref="F36" r:id="rId8" xr:uid="{583AA81D-7A0B-4F10-B7A3-0ADDCDF9CA9B}"/>
+    <hyperlink ref="F20" r:id="rId9" xr:uid="{A82F26E0-BA64-4CC2-8131-0E4051AB9969}"/>
+    <hyperlink ref="E55" r:id="rId10" xr:uid="{C893F248-05C3-4D76-8EF9-7815A3F0AAF0}"/>
+    <hyperlink ref="F55" r:id="rId11" xr:uid="{5277B83A-D77E-4377-A555-F109916DD73B}"/>
+    <hyperlink ref="F63" r:id="rId12" xr:uid="{4E1F32E3-0266-4BC5-8AAF-D6C2A6096862}"/>
+    <hyperlink ref="F31" r:id="rId13" xr:uid="{22EB8765-B346-445E-9ED7-E9A0679F1548}"/>
+    <hyperlink ref="E31" r:id="rId14" xr:uid="{02ED3B97-59C0-4EDE-BC56-58AD19B988D2}"/>
+    <hyperlink ref="E40" r:id="rId15" xr:uid="{9E5568C3-734B-4A50-BC22-6DF13A48267C}"/>
+    <hyperlink ref="E39" r:id="rId16" xr:uid="{4EC8F359-907F-4D15-8A29-7B713C214EFF}"/>
+    <hyperlink ref="F7" r:id="rId17" xr:uid="{E4AAAD17-E368-4C88-BEAB-E6FBFA07372F}"/>
+    <hyperlink ref="E7" r:id="rId18" xr:uid="{6E97B622-23A2-40DD-A2E0-EABD1391BE62}"/>
+    <hyperlink ref="E8" r:id="rId19" xr:uid="{85038640-5820-4639-8D9D-B989F5C96DF9}"/>
+    <hyperlink ref="E19" r:id="rId20" xr:uid="{D67F6FB4-AEDF-43D1-BAF9-40960947D297}"/>
+    <hyperlink ref="E42" r:id="rId21" xr:uid="{A8F06041-E29E-433B-B227-0AF8A63CDE36}"/>
+    <hyperlink ref="E43" r:id="rId22" xr:uid="{8B9E7EBD-4893-455B-94AE-0DF7FAB50B69}"/>
+    <hyperlink ref="E72" r:id="rId23" xr:uid="{2259F72B-4E99-4B3B-B5D1-A26672C61E82}"/>
+    <hyperlink ref="F75" r:id="rId24" xr:uid="{90C7FACC-266D-49D4-8613-D14CBE622E35}"/>
+    <hyperlink ref="F22" r:id="rId25" xr:uid="{7A59FEA3-F177-44DD-9BDE-F68BE50B23B7}"/>
+    <hyperlink ref="E22" r:id="rId26" xr:uid="{B48115FF-092B-4884-81CF-547D3BEE4EAD}"/>
+    <hyperlink ref="G77" r:id="rId27" xr:uid="{493FBD3A-8FA9-429F-AA1A-B1C171F07CA7}"/>
+    <hyperlink ref="F79" r:id="rId28" xr:uid="{83AF4F67-2B57-46C5-9FD3-7AE596156B47}"/>
+    <hyperlink ref="E90" r:id="rId29" xr:uid="{78079FC6-E6D9-45B9-893A-D64B556F8AF6}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;D&amp;C&amp;F&amp;R&amp;T</oddHeader>
     <oddFooter>&amp;L&amp;A&amp;C&amp;P de &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId36"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -18444,31 +17884,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="442" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="454" t="s">
+      <c r="B3" s="444" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="444"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="444"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="456">
+      <c r="B4" s="446">
         <v>43396</v>
       </c>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
+      <c r="C4" s="446"/>
+      <c r="D4" s="446"/>
+      <c r="E4" s="446"/>
+      <c r="F4" s="446"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -22482,71 +21922,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="462" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="472" t="s">
+      <c r="C2" s="464" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="474" t="s">
+      <c r="E2" s="466" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="476" t="s">
+      <c r="F2" s="458" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="476" t="s">
+      <c r="G2" s="458" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="468" t="s">
+      <c r="H2" s="460" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="476" t="s">
+      <c r="I2" s="458" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="476"/>
-      <c r="K2" s="476"/>
-      <c r="L2" s="468" t="s">
+      <c r="J2" s="458"/>
+      <c r="K2" s="458"/>
+      <c r="L2" s="460" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="468" t="s">
+      <c r="M2" s="460" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="476" t="s">
+      <c r="N2" s="458" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="476" t="s">
+      <c r="O2" s="458" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="468" t="s">
+      <c r="P2" s="460" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="476" t="s">
+      <c r="Q2" s="458" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="476" t="s">
+      <c r="R2" s="458" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="468" t="s">
+      <c r="S2" s="460" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="471"/>
+      <c r="A3" s="463"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="473"/>
+      <c r="C3" s="465"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="475"/>
-      <c r="F3" s="477"/>
-      <c r="G3" s="477"/>
-      <c r="H3" s="469"/>
+      <c r="E3" s="467"/>
+      <c r="F3" s="459"/>
+      <c r="G3" s="459"/>
+      <c r="H3" s="461"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -22556,14 +21996,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="469"/>
-      <c r="M3" s="469"/>
-      <c r="N3" s="477"/>
-      <c r="O3" s="477"/>
-      <c r="P3" s="469"/>
-      <c r="Q3" s="477"/>
-      <c r="R3" s="477"/>
-      <c r="S3" s="469"/>
+      <c r="L3" s="461"/>
+      <c r="M3" s="461"/>
+      <c r="N3" s="459"/>
+      <c r="O3" s="459"/>
+      <c r="P3" s="461"/>
+      <c r="Q3" s="459"/>
+      <c r="R3" s="459"/>
+      <c r="S3" s="461"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -26506,6 +25946,12 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -26515,12 +25961,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -27482,19 +26922,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="478" t="s">
+      <c r="B1" s="468" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
-      <c r="K1" s="478"/>
-      <c r="L1" s="478"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="468"/>
+      <c r="J1" s="468"/>
+      <c r="K1" s="468"/>
+      <c r="L1" s="468"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -28114,43 +27554,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="469" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="480"/>
-      <c r="C3" s="480"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="480"/>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="480"/>
-      <c r="I3" s="480"/>
+      <c r="B3" s="470"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -28217,74 +27657,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="441" t="s">
+      <c r="B2" s="431" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
-      <c r="G2" s="441"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="441"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="431"/>
+      <c r="I2" s="431"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="442" t="s">
+      <c r="B3" s="432" t="s">
         <v>1555</v>
       </c>
-      <c r="C3" s="442"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="442"/>
-      <c r="F3" s="442"/>
-      <c r="G3" s="442"/>
-      <c r="H3" s="442"/>
-      <c r="I3" s="442"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="432"/>
+      <c r="G3" s="432"/>
+      <c r="H3" s="432"/>
+      <c r="I3" s="432"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="443">
+      <c r="B4" s="433">
         <v>45263</v>
       </c>
-      <c r="C4" s="443"/>
-      <c r="D4" s="443"/>
-      <c r="E4" s="443"/>
-      <c r="F4" s="443"/>
-      <c r="G4" s="443"/>
-      <c r="H4" s="443"/>
-      <c r="I4" s="443"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="433"/>
+      <c r="E4" s="433"/>
+      <c r="F4" s="433"/>
+      <c r="G4" s="433"/>
+      <c r="H4" s="433"/>
+      <c r="I4" s="433"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="444"/>
-      <c r="C5" s="444"/>
-      <c r="D5" s="444"/>
-      <c r="E5" s="444"/>
-      <c r="F5" s="444"/>
-      <c r="G5" s="444"/>
-      <c r="H5" s="444"/>
-      <c r="I5" s="444"/>
+      <c r="B5" s="434"/>
+      <c r="C5" s="434"/>
+      <c r="D5" s="434"/>
+      <c r="E5" s="434"/>
+      <c r="F5" s="434"/>
+      <c r="G5" s="434"/>
+      <c r="H5" s="434"/>
+      <c r="I5" s="434"/>
     </row>
     <row r="6" spans="2:9" ht="15">
-      <c r="B6" s="437" t="s">
+      <c r="B6" s="427" t="s">
         <v>1537</v>
       </c>
-      <c r="C6" s="437" t="s">
+      <c r="C6" s="427" t="s">
         <v>1538</v>
       </c>
-      <c r="D6" s="437" t="s">
+      <c r="D6" s="427" t="s">
         <v>222</v>
       </c>
-      <c r="E6" s="437" t="s">
+      <c r="E6" s="427" t="s">
         <v>1539</v>
       </c>
-      <c r="F6" s="437" t="s">
+      <c r="F6" s="427" t="s">
         <v>1540</v>
       </c>
-      <c r="G6" s="437" t="s">
+      <c r="G6" s="427" t="s">
         <v>1541</v>
       </c>
-      <c r="H6" s="437" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I6" s="437" t="s">
+      <c r="H6" s="427" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I6" s="427" t="s">
         <v>223</v>
       </c>
     </row>
@@ -28513,11 +27953,11 @@
         <v>873</v>
       </c>
       <c r="E17" s="263" t="s">
-        <v>1772</v>
+        <v>1737</v>
       </c>
       <c r="F17" s="288"/>
       <c r="G17" s="264" t="s">
-        <v>1773</v>
+        <v>1738</v>
       </c>
       <c r="H17" s="264" t="s">
         <v>845</v>
@@ -28562,43 +28002,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="469" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="480"/>
-      <c r="C3" s="480"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="480"/>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="480"/>
-      <c r="I3" s="480"/>
+      <c r="B3" s="470"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28657,43 +28097,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="469" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="480"/>
-      <c r="C3" s="480"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="480"/>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="480"/>
-      <c r="I3" s="480"/>
+      <c r="B3" s="470"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28746,51 +28186,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="469" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="480"/>
-      <c r="C3" s="480"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="480"/>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="480"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481" t="s">
+      <c r="B3" s="470"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
+      <c r="J3" s="471" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="481"/>
-      <c r="L3" s="481"/>
-      <c r="M3" s="481"/>
-      <c r="N3" s="481"/>
-      <c r="O3" s="481"/>
+      <c r="K3" s="471"/>
+      <c r="L3" s="471"/>
+      <c r="M3" s="471"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="471"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -28853,43 +28293,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="451" t="s">
+      <c r="A1" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="452"/>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
-      <c r="I1" s="452"/>
+      <c r="B1" s="442"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
+      <c r="H1" s="442"/>
+      <c r="I1" s="442"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="453" t="s">
+      <c r="A2" s="443" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
+      <c r="B2" s="444"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
+      <c r="H2" s="444"/>
+      <c r="I2" s="444"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="479" t="s">
+      <c r="A3" s="469" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="480"/>
-      <c r="C3" s="480"/>
-      <c r="D3" s="480"/>
-      <c r="E3" s="480"/>
-      <c r="F3" s="480"/>
-      <c r="G3" s="480"/>
-      <c r="H3" s="480"/>
-      <c r="I3" s="480"/>
+      <c r="B3" s="470"/>
+      <c r="C3" s="470"/>
+      <c r="D3" s="470"/>
+      <c r="E3" s="470"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="470"/>
+      <c r="H3" s="470"/>
+      <c r="I3" s="470"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -29020,16 +28460,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="488"/>
-      <c r="D10" s="489"/>
-      <c r="E10" s="490"/>
+      <c r="C10" s="478"/>
+      <c r="D10" s="479"/>
+      <c r="E10" s="480"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="491" t="s">
+      <c r="C11" s="481" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="492"/>
-      <c r="E11" s="493"/>
+      <c r="D11" s="482"/>
+      <c r="E11" s="483"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -29077,47 +28517,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="494"/>
-      <c r="D17" s="495"/>
-      <c r="E17" s="496"/>
+      <c r="C17" s="484"/>
+      <c r="D17" s="485"/>
+      <c r="E17" s="486"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="491" t="s">
+      <c r="C18" s="481" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="492"/>
-      <c r="E18" s="493"/>
+      <c r="D18" s="482"/>
+      <c r="E18" s="483"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="494"/>
-      <c r="D19" s="495"/>
-      <c r="E19" s="496"/>
+      <c r="C19" s="484"/>
+      <c r="D19" s="485"/>
+      <c r="E19" s="486"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="491" t="s">
+      <c r="C20" s="481" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="492"/>
-      <c r="E20" s="493"/>
+      <c r="D20" s="482"/>
+      <c r="E20" s="483"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="482"/>
-      <c r="D21" s="483"/>
-      <c r="E21" s="484"/>
+      <c r="C21" s="472"/>
+      <c r="D21" s="473"/>
+      <c r="E21" s="474"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="485" t="s">
+      <c r="C22" s="475" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="486"/>
-      <c r="E22" s="487"/>
+      <c r="D22" s="476"/>
+      <c r="E22" s="477"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="485" t="s">
+      <c r="C23" s="475" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="486"/>
-      <c r="E23" s="487"/>
+      <c r="D23" s="476"/>
+      <c r="E23" s="477"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -29500,9 +28940,9 @@
   <sheetPr codeName="Hoja11"/>
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -29522,46 +28962,46 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="441" t="s">
+      <c r="B2" s="431" t="s">
         <v>1554</v>
       </c>
-      <c r="C2" s="441"/>
-      <c r="D2" s="441"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="441"/>
-      <c r="G2" s="441"/>
-      <c r="H2" s="441"/>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="431"/>
     </row>
     <row r="3" spans="2:10" ht="18">
-      <c r="B3" s="442" t="s">
+      <c r="B3" s="432" t="s">
         <v>1417</v>
       </c>
-      <c r="C3" s="442"/>
-      <c r="D3" s="442"/>
-      <c r="E3" s="442"/>
-      <c r="F3" s="442"/>
-      <c r="G3" s="442"/>
-      <c r="H3" s="442"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="432"/>
+      <c r="G3" s="432"/>
+      <c r="H3" s="432"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="443">
+      <c r="B4" s="433">
         <v>44316</v>
       </c>
-      <c r="C4" s="443"/>
-      <c r="D4" s="443"/>
-      <c r="E4" s="443"/>
-      <c r="F4" s="443"/>
-      <c r="G4" s="443"/>
-      <c r="H4" s="443"/>
+      <c r="C4" s="433"/>
+      <c r="D4" s="433"/>
+      <c r="E4" s="433"/>
+      <c r="F4" s="433"/>
+      <c r="G4" s="433"/>
+      <c r="H4" s="433"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="444"/>
-      <c r="C5" s="444"/>
-      <c r="D5" s="444"/>
-      <c r="E5" s="444"/>
-      <c r="F5" s="444"/>
-      <c r="G5" s="444"/>
-      <c r="H5" s="444"/>
+      <c r="B5" s="434"/>
+      <c r="C5" s="434"/>
+      <c r="D5" s="434"/>
+      <c r="E5" s="434"/>
+      <c r="F5" s="434"/>
+      <c r="G5" s="434"/>
+      <c r="H5" s="434"/>
     </row>
     <row r="6" spans="2:10" ht="30">
       <c r="B6" s="267" t="s">
@@ -29615,10 +29055,10 @@
         <v>1453</v>
       </c>
       <c r="D8" s="257" t="s">
-        <v>1776</v>
+        <v>1741</v>
       </c>
       <c r="E8" s="263" t="s">
-        <v>1775</v>
+        <v>1740</v>
       </c>
       <c r="F8" s="288"/>
       <c r="G8" s="264" t="s">
@@ -29723,7 +29163,7 @@
       <c r="B14" s="268">
         <v>44179</v>
       </c>
-      <c r="C14" s="412" t="s">
+      <c r="C14" s="403" t="s">
         <v>1391</v>
       </c>
       <c r="D14" s="257" t="s">
@@ -29746,7 +29186,7 @@
       <c r="B15" s="268">
         <v>44316</v>
       </c>
-      <c r="C15" s="412" t="s">
+      <c r="C15" s="403" t="s">
         <v>1395</v>
       </c>
       <c r="D15" s="257" t="s">
@@ -29928,38 +29368,38 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="451" t="s">
+      <c r="B1" s="441" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="452"/>
-      <c r="D1" s="452"/>
-      <c r="E1" s="452"/>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
+      <c r="C1" s="442"/>
+      <c r="D1" s="442"/>
+      <c r="E1" s="442"/>
+      <c r="F1" s="442"/>
+      <c r="G1" s="442"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="453" t="s">
+      <c r="B2" s="443" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="454"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
+      <c r="C2" s="444"/>
+      <c r="D2" s="444"/>
+      <c r="E2" s="444"/>
+      <c r="F2" s="444"/>
+      <c r="G2" s="444"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="455">
+      <c r="B3" s="445">
         <v>44133</v>
       </c>
-      <c r="C3" s="456"/>
-      <c r="D3" s="456"/>
-      <c r="E3" s="456"/>
-      <c r="F3" s="456"/>
-      <c r="G3" s="456"/>
+      <c r="C3" s="446"/>
+      <c r="D3" s="446"/>
+      <c r="E3" s="446"/>
+      <c r="F3" s="446"/>
+      <c r="G3" s="446"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -30390,15 +29830,15 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="463" t="s">
+      <c r="B26" s="453" t="s">
         <v>1594</v>
       </c>
-      <c r="C26" s="464"/>
-      <c r="D26" s="464"/>
-      <c r="E26" s="464"/>
-      <c r="F26" s="464"/>
-      <c r="G26" s="464"/>
-      <c r="H26" s="465"/>
+      <c r="C26" s="454"/>
+      <c r="D26" s="454"/>
+      <c r="E26" s="454"/>
+      <c r="F26" s="454"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="455"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
@@ -31802,14 +31242,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="460" t="s">
+      <c r="B91" s="450" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="461"/>
-      <c r="D91" s="461"/>
-      <c r="E91" s="461"/>
-      <c r="F91" s="461"/>
-      <c r="G91" s="462"/>
+      <c r="C91" s="451"/>
+      <c r="D91" s="451"/>
+      <c r="E91" s="451"/>
+      <c r="F91" s="451"/>
+      <c r="G91" s="452"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -32924,14 +32364,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="460" t="s">
+      <c r="B164" s="450" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="461"/>
-      <c r="D164" s="461"/>
-      <c r="E164" s="461"/>
-      <c r="F164" s="461"/>
-      <c r="G164" s="462"/>
+      <c r="C164" s="451"/>
+      <c r="D164" s="451"/>
+      <c r="E164" s="451"/>
+      <c r="F164" s="451"/>
+      <c r="G164" s="452"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -33078,14 +32518,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="460" t="s">
+      <c r="B174" s="450" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="461"/>
-      <c r="D174" s="461"/>
-      <c r="E174" s="461"/>
-      <c r="F174" s="461"/>
-      <c r="G174" s="462"/>
+      <c r="C174" s="451"/>
+      <c r="D174" s="451"/>
+      <c r="E174" s="451"/>
+      <c r="F174" s="451"/>
+      <c r="G174" s="452"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -33145,45 +32585,45 @@
       <c r="H178" s="181"/>
     </row>
     <row r="179" spans="2:8">
-      <c r="B179" s="415">
+      <c r="B179" s="405">
         <v>44894</v>
       </c>
-      <c r="C179" s="416" t="s">
+      <c r="C179" s="406" t="s">
         <v>1477</v>
       </c>
-      <c r="D179" s="416" t="s">
+      <c r="D179" s="406" t="s">
         <v>1259</v>
       </c>
-      <c r="E179" s="417"/>
-      <c r="F179" s="417" t="s">
+      <c r="E179" s="407"/>
+      <c r="F179" s="407" t="s">
         <v>873</v>
       </c>
-      <c r="G179" s="417" t="s">
+      <c r="G179" s="407" t="s">
         <v>845</v>
       </c>
       <c r="H179" s="238" t="s">
-        <v>1743</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="15">
-      <c r="B180" s="415">
+      <c r="B180" s="405">
         <v>44894</v>
       </c>
-      <c r="C180" s="416" t="s">
+      <c r="C180" s="406" t="s">
         <v>1477</v>
       </c>
-      <c r="D180" s="416" t="s">
+      <c r="D180" s="406" t="s">
         <v>1259</v>
       </c>
-      <c r="E180" s="417"/>
-      <c r="F180" s="417" t="s">
+      <c r="E180" s="407"/>
+      <c r="F180" s="407" t="s">
         <v>821</v>
       </c>
-      <c r="G180" s="418">
+      <c r="G180" s="408">
         <v>20210</v>
       </c>
       <c r="H180" s="238" t="s">
-        <v>1743</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="181" spans="2:8" ht="14.25">
@@ -33590,14 +33030,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="457" t="s">
+      <c r="B242" s="447" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="458"/>
-      <c r="D242" s="458"/>
-      <c r="E242" s="458"/>
-      <c r="F242" s="458"/>
-      <c r="G242" s="459"/>
+      <c r="C242" s="448"/>
+      <c r="D242" s="448"/>
+      <c r="E242" s="448"/>
+      <c r="F242" s="448"/>
+      <c r="G242" s="449"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -33631,10 +33071,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="448" t="s">
+      <c r="E245" s="438" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="448"/>
+      <c r="F245" s="438"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -33643,32 +33083,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="449"/>
-      <c r="F246" s="449"/>
+      <c r="E246" s="439"/>
+      <c r="F246" s="439"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="449"/>
-      <c r="F247" s="449"/>
+      <c r="E247" s="439"/>
+      <c r="F247" s="439"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="449"/>
-      <c r="F248" s="449"/>
+      <c r="E248" s="439"/>
+      <c r="F248" s="439"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="449"/>
-      <c r="F249" s="449"/>
+      <c r="E249" s="439"/>
+      <c r="F249" s="439"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -33679,8 +33119,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="449"/>
-      <c r="F250" s="449"/>
+      <c r="E250" s="439"/>
+      <c r="F250" s="439"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -33689,8 +33129,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="449"/>
-      <c r="F251" s="449"/>
+      <c r="E251" s="439"/>
+      <c r="F251" s="439"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -33699,8 +33139,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="450"/>
-      <c r="F252" s="450"/>
+      <c r="E252" s="440"/>
+      <c r="F252" s="440"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -33713,7 +33153,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="445" t="s">
+      <c r="E253" s="435" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -33727,7 +33167,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="446"/>
+      <c r="E254" s="436"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -33741,7 +33181,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="446"/>
+      <c r="E255" s="436"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -33753,7 +33193,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="446"/>
+      <c r="E256" s="436"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -33765,7 +33205,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="446"/>
+      <c r="E257" s="436"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -33777,7 +33217,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="446"/>
+      <c r="E258" s="436"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -33789,7 +33229,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="446"/>
+      <c r="E259" s="436"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -33799,7 +33239,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="446"/>
+      <c r="E260" s="436"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -33807,7 +33247,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="446"/>
+      <c r="E261" s="436"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -33817,7 +33257,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="446"/>
+      <c r="E262" s="436"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -33827,7 +33267,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="446"/>
+      <c r="E263" s="436"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -33837,7 +33277,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="447"/>
+      <c r="E264" s="437"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -33849,7 +33289,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="448" t="s">
+      <c r="E265" s="438" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -33863,7 +33303,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="449"/>
+      <c r="E266" s="439"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -33877,7 +33317,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="449"/>
+      <c r="E267" s="439"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -33887,7 +33327,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="450"/>
+      <c r="E268" s="440"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -34081,35 +33521,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="442" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="454" t="s">
+      <c r="B3" s="444" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="444"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="444"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="466">
+      <c r="B4" s="456">
         <v>43928</v>
       </c>
-      <c r="C4" s="466"/>
-      <c r="D4" s="466"/>
-      <c r="E4" s="466"/>
-      <c r="F4" s="466"/>
+      <c r="C4" s="456"/>
+      <c r="D4" s="456"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="456"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -34388,13 +33828,13 @@
     </row>
     <row r="2" spans="1:26" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="442" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -34405,13 +33845,13 @@
     </row>
     <row r="3" spans="1:26" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="454" t="s">
+      <c r="B3" s="444" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="444"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="444"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -34422,13 +33862,13 @@
     </row>
     <row r="4" spans="1:26" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="456">
+      <c r="B4" s="446">
         <v>43944</v>
       </c>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
+      <c r="C4" s="446"/>
+      <c r="D4" s="446"/>
+      <c r="E4" s="446"/>
+      <c r="F4" s="446"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -34480,15 +33920,15 @@
       <c r="C8" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="D8" s="420">
+      <c r="D8" s="410">
         <v>44889</v>
       </c>
-      <c r="E8" s="419" t="s">
-        <v>1744</v>
+      <c r="E8" s="409" t="s">
+        <v>1709</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="110" t="s">
-        <v>1745</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -34523,10 +33963,10 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="110" t="s">
-        <v>1746</v>
+        <v>1711</v>
       </c>
       <c r="S11" t="s">
-        <v>1749</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -34555,7 +33995,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="Z14" t="s">
-        <v>1766</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -34567,10 +34007,10 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="Y15" t="s">
-        <v>1750</v>
+        <v>1715</v>
       </c>
       <c r="Z15" t="s">
-        <v>1751</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -34594,7 +34034,7 @@
         <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>1752</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -34606,7 +34046,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="Y18" t="s">
-        <v>1753</v>
+        <v>1718</v>
       </c>
       <c r="Z18" t="s">
         <v>23</v>
@@ -34621,10 +34061,10 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="Y19" t="s">
-        <v>1754</v>
+        <v>1719</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>1762</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -34666,7 +34106,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="Y23" t="s">
-        <v>1755</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -34678,7 +34118,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="Y24" t="s">
-        <v>1756</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -34699,7 +34139,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" t="s">
-        <v>1748</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -34711,7 +34151,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="Y27" t="s">
-        <v>1757</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -34770,10 +34210,10 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="Y32" t="s">
-        <v>1758</v>
+        <v>1723</v>
       </c>
       <c r="AA32" t="s">
-        <v>1759</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -34784,11 +34224,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="Y33" s="467">
+      <c r="Y33" s="457">
         <v>44925</v>
       </c>
-      <c r="Z33" s="467"/>
-      <c r="AA33" s="467"/>
+      <c r="Z33" s="457"/>
+      <c r="AA33" s="457"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="21"/>
@@ -34799,10 +34239,10 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="Y34" t="s">
-        <v>1760</v>
+        <v>1725</v>
       </c>
       <c r="Z34" t="s">
-        <v>1761</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -34894,24 +34334,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="442" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="452"/>
-      <c r="D2" s="452"/>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
+      <c r="C2" s="442"/>
+      <c r="D2" s="442"/>
+      <c r="E2" s="442"/>
+      <c r="F2" s="442"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="454" t="s">
+      <c r="B3" s="444" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="454"/>
-      <c r="D3" s="454"/>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
+      <c r="C3" s="444"/>
+      <c r="D3" s="444"/>
+      <c r="E3" s="444"/>
+      <c r="F3" s="444"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -34919,13 +34359,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="456">
+      <c r="B4" s="446">
         <v>43970</v>
       </c>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
+      <c r="C4" s="446"/>
+      <c r="D4" s="446"/>
+      <c r="E4" s="446"/>
+      <c r="F4" s="446"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">

--- a/ZRK SYS 2023.xlsx
+++ b/ZRK SYS 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\ARCHIVOS\al_maletin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zarkin-my.sharepoint.com/personal/it_due_zarkin_onmicrosoft_com/Documents/Documentos/al_maletin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB07923-20CB-4221-825F-24DC46B13B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{2BB07923-20CB-4221-825F-24DC46B13B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69F0672-DE80-4FE3-8731-A5496A466CA9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Inventario!$F$1:$F$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PWS!$B$6:$H$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$B$4:$G$187</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SAP!$B$6:$H$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SIZ_USUA!$B$6:$I$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">CORREOS!$B$2:$F$106</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Resumen!$B$1:$G$112</definedName>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3276" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3283" uniqueCount="1742">
   <si>
     <t>Zarkin@2016</t>
   </si>
@@ -4560,16 +4560,10 @@
     <t>Then&amp;2020</t>
   </si>
   <si>
-    <t>Lic. Prestada por la de Diseño.</t>
-  </si>
-  <si>
     <t>Licencias de SAP</t>
   </si>
   <si>
     <t>No opera para diseño.</t>
-  </si>
-  <si>
-    <t>COMPRAS.</t>
   </si>
   <si>
     <t>MISMOS USUARIOS</t>
@@ -5572,6 +5566,12 @@
   </si>
   <si>
     <t>SOPORTE (SAP).</t>
+  </si>
+  <si>
+    <t>Profesional</t>
+  </si>
+  <si>
+    <t>Logicas</t>
   </si>
 </sst>
 </file>
@@ -8063,7 +8063,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8220,36 +8219,36 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8307,6 +8306,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -15827,77 +15827,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="F1" s="424"/>
+      <c r="F1" s="423"/>
     </row>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="B2" s="429" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C2" s="429"/>
-      <c r="D2" s="429"/>
-      <c r="E2" s="429"/>
-      <c r="F2" s="429"/>
-      <c r="G2" s="429"/>
-      <c r="H2" s="429"/>
+      <c r="B2" s="428" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C2" s="428"/>
+      <c r="D2" s="428"/>
+      <c r="E2" s="428"/>
+      <c r="F2" s="428"/>
+      <c r="G2" s="428"/>
+      <c r="H2" s="428"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
-      <c r="B3" s="430" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C3" s="430"/>
-      <c r="D3" s="430"/>
-      <c r="E3" s="430"/>
-      <c r="F3" s="430"/>
-      <c r="G3" s="430"/>
-      <c r="H3" s="430"/>
+      <c r="B3" s="429" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
+      <c r="G3" s="429"/>
+      <c r="H3" s="429"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="C4" s="425"/>
-      <c r="D4" s="426" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E4" s="425">
+      <c r="C4" s="424"/>
+      <c r="D4" s="425" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E4" s="424">
         <f>MAX(B6:B96)</f>
         <v>45043</v>
       </c>
-      <c r="F4" s="425"/>
-      <c r="G4" s="425"/>
-      <c r="H4" s="425"/>
+      <c r="F4" s="424"/>
+      <c r="G4" s="424"/>
+      <c r="H4" s="424"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="C5" s="425"/>
-      <c r="D5" s="426" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E5" s="425">
+      <c r="C5" s="424"/>
+      <c r="D5" s="425" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E5" s="424">
         <f>MIN(B6:B96)</f>
         <v>43613</v>
       </c>
-      <c r="F5" s="425"/>
-      <c r="G5" s="425"/>
-      <c r="H5" s="425"/>
+      <c r="F5" s="424"/>
+      <c r="G5" s="424"/>
+      <c r="H5" s="424"/>
     </row>
     <row r="6" spans="1:10" s="347" customFormat="1" ht="30">
       <c r="A6" s="343"/>
-      <c r="B6" s="427" t="s">
+      <c r="B6" s="426" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C6" s="426" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D6" s="426" t="s">
         <v>1447</v>
       </c>
-      <c r="C6" s="427" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D6" s="427" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E6" s="427" t="s">
+      <c r="E6" s="426" t="s">
         <v>1336</v>
       </c>
-      <c r="F6" s="427" t="s">
+      <c r="F6" s="426" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="427" t="s">
+      <c r="G6" s="426" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="427" t="s">
+      <c r="H6" s="426" t="s">
         <v>1263</v>
       </c>
       <c r="I6" s="342"/>
@@ -15908,8 +15908,8 @@
       <c r="B7" s="348">
         <v>45035</v>
       </c>
-      <c r="C7" s="423" t="s">
-        <v>1477</v>
+      <c r="C7" s="422" t="s">
+        <v>1475</v>
       </c>
       <c r="D7" s="362" t="s">
         <v>1337</v>
@@ -15924,7 +15924,7 @@
         <v>845</v>
       </c>
       <c r="H7" s="349" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
@@ -15932,8 +15932,8 @@
       <c r="B8" s="348">
         <v>45035</v>
       </c>
-      <c r="C8" s="423" t="s">
-        <v>1477</v>
+      <c r="C8" s="422" t="s">
+        <v>1475</v>
       </c>
       <c r="D8" s="362" t="s">
         <v>49</v>
@@ -15948,7 +15948,7 @@
         <v>51</v>
       </c>
       <c r="H8" s="359" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="I8" s="341"/>
     </row>
@@ -15957,23 +15957,23 @@
       <c r="B9" s="348">
         <v>43613</v>
       </c>
-      <c r="C9" s="423" t="s">
-        <v>1477</v>
+      <c r="C9" s="422" t="s">
+        <v>1475</v>
       </c>
       <c r="D9" s="380" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E9" s="380" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F9" s="365" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="364" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="H9" s="380" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="I9" s="341"/>
     </row>
@@ -15982,23 +15982,23 @@
       <c r="B10" s="348">
         <v>43665</v>
       </c>
-      <c r="C10" s="423" t="s">
-        <v>1477</v>
+      <c r="C10" s="422" t="s">
+        <v>1475</v>
       </c>
       <c r="D10" s="380" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E10" s="380" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="F10" s="365" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="364" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="H10" s="380" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I10" s="341"/>
     </row>
@@ -16007,8 +16007,8 @@
       <c r="B11" s="348">
         <v>45043</v>
       </c>
-      <c r="C11" s="423" t="s">
-        <v>1477</v>
+      <c r="C11" s="422" t="s">
+        <v>1475</v>
       </c>
       <c r="D11" s="349" t="s">
         <v>754</v>
@@ -16023,7 +16023,7 @@
         <v>25</v>
       </c>
       <c r="H11" s="349" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I11" s="341"/>
     </row>
@@ -16032,8 +16032,8 @@
       <c r="B12" s="348">
         <v>45043</v>
       </c>
-      <c r="C12" s="423" t="s">
-        <v>1477</v>
+      <c r="C12" s="422" t="s">
+        <v>1475</v>
       </c>
       <c r="D12" s="349" t="s">
         <v>754</v>
@@ -16042,13 +16042,13 @@
         <v>116</v>
       </c>
       <c r="F12" s="355" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="G12" s="364" t="s">
         <v>883</v>
       </c>
       <c r="H12" s="349" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I12" s="341"/>
     </row>
@@ -16087,27 +16087,27 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="341"/>
-      <c r="B16" s="419"/>
-      <c r="C16" s="420"/>
-      <c r="D16" s="420"/>
-      <c r="E16" s="428" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F16" s="421"/>
-      <c r="G16" s="422"/>
-      <c r="H16" s="420"/>
+      <c r="B16" s="418"/>
+      <c r="C16" s="419"/>
+      <c r="D16" s="419"/>
+      <c r="E16" s="427" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F16" s="420"/>
+      <c r="G16" s="421"/>
+      <c r="H16" s="419"/>
       <c r="I16" s="341"/>
     </row>
     <row r="17" spans="1:9" ht="30">
       <c r="A17" s="341"/>
       <c r="B17" s="344" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C17" s="345" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D17" s="345" t="s">
         <v>1447</v>
-      </c>
-      <c r="C17" s="345" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D17" s="345" t="s">
-        <v>1449</v>
       </c>
       <c r="E17" s="345" t="s">
         <v>1336</v>
@@ -16127,16 +16127,16 @@
       <c r="A18" s="341"/>
       <c r="B18" s="348"/>
       <c r="C18" s="357" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D18" s="349" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E18" s="349" t="s">
         <v>1596</v>
       </c>
-      <c r="D18" s="349" t="s">
+      <c r="F18" s="350" t="s">
         <v>1597</v>
-      </c>
-      <c r="E18" s="349" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F18" s="350" t="s">
-        <v>1599</v>
       </c>
       <c r="G18" s="351">
         <v>4578</v>
@@ -16156,7 +16156,7 @@
         <v>1305</v>
       </c>
       <c r="E19" s="360" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F19" s="352" t="s">
         <v>718</v>
@@ -16172,7 +16172,7 @@
     <row r="20" spans="1:9">
       <c r="B20" s="348"/>
       <c r="C20" s="349" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D20" s="349"/>
       <c r="E20" s="349"/>
@@ -16180,23 +16180,23 @@
         <v>9</v>
       </c>
       <c r="G20" s="351" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H20" s="349"/>
     </row>
     <row r="21" spans="1:9">
       <c r="B21" s="348"/>
       <c r="C21" s="349" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D21" s="349" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E21" s="368" t="s">
         <v>1605</v>
       </c>
-      <c r="D21" s="349" t="s">
+      <c r="F21" s="350" t="s">
         <v>1606</v>
-      </c>
-      <c r="E21" s="368" t="s">
-        <v>1607</v>
-      </c>
-      <c r="F21" s="350" t="s">
-        <v>1608</v>
       </c>
       <c r="G21" s="351" t="s">
         <v>1232</v>
@@ -16206,13 +16206,13 @@
     <row r="22" spans="1:9">
       <c r="B22" s="348"/>
       <c r="C22" s="349" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D22" s="349" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E22" s="368" t="s">
         <v>1609</v>
-      </c>
-      <c r="D22" s="349" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E22" s="368" t="s">
-        <v>1611</v>
       </c>
       <c r="F22" s="350" t="s">
         <v>9</v>
@@ -16230,19 +16230,19 @@
         <v>1361</v>
       </c>
       <c r="D23" s="349" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E23" s="349" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F23" s="351" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="G23" s="351" t="s">
         <v>845</v>
       </c>
       <c r="H23" s="367" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -16253,19 +16253,19 @@
         <v>1361</v>
       </c>
       <c r="D24" s="367" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E24" s="367" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F24" s="355" t="s">
         <v>1500</v>
-      </c>
-      <c r="E24" s="367" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F24" s="355" t="s">
-        <v>1502</v>
       </c>
       <c r="G24" s="352" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="367" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -16276,10 +16276,10 @@
         <v>1361</v>
       </c>
       <c r="D25" s="366" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E25" s="366" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="F25" s="355" t="s">
         <v>1374</v>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="367" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -16299,10 +16299,10 @@
         <v>1361</v>
       </c>
       <c r="D26" s="354" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E26" s="367" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F26" s="355" t="s">
         <v>1331</v>
@@ -16311,19 +16311,19 @@
         <v>1237</v>
       </c>
       <c r="H26" s="367" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="348"/>
       <c r="C27" s="357" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D27" s="349" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E27" s="368" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F27" s="350" t="s">
         <v>9</v>
@@ -16332,80 +16332,80 @@
         <v>1232</v>
       </c>
       <c r="H27" s="349" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="348"/>
       <c r="C28" s="349" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D28" s="349" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E28" s="349"/>
       <c r="F28" s="350"/>
       <c r="G28" s="351"/>
       <c r="H28" s="349" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="348"/>
       <c r="C29" s="357" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D29" s="349" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E29" s="349" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F29" s="350" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G29" s="351" t="s">
         <v>1232</v>
       </c>
       <c r="H29" s="349" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="348"/>
       <c r="C30" s="349" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D30" s="349" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E30" s="368" t="s">
         <v>1623</v>
       </c>
-      <c r="D30" s="349" t="s">
+      <c r="F30" s="352" t="s">
         <v>1624</v>
       </c>
-      <c r="E30" s="368" t="s">
+      <c r="G30" s="351" t="s">
         <v>1625</v>
-      </c>
-      <c r="F30" s="352" t="s">
-        <v>1626</v>
-      </c>
-      <c r="G30" s="351" t="s">
-        <v>1627</v>
       </c>
       <c r="H30" s="349"/>
     </row>
     <row r="31" spans="1:9">
       <c r="B31" s="348"/>
       <c r="C31" s="349" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D31" s="349" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E31" s="368" t="s">
         <v>1628</v>
       </c>
-      <c r="D31" s="349" t="s">
+      <c r="F31" s="350" t="s">
         <v>1629</v>
       </c>
-      <c r="E31" s="368" t="s">
+      <c r="G31" s="351" t="s">
         <v>1630</v>
-      </c>
-      <c r="F31" s="350" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G31" s="351" t="s">
-        <v>1632</v>
       </c>
       <c r="H31" s="349"/>
     </row>
@@ -16414,10 +16414,10 @@
         <v>44108</v>
       </c>
       <c r="C32" s="370" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D32" s="354" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E32" s="355" t="s">
         <v>944</v>
@@ -16425,13 +16425,13 @@
       <c r="F32" s="352"/>
       <c r="G32" s="352"/>
       <c r="H32" s="356" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="348"/>
       <c r="C33" s="371" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D33" s="372"/>
       <c r="E33" s="349"/>
@@ -16440,25 +16440,25 @@
         <v>843</v>
       </c>
       <c r="H33" s="349" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="348"/>
       <c r="C34" s="371" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D34" s="372" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E34" s="372" t="s">
         <v>1635</v>
       </c>
-      <c r="D34" s="372" t="s">
+      <c r="F34" s="373" t="s">
         <v>1636</v>
       </c>
-      <c r="E34" s="372" t="s">
+      <c r="G34" s="374" t="s">
         <v>1637</v>
-      </c>
-      <c r="F34" s="373" t="s">
-        <v>1638</v>
-      </c>
-      <c r="G34" s="374" t="s">
-        <v>1639</v>
       </c>
       <c r="H34" s="375"/>
     </row>
@@ -16467,7 +16467,7 @@
         <v>44133</v>
       </c>
       <c r="C35" s="370" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="D35" s="354" t="s">
         <v>1343</v>
@@ -16482,7 +16482,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="356" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="36" spans="2:8">
@@ -16491,29 +16491,29 @@
         <v>398</v>
       </c>
       <c r="D36" s="349" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="E36" s="349"/>
       <c r="F36" s="350" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G36" s="351" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H36" s="349" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="348"/>
       <c r="C37" s="349" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D37" s="349" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E37" s="349" t="s">
         <v>1642</v>
-      </c>
-      <c r="D37" s="349" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E37" s="349" t="s">
-        <v>1644</v>
       </c>
       <c r="F37" s="350" t="s">
         <v>9</v>
@@ -16522,7 +16522,7 @@
         <v>1232</v>
       </c>
       <c r="H37" s="351" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="38" spans="2:8">
@@ -16530,13 +16530,13 @@
         <v>44144</v>
       </c>
       <c r="C38" s="354" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D38" s="354" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E38" s="367" t="s">
         <v>1646</v>
-      </c>
-      <c r="D38" s="354" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E38" s="367" t="s">
-        <v>1648</v>
       </c>
       <c r="F38" s="377" t="s">
         <v>951</v>
@@ -16545,60 +16545,60 @@
         <v>953</v>
       </c>
       <c r="H38" s="356" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="348"/>
       <c r="C39" s="349" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D39" s="349" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E39" s="368" t="s">
         <v>1649</v>
-      </c>
-      <c r="D39" s="349" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E39" s="368" t="s">
-        <v>1651</v>
       </c>
       <c r="F39" s="350"/>
       <c r="G39" s="351"/>
       <c r="H39" s="349" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="348"/>
       <c r="C40" s="349" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D40" s="349" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E40" s="368" t="s">
         <v>1652</v>
       </c>
-      <c r="D40" s="349" t="s">
+      <c r="F40" s="350" t="s">
         <v>1653</v>
-      </c>
-      <c r="E40" s="368" t="s">
-        <v>1654</v>
-      </c>
-      <c r="F40" s="350" t="s">
-        <v>1655</v>
       </c>
       <c r="G40" s="351" t="s">
         <v>1232</v>
       </c>
       <c r="H40" s="349" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="348"/>
       <c r="C41" s="349" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D41" s="349" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="E41" s="349"/>
       <c r="F41" s="350"/>
       <c r="G41" s="351"/>
       <c r="H41" s="349" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="42" spans="2:8">
@@ -16606,22 +16606,22 @@
         <v>44165</v>
       </c>
       <c r="C42" s="370" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D42" s="354" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E42" s="296" t="s">
         <v>1450</v>
       </c>
-      <c r="D42" s="354" t="s">
+      <c r="F42" s="355" t="s">
         <v>1451</v>
       </c>
-      <c r="E42" s="296" t="s">
+      <c r="G42" s="355" t="s">
         <v>1452</v>
       </c>
-      <c r="F42" s="355" t="s">
+      <c r="H42" s="356" t="s">
         <v>1453</v>
-      </c>
-      <c r="G42" s="355" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H42" s="356" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="43" spans="2:8">
@@ -16629,31 +16629,31 @@
         <v>44165</v>
       </c>
       <c r="C43" s="370" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D43" s="354" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E43" s="296" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F43" s="355" t="s">
         <v>1451</v>
       </c>
-      <c r="E43" s="296" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F43" s="355" t="s">
-        <v>1453</v>
-      </c>
       <c r="G43" s="355" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H43" s="378" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="348"/>
       <c r="C44" s="357" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D44" s="349" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E44" s="349" t="s">
         <v>1389</v>
@@ -16669,69 +16669,69 @@
     <row r="45" spans="2:8">
       <c r="B45" s="364"/>
       <c r="C45" s="357" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D45" s="380" t="s">
         <v>874</v>
       </c>
       <c r="E45" s="365" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F45" s="364" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G45" s="364" t="s">
         <v>1470</v>
-      </c>
-      <c r="F45" s="364" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G45" s="364" t="s">
-        <v>1472</v>
       </c>
       <c r="H45" s="380"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="348"/>
       <c r="C46" s="357" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D46" s="380" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E46" s="380"/>
       <c r="F46" s="365" t="s">
         <v>47</v>
       </c>
       <c r="G46" s="364" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H46" s="380"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="348"/>
       <c r="C47" s="357" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D47" s="380" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E47" s="380" t="s">
         <v>128</v>
       </c>
       <c r="F47" s="365" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G47" s="364" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H47" s="380"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="348"/>
       <c r="C48" s="357" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D48" s="349" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E48" s="349"/>
       <c r="F48" s="379" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G48" s="351" t="s">
         <v>845</v>
@@ -16741,16 +16741,16 @@
     <row r="49" spans="2:8">
       <c r="B49" s="348"/>
       <c r="C49" s="349" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D49" s="349" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="E49" s="349"/>
       <c r="F49" s="350"/>
       <c r="G49" s="351"/>
       <c r="H49" s="349" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="50" spans="2:8">
@@ -16758,22 +16758,22 @@
         <v>44295</v>
       </c>
       <c r="C50" s="358" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D50" s="366" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E50" s="367" t="s">
         <v>1517</v>
       </c>
-      <c r="D50" s="366" t="s">
+      <c r="F50" s="355" t="s">
         <v>1518</v>
-      </c>
-      <c r="E50" s="367" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F50" s="355" t="s">
-        <v>1520</v>
       </c>
       <c r="G50" s="352" t="s">
         <v>845</v>
       </c>
       <c r="H50" s="349" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -16781,22 +16781,22 @@
         <v>44295</v>
       </c>
       <c r="C51" s="358" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D51" s="366" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E51" s="367" t="s">
         <v>1517</v>
       </c>
-      <c r="D51" s="366" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E51" s="367" t="s">
-        <v>1519</v>
-      </c>
       <c r="F51" s="355" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G51" s="352" t="s">
         <v>845</v>
       </c>
       <c r="H51" s="349" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="52" spans="2:8">
@@ -16804,70 +16804,70 @@
         <v>44147</v>
       </c>
       <c r="C52" s="358" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D52" s="366" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E52" s="367" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F52" s="355" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G52" s="352" t="s">
         <v>845</v>
       </c>
       <c r="H52" s="349" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" s="348"/>
       <c r="C53" s="349" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D53" s="349" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E53" s="349"/>
       <c r="F53" s="350"/>
       <c r="G53" s="351"/>
       <c r="H53" s="349" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="B54" s="348"/>
       <c r="C54" s="349" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D54" s="349" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E54" s="349"/>
       <c r="F54" s="350"/>
       <c r="G54" s="351"/>
       <c r="H54" s="349" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="55" spans="2:8">
       <c r="B55" s="348"/>
       <c r="C55" s="349" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D55" s="349" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E55" s="368" t="s">
         <v>1663</v>
       </c>
-      <c r="D55" s="349" t="s">
+      <c r="F55" s="350" t="s">
         <v>1664</v>
       </c>
-      <c r="E55" s="368" t="s">
+      <c r="G55" s="351" t="s">
         <v>1665</v>
-      </c>
-      <c r="F55" s="350" t="s">
-        <v>1666</v>
-      </c>
-      <c r="G55" s="351" t="s">
-        <v>1667</v>
       </c>
       <c r="H55" s="349"/>
     </row>
@@ -16879,10 +16879,10 @@
         <v>751</v>
       </c>
       <c r="D56" s="354" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E56" s="355" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="F56" s="355" t="s">
         <v>28</v>
@@ -16900,19 +16900,19 @@
         <v>751</v>
       </c>
       <c r="D57" s="354" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E57" s="355" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F57" s="355" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="G57" s="355" t="s">
         <v>845</v>
       </c>
       <c r="H57" s="356" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="58" spans="2:8">
@@ -16933,7 +16933,7 @@
         <v>18</v>
       </c>
       <c r="H58" s="356" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="59" spans="2:8">
@@ -16944,10 +16944,10 @@
         <v>751</v>
       </c>
       <c r="D59" s="354" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E59" s="355" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F59" s="355" t="s">
         <v>28</v>
@@ -16956,7 +16956,7 @@
         <v>18</v>
       </c>
       <c r="H59" s="356" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="60" spans="2:8">
@@ -16964,22 +16964,22 @@
         <v>44302</v>
       </c>
       <c r="C60" s="349" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D60" s="349" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E60" s="349" t="s">
         <v>1668</v>
       </c>
-      <c r="D60" s="349" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E60" s="349" t="s">
-        <v>1670</v>
-      </c>
       <c r="F60" s="350" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="G60" s="351" t="s">
         <v>1232</v>
       </c>
       <c r="H60" s="349" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="61" spans="2:8">
@@ -16987,10 +16987,10 @@
         <v>44302</v>
       </c>
       <c r="C61" s="349" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D61" s="349" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E61" s="349"/>
       <c r="F61" s="350" t="s">
@@ -17004,16 +17004,16 @@
     <row r="62" spans="2:8">
       <c r="B62" s="348"/>
       <c r="C62" s="349" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D62" s="349" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E62" s="349" t="s">
         <v>1673</v>
       </c>
-      <c r="D62" s="349" t="s">
+      <c r="F62" s="352" t="s">
         <v>1674</v>
-      </c>
-      <c r="E62" s="349" t="s">
-        <v>1675</v>
-      </c>
-      <c r="F62" s="352" t="s">
-        <v>1676</v>
       </c>
       <c r="G62" s="351" t="s">
         <v>1232</v>
@@ -17023,13 +17023,13 @@
     <row r="63" spans="2:8">
       <c r="B63" s="348"/>
       <c r="C63" s="349" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D63" s="349" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E63" s="349" t="s">
         <v>1677</v>
-      </c>
-      <c r="D63" s="349" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E63" s="349" t="s">
-        <v>1679</v>
       </c>
       <c r="F63" s="350" t="s">
         <v>9</v>
@@ -17042,58 +17042,58 @@
     <row r="64" spans="2:8">
       <c r="B64" s="348"/>
       <c r="C64" s="349" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D64" s="349" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E64" s="349"/>
       <c r="F64" s="350"/>
       <c r="G64" s="351"/>
       <c r="H64" s="349" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="348"/>
       <c r="C65" s="349" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D65" s="349" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E65" s="349"/>
       <c r="F65" s="350"/>
       <c r="G65" s="351"/>
       <c r="H65" s="349" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="348"/>
       <c r="C66" s="349" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D66" s="349" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E66" s="349"/>
       <c r="F66" s="350"/>
       <c r="G66" s="351"/>
       <c r="H66" s="349" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="348"/>
       <c r="C67" s="349" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D67" s="349" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E67" s="349" t="s">
         <v>1684</v>
-      </c>
-      <c r="D67" s="349" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E67" s="349" t="s">
-        <v>1686</v>
       </c>
       <c r="F67" s="350" t="s">
         <v>9</v>
@@ -17102,26 +17102,26 @@
         <v>1232</v>
       </c>
       <c r="H67" s="349" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="348"/>
       <c r="C68" s="349" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D68" s="349" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E68" s="349" t="s">
         <v>1688</v>
-      </c>
-      <c r="D68" s="349" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E68" s="349" t="s">
-        <v>1690</v>
       </c>
       <c r="F68" s="350" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="351"/>
       <c r="H68" s="349" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="69" spans="2:8">
@@ -17129,22 +17129,22 @@
         <v>44329</v>
       </c>
       <c r="C69" s="358" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D69" s="366" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E69" s="366" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F69" s="355" t="s">
         <v>1482</v>
-      </c>
-      <c r="E69" s="366" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F69" s="355" t="s">
-        <v>1484</v>
       </c>
       <c r="G69" s="352" t="s">
         <v>979</v>
       </c>
       <c r="H69" s="349" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -17152,13 +17152,13 @@
         <v>44329</v>
       </c>
       <c r="C70" s="358" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D70" s="366" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E70" s="366" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F70" s="355" t="s">
         <v>116</v>
@@ -17167,7 +17167,7 @@
         <v>895</v>
       </c>
       <c r="H70" s="349" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -17175,22 +17175,22 @@
         <v>44369</v>
       </c>
       <c r="C71" s="358" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D71" s="366" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E71" s="367" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F71" s="382" t="s">
         <v>1493</v>
-      </c>
-      <c r="E71" s="367" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F71" s="382" t="s">
-        <v>1495</v>
       </c>
       <c r="G71" s="383" t="s">
         <v>18</v>
       </c>
       <c r="H71" s="349" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -17198,13 +17198,13 @@
         <v>44329</v>
       </c>
       <c r="C72" s="358" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D72" s="366" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E72" s="384" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F72" s="355" t="s">
         <v>1374</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="H72" s="349" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -17221,10 +17221,10 @@
         <v>44329</v>
       </c>
       <c r="C73" s="358" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D73" s="366" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E73" s="367" t="s">
         <v>1383</v>
@@ -17236,7 +17236,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="349" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -17244,22 +17244,22 @@
         <v>44925</v>
       </c>
       <c r="C74" s="358" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D74" s="387" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E74" s="388" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F74" s="417" t="s">
-        <v>1453</v>
+        <v>1727</v>
+      </c>
+      <c r="F74" s="416" t="s">
+        <v>1451</v>
       </c>
       <c r="G74" s="390" t="s">
         <v>979</v>
       </c>
-      <c r="H74" s="418" t="s">
-        <v>1730</v>
+      <c r="H74" s="417" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="45">
@@ -17267,33 +17267,33 @@
         <v>44511</v>
       </c>
       <c r="C75" s="386" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D75" s="387" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E75" s="388" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F75" s="389" t="s">
         <v>129</v>
       </c>
       <c r="G75" s="390" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H75" s="391" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="30">
       <c r="B76" s="392" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C76" s="392" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D76" s="392" t="s">
         <v>1447</v>
-      </c>
-      <c r="C76" s="392" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D76" s="392" t="s">
-        <v>1449</v>
       </c>
       <c r="E76" s="392" t="s">
         <v>1336</v>
@@ -17313,10 +17313,10 @@
         <v>44581</v>
       </c>
       <c r="C77" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D77" s="366" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E77" s="367"/>
       <c r="F77" s="355" t="s">
@@ -17326,7 +17326,7 @@
         <v>1237</v>
       </c>
       <c r="H77" s="349" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -17338,22 +17338,22 @@
         <v>44640</v>
       </c>
       <c r="C79" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D79" s="366" t="s">
         <v>942</v>
       </c>
       <c r="E79" s="367" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F79" s="393" t="s">
         <v>129</v>
       </c>
       <c r="G79" s="352" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H79" s="349" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -17361,7 +17361,7 @@
         <v>44563</v>
       </c>
       <c r="C80" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D80" s="366" t="s">
         <v>1346</v>
@@ -17370,7 +17370,7 @@
         <v>1355</v>
       </c>
       <c r="F80" s="355" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G80" s="352" t="s">
         <v>979</v>
@@ -17384,16 +17384,16 @@
         <v>44581</v>
       </c>
       <c r="C81" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D81" s="366" t="s">
         <v>1346</v>
       </c>
       <c r="E81" s="367" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="F81" s="355" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G81" s="352" t="s">
         <v>979</v>
@@ -17405,22 +17405,22 @@
         <v>44581</v>
       </c>
       <c r="C82" s="396" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D82" s="396" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E82" s="397" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F82" s="398" t="s">
         <v>1693</v>
       </c>
-      <c r="E82" s="397" t="s">
+      <c r="G82" s="399" t="s">
         <v>1694</v>
       </c>
-      <c r="F82" s="398" t="s">
+      <c r="H82" s="400" t="s">
         <v>1695</v>
-      </c>
-      <c r="G82" s="399" t="s">
-        <v>1696</v>
-      </c>
-      <c r="H82" s="400" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="83" spans="2:8">
@@ -17428,22 +17428,22 @@
         <v>44581</v>
       </c>
       <c r="C83" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D83" s="366" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E83" s="367" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F83" s="355" t="s">
         <v>1584</v>
-      </c>
-      <c r="E83" s="367" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F83" s="355" t="s">
-        <v>1586</v>
       </c>
       <c r="G83" s="352" t="s">
         <v>895</v>
       </c>
       <c r="H83" s="349" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="84" spans="2:8">
@@ -17451,22 +17451,22 @@
         <v>44581</v>
       </c>
       <c r="C84" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D84" s="366" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E84" s="367" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F84" s="355" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="G84" s="352" t="s">
         <v>979</v>
       </c>
       <c r="H84" s="349" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="85" spans="2:8">
@@ -17474,22 +17474,22 @@
         <v>44606</v>
       </c>
       <c r="C85" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D85" s="366" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E85" s="367" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F85" s="355" t="s">
         <v>975</v>
       </c>
       <c r="G85" s="352" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H85" s="349" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -17497,19 +17497,19 @@
         <v>44661</v>
       </c>
       <c r="C86" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D86" s="366" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E86" s="367" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F86" s="355" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G86" s="352" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H86" s="349"/>
     </row>
@@ -17518,13 +17518,13 @@
         <v>44139</v>
       </c>
       <c r="C87" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D87" s="366" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E87" s="367" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F87" s="355" t="s">
         <v>47</v>
@@ -17533,19 +17533,19 @@
         <v>1387</v>
       </c>
       <c r="H87" s="349" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="348"/>
       <c r="C88" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D88" s="366" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E88" s="349" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="F88" s="379" t="s">
         <v>1410</v>
@@ -17558,13 +17558,13 @@
     <row r="89" spans="2:8">
       <c r="B89" s="348"/>
       <c r="C89" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D89" s="366" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E89" s="349" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F89" s="379" t="s">
         <v>1406</v>
@@ -17579,22 +17579,22 @@
         <v>44873</v>
       </c>
       <c r="C90" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D90" s="366" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="F90" s="28" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="G90" s="28" t="s">
         <v>18</v>
       </c>
       <c r="H90" s="349" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="91" spans="2:8">
@@ -17602,13 +17602,13 @@
         <v>44652</v>
       </c>
       <c r="C91" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D91" s="366" t="s">
         <v>751</v>
       </c>
       <c r="E91" s="367" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F91" s="355" t="s">
         <v>28</v>
@@ -17617,41 +17617,41 @@
         <v>18</v>
       </c>
       <c r="H91" s="349" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="411">
+      <c r="B92" s="410">
         <v>44910</v>
       </c>
-      <c r="C92" s="412" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D92" s="412" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E92" s="413" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F92" s="414"/>
-      <c r="G92" s="415"/>
-      <c r="H92" s="416" t="s">
-        <v>1699</v>
+      <c r="C92" s="411" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D92" s="411" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E92" s="412" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F92" s="413"/>
+      <c r="G92" s="414"/>
+      <c r="H92" s="415" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="348"/>
       <c r="C93" s="349" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D93" s="349" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E93" s="349" t="s">
         <v>1700</v>
       </c>
-      <c r="D93" s="349" t="s">
+      <c r="F93" s="352" t="s">
         <v>1701</v>
-      </c>
-      <c r="E93" s="349" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F93" s="352" t="s">
-        <v>1703</v>
       </c>
       <c r="G93" s="351" t="s">
         <v>979</v>
@@ -17663,13 +17663,13 @@
         <v>44313</v>
       </c>
       <c r="C94" s="349" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D94" s="349" t="s">
         <v>754</v>
       </c>
       <c r="E94" s="349" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F94" s="355">
         <v>1059</v>
@@ -17678,7 +17678,7 @@
         <v>25</v>
       </c>
       <c r="H94" s="349" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="95" spans="2:8">
@@ -17686,22 +17686,22 @@
         <v>44313</v>
       </c>
       <c r="C95" s="349" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D95" s="349" t="s">
         <v>754</v>
       </c>
       <c r="E95" s="349" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F95" s="355" t="s">
         <v>1527</v>
-      </c>
-      <c r="F95" s="355" t="s">
-        <v>1529</v>
       </c>
       <c r="G95" s="364" t="s">
         <v>883</v>
       </c>
       <c r="H95" s="349" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="30">
@@ -17709,7 +17709,7 @@
         <v>44874</v>
       </c>
       <c r="C96" s="366" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D96" s="366" t="s">
         <v>1346</v>
@@ -17717,14 +17717,14 @@
       <c r="E96" s="367" t="s">
         <v>752</v>
       </c>
-      <c r="F96" s="404" t="s">
-        <v>1706</v>
+      <c r="F96" s="403" t="s">
+        <v>1704</v>
       </c>
       <c r="G96" s="352" t="s">
         <v>37</v>
       </c>
       <c r="H96" s="359" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
   </sheetData>
@@ -17884,31 +17884,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25">
-      <c r="B2" s="442" t="s">
+      <c r="B2" s="441" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
     </row>
     <row r="3" spans="2:12" ht="20.25">
-      <c r="B3" s="444" t="s">
+      <c r="B3" s="443" t="s">
         <v>1196</v>
       </c>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
     </row>
     <row r="4" spans="2:12" ht="20.25">
-      <c r="B4" s="446">
+      <c r="B4" s="445">
         <v>43396</v>
       </c>
-      <c r="C4" s="446"/>
-      <c r="D4" s="446"/>
-      <c r="E4" s="446"/>
-      <c r="F4" s="446"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
     </row>
     <row r="6" spans="2:12" ht="31.5">
       <c r="B6" s="174" t="s">
@@ -21922,71 +21922,71 @@
       <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="462" t="s">
+      <c r="A2" s="459" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
-      <c r="C2" s="464" t="s">
+      <c r="C2" s="461" t="s">
         <v>220</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="466" t="s">
+      <c r="E2" s="463" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="458" t="s">
+      <c r="F2" s="465" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="458" t="s">
+      <c r="G2" s="465" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="460" t="s">
+      <c r="H2" s="457" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="458" t="s">
+      <c r="I2" s="465" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="460" t="s">
+      <c r="J2" s="465"/>
+      <c r="K2" s="465"/>
+      <c r="L2" s="457" t="s">
         <v>225</v>
       </c>
-      <c r="M2" s="460" t="s">
+      <c r="M2" s="457" t="s">
         <v>226</v>
       </c>
-      <c r="N2" s="458" t="s">
+      <c r="N2" s="465" t="s">
         <v>227</v>
       </c>
-      <c r="O2" s="458" t="s">
+      <c r="O2" s="465" t="s">
         <v>228</v>
       </c>
-      <c r="P2" s="460" t="s">
+      <c r="P2" s="457" t="s">
         <v>229</v>
       </c>
-      <c r="Q2" s="458" t="s">
+      <c r="Q2" s="465" t="s">
         <v>230</v>
       </c>
-      <c r="R2" s="458" t="s">
+      <c r="R2" s="465" t="s">
         <v>231</v>
       </c>
-      <c r="S2" s="460" t="s">
+      <c r="S2" s="457" t="s">
         <v>232</v>
       </c>
       <c r="T2" s="35"/>
       <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A3" s="463"/>
+      <c r="A3" s="460"/>
       <c r="B3" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="C3" s="465"/>
+      <c r="C3" s="462"/>
       <c r="D3" s="37"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="459"/>
-      <c r="G3" s="459"/>
-      <c r="H3" s="461"/>
+      <c r="E3" s="464"/>
+      <c r="F3" s="466"/>
+      <c r="G3" s="466"/>
+      <c r="H3" s="458"/>
       <c r="I3" s="38" t="s">
         <v>234</v>
       </c>
@@ -21996,14 +21996,14 @@
       <c r="K3" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="L3" s="461"/>
-      <c r="M3" s="461"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="459"/>
-      <c r="P3" s="461"/>
-      <c r="Q3" s="459"/>
-      <c r="R3" s="459"/>
-      <c r="S3" s="461"/>
+      <c r="L3" s="458"/>
+      <c r="M3" s="458"/>
+      <c r="N3" s="466"/>
+      <c r="O3" s="466"/>
+      <c r="P3" s="458"/>
+      <c r="Q3" s="466"/>
+      <c r="R3" s="466"/>
+      <c r="S3" s="458"/>
       <c r="T3" s="35"/>
       <c r="U3" s="30"/>
     </row>
@@ -25946,12 +25946,6 @@
   </sheetData>
   <autoFilter ref="F1:F80" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -25961,6 +25955,12 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -26922,19 +26922,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="468" t="s">
+      <c r="B1" s="467" t="s">
         <v>682</v>
       </c>
-      <c r="C1" s="468"/>
-      <c r="D1" s="468"/>
-      <c r="E1" s="468"/>
-      <c r="F1" s="468"/>
-      <c r="G1" s="468"/>
-      <c r="H1" s="468"/>
-      <c r="I1" s="468"/>
-      <c r="J1" s="468"/>
-      <c r="K1" s="468"/>
-      <c r="L1" s="468"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="467"/>
+      <c r="L1" s="467"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="77"/>
@@ -27554,43 +27554,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="443" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="444"/>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="469" t="s">
+      <c r="A3" s="468" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="470"/>
-      <c r="C3" s="470"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="470"/>
-      <c r="G3" s="470"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="470"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -27657,74 +27657,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="20.25">
-      <c r="B2" s="431" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="431"/>
-      <c r="I2" s="431"/>
+      <c r="B2" s="430" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
+      <c r="I2" s="430"/>
     </row>
     <row r="3" spans="2:9" ht="18">
-      <c r="B3" s="432" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="432"/>
-      <c r="I3" s="432"/>
+      <c r="B3" s="431" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="431"/>
+      <c r="I3" s="431"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="433">
+      <c r="B4" s="432">
         <v>45263</v>
       </c>
-      <c r="C4" s="433"/>
-      <c r="D4" s="433"/>
-      <c r="E4" s="433"/>
-      <c r="F4" s="433"/>
-      <c r="G4" s="433"/>
-      <c r="H4" s="433"/>
-      <c r="I4" s="433"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="432"/>
+      <c r="F4" s="432"/>
+      <c r="G4" s="432"/>
+      <c r="H4" s="432"/>
+      <c r="I4" s="432"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="434"/>
-      <c r="C5" s="434"/>
-      <c r="D5" s="434"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="434"/>
-      <c r="H5" s="434"/>
-      <c r="I5" s="434"/>
+      <c r="B5" s="433"/>
+      <c r="C5" s="433"/>
+      <c r="D5" s="433"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="433"/>
+      <c r="G5" s="433"/>
+      <c r="H5" s="433"/>
+      <c r="I5" s="433"/>
     </row>
     <row r="6" spans="2:9" ht="15">
-      <c r="B6" s="427" t="s">
+      <c r="B6" s="426" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C6" s="426" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D6" s="426" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="426" t="s">
         <v>1537</v>
       </c>
-      <c r="C6" s="427" t="s">
+      <c r="F6" s="426" t="s">
         <v>1538</v>
       </c>
-      <c r="D6" s="427" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="427" t="s">
+      <c r="G6" s="426" t="s">
         <v>1539</v>
       </c>
-      <c r="F6" s="427" t="s">
-        <v>1540</v>
-      </c>
-      <c r="G6" s="427" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H6" s="427" t="s">
-        <v>1736</v>
-      </c>
-      <c r="I6" s="427" t="s">
+      <c r="H6" s="426" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I6" s="426" t="s">
         <v>223</v>
       </c>
     </row>
@@ -27736,14 +27736,14 @@
         <v>81</v>
       </c>
       <c r="D7" s="257" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E7" s="263" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F7" s="288"/>
       <c r="G7" s="264" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="H7" s="264"/>
       <c r="I7" s="266" t="s">
@@ -27758,14 +27758,14 @@
         <v>82</v>
       </c>
       <c r="D8" s="257" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E8" s="263" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F8" s="288"/>
       <c r="G8" s="264" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H8" s="264"/>
       <c r="I8" s="266" t="s">
@@ -27780,14 +27780,14 @@
         <v>80</v>
       </c>
       <c r="D9" s="257" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E9" s="263" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="F9" s="290"/>
       <c r="G9" s="264" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H9" s="264"/>
       <c r="I9" s="266" t="s">
@@ -27802,14 +27802,14 @@
         <v>24</v>
       </c>
       <c r="D10" s="257" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E10" s="263" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="F10" s="288"/>
       <c r="G10" s="264" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H10" s="264"/>
       <c r="I10" s="266" t="s">
@@ -27824,14 +27824,14 @@
         <v>98</v>
       </c>
       <c r="D11" s="257" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E11" s="263" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="F11" s="288"/>
       <c r="G11" s="264" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="H11" s="264"/>
       <c r="I11" s="266" t="s">
@@ -27850,20 +27850,20 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="317" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="C13" s="298">
         <v>3</v>
       </c>
       <c r="D13" s="257" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E13" s="263" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="F13" s="288"/>
       <c r="G13" s="264" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H13" s="320"/>
       <c r="I13" s="291" t="s">
@@ -27872,22 +27872,22 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="317" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C14" s="298">
         <v>1</v>
       </c>
       <c r="D14" s="257" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E14" s="263" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F14" s="288" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="G14" s="264" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H14" s="263" t="s">
         <v>845</v>
@@ -27898,22 +27898,22 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="317" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="C15" s="298">
         <v>4</v>
       </c>
       <c r="D15" s="257" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E15" s="263" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F15" s="288" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G15" s="264" t="s">
         <v>1561</v>
-      </c>
-      <c r="E15" s="263" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F15" s="288" t="s">
-        <v>1570</v>
-      </c>
-      <c r="G15" s="264" t="s">
-        <v>1563</v>
       </c>
       <c r="H15" s="264"/>
       <c r="I15" s="291" t="s">
@@ -27922,20 +27922,20 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="317" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="C16" s="298">
         <v>5</v>
       </c>
       <c r="D16" s="257" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E16" s="263" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="F16" s="288"/>
       <c r="G16" s="264" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H16" s="264"/>
       <c r="I16" s="291" t="s">
@@ -27944,7 +27944,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="317" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C17" s="298">
         <v>2</v>
@@ -27953,11 +27953,11 @@
         <v>873</v>
       </c>
       <c r="E17" s="263" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="F17" s="288"/>
       <c r="G17" s="264" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H17" s="264" t="s">
         <v>845</v>
@@ -28002,43 +28002,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="443" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="444"/>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="469" t="s">
+      <c r="A3" s="468" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="470"/>
-      <c r="C3" s="470"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="470"/>
-      <c r="G3" s="470"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="470"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28097,43 +28097,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="443" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="444"/>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="469" t="s">
+      <c r="A3" s="468" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="470"/>
-      <c r="C3" s="470"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="470"/>
-      <c r="G3" s="470"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="470"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28186,51 +28186,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:15" ht="20.25">
-      <c r="A2" s="443" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="444"/>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:15" ht="80.25" customHeight="1">
-      <c r="A3" s="469" t="s">
+      <c r="A3" s="468" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="470"/>
-      <c r="C3" s="470"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="470"/>
-      <c r="G3" s="470"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="470"/>
-      <c r="J3" s="471" t="s">
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
+      <c r="J3" s="470" t="s">
         <v>814</v>
       </c>
-      <c r="K3" s="471"/>
-      <c r="L3" s="471"/>
-      <c r="M3" s="471"/>
-      <c r="N3" s="471"/>
-      <c r="O3" s="471"/>
+      <c r="K3" s="470"/>
+      <c r="L3" s="470"/>
+      <c r="M3" s="470"/>
+      <c r="N3" s="470"/>
+      <c r="O3" s="470"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
@@ -28293,43 +28293,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
-      <c r="H1" s="442"/>
-      <c r="I1" s="442"/>
+      <c r="B1" s="441"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
+      <c r="H1" s="441"/>
+      <c r="I1" s="441"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="443" t="s">
+      <c r="A2" s="442" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="444"/>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
-      <c r="H2" s="444"/>
-      <c r="I2" s="444"/>
+      <c r="B2" s="443"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
+      <c r="H2" s="443"/>
+      <c r="I2" s="443"/>
     </row>
     <row r="3" spans="1:9" ht="20.25">
-      <c r="A3" s="469" t="s">
+      <c r="A3" s="468" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="470"/>
-      <c r="C3" s="470"/>
-      <c r="D3" s="470"/>
-      <c r="E3" s="470"/>
-      <c r="F3" s="470"/>
-      <c r="G3" s="470"/>
-      <c r="H3" s="470"/>
-      <c r="I3" s="470"/>
+      <c r="B3" s="469"/>
+      <c r="C3" s="469"/>
+      <c r="D3" s="469"/>
+      <c r="E3" s="469"/>
+      <c r="F3" s="469"/>
+      <c r="G3" s="469"/>
+      <c r="H3" s="469"/>
+      <c r="I3" s="469"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
@@ -28460,16 +28460,16 @@
   <sheetData>
     <row r="9" spans="3:5" ht="13.5" thickBot="1"/>
     <row r="10" spans="3:5">
-      <c r="C10" s="478"/>
-      <c r="D10" s="479"/>
-      <c r="E10" s="480"/>
+      <c r="C10" s="477"/>
+      <c r="D10" s="478"/>
+      <c r="E10" s="479"/>
     </row>
     <row r="11" spans="3:5" ht="13.5">
-      <c r="C11" s="481" t="s">
+      <c r="C11" s="480" t="s">
         <v>792</v>
       </c>
-      <c r="D11" s="482"/>
-      <c r="E11" s="483"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="482"/>
     </row>
     <row r="12" spans="3:5" ht="13.5">
       <c r="C12" s="103" t="s">
@@ -28517,47 +28517,47 @@
       </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="C17" s="484"/>
-      <c r="D17" s="485"/>
-      <c r="E17" s="486"/>
+      <c r="C17" s="483"/>
+      <c r="D17" s="484"/>
+      <c r="E17" s="485"/>
     </row>
     <row r="18" spans="3:5" ht="13.5">
-      <c r="C18" s="481" t="s">
+      <c r="C18" s="480" t="s">
         <v>803</v>
       </c>
-      <c r="D18" s="482"/>
-      <c r="E18" s="483"/>
+      <c r="D18" s="481"/>
+      <c r="E18" s="482"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="484"/>
-      <c r="D19" s="485"/>
-      <c r="E19" s="486"/>
+      <c r="C19" s="483"/>
+      <c r="D19" s="484"/>
+      <c r="E19" s="485"/>
     </row>
     <row r="20" spans="3:5" ht="13.5">
-      <c r="C20" s="481" t="s">
+      <c r="C20" s="480" t="s">
         <v>804</v>
       </c>
-      <c r="D20" s="482"/>
-      <c r="E20" s="483"/>
+      <c r="D20" s="481"/>
+      <c r="E20" s="482"/>
     </row>
     <row r="21" spans="3:5">
-      <c r="C21" s="472"/>
-      <c r="D21" s="473"/>
-      <c r="E21" s="474"/>
+      <c r="C21" s="471"/>
+      <c r="D21" s="472"/>
+      <c r="E21" s="473"/>
     </row>
     <row r="22" spans="3:5" ht="13.5">
-      <c r="C22" s="475" t="s">
+      <c r="C22" s="474" t="s">
         <v>805</v>
       </c>
-      <c r="D22" s="476"/>
-      <c r="E22" s="477"/>
+      <c r="D22" s="475"/>
+      <c r="E22" s="476"/>
     </row>
     <row r="23" spans="3:5" ht="13.5">
-      <c r="C23" s="475" t="s">
+      <c r="C23" s="474" t="s">
         <v>806</v>
       </c>
-      <c r="D23" s="476"/>
-      <c r="E23" s="477"/>
+      <c r="D23" s="475"/>
+      <c r="E23" s="476"/>
     </row>
     <row r="24" spans="3:5" ht="13.5">
       <c r="C24" s="105"/>
@@ -28938,9 +28938,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427FEEE2-9745-4725-B681-88E46CFE789D}">
   <sheetPr codeName="Hoja11"/>
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
@@ -28952,7 +28952,7 @@
     <col min="3" max="3" width="19.7109375" style="21" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="261" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="265" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="265" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="265" customWidth="1"/>
     <col min="8" max="8" width="35.7109375" style="21" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="21"/>
@@ -28962,46 +28962,46 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="2:10" ht="20.25">
-      <c r="B2" s="431" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C2" s="431"/>
-      <c r="D2" s="431"/>
-      <c r="E2" s="431"/>
-      <c r="F2" s="431"/>
-      <c r="G2" s="431"/>
-      <c r="H2" s="431"/>
+      <c r="B2" s="430" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C2" s="430"/>
+      <c r="D2" s="430"/>
+      <c r="E2" s="430"/>
+      <c r="F2" s="430"/>
+      <c r="G2" s="430"/>
+      <c r="H2" s="430"/>
     </row>
     <row r="3" spans="2:10" ht="18">
-      <c r="B3" s="432" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C3" s="432"/>
-      <c r="D3" s="432"/>
-      <c r="E3" s="432"/>
-      <c r="F3" s="432"/>
-      <c r="G3" s="432"/>
-      <c r="H3" s="432"/>
+      <c r="B3" s="431" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C3" s="431"/>
+      <c r="D3" s="431"/>
+      <c r="E3" s="431"/>
+      <c r="F3" s="431"/>
+      <c r="G3" s="431"/>
+      <c r="H3" s="431"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="433">
+      <c r="B4" s="432">
         <v>44316</v>
       </c>
-      <c r="C4" s="433"/>
-      <c r="D4" s="433"/>
-      <c r="E4" s="433"/>
-      <c r="F4" s="433"/>
-      <c r="G4" s="433"/>
-      <c r="H4" s="433"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="432"/>
+      <c r="F4" s="432"/>
+      <c r="G4" s="432"/>
+      <c r="H4" s="432"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="434"/>
-      <c r="C5" s="434"/>
-      <c r="D5" s="434"/>
-      <c r="E5" s="434"/>
-      <c r="F5" s="434"/>
-      <c r="G5" s="434"/>
-      <c r="H5" s="434"/>
+      <c r="B5" s="433"/>
+      <c r="C5" s="433"/>
+      <c r="D5" s="433"/>
+      <c r="E5" s="433"/>
+      <c r="F5" s="433"/>
+      <c r="G5" s="433"/>
+      <c r="H5" s="433"/>
     </row>
     <row r="6" spans="2:10" ht="30">
       <c r="B6" s="267" t="s">
@@ -29045,26 +29045,32 @@
       <c r="G7" s="264" t="s">
         <v>1387</v>
       </c>
-      <c r="H7" s="258"/>
+      <c r="H7" s="258" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="268">
         <v>44179</v>
       </c>
       <c r="C8" s="259" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D8" s="257" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="E8" s="263" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F8" s="288" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G8" s="264" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H8" s="258" t="s">
         <v>1740</v>
       </c>
-      <c r="F8" s="288"/>
-      <c r="G8" s="264" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H8" s="258"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="268">
@@ -29085,115 +29091,123 @@
       <c r="G9" s="264" t="s">
         <v>1409</v>
       </c>
-      <c r="H9" s="258"/>
+      <c r="H9" s="258" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="268">
+        <v>44316</v>
+      </c>
+      <c r="C10" s="259" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D10" s="257" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E10" s="263" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F10" s="288" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G10" s="264" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H10" s="258" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="268">
         <v>44179</v>
       </c>
-      <c r="C10" s="259" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D10" s="257" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E10" s="263" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F10" s="290"/>
-      <c r="G10" s="264" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H10" s="258"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="268"/>
-      <c r="C11" s="259"/>
-      <c r="D11" s="257"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="288"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="258"/>
+      <c r="C11" s="259" t="s">
+        <v>876</v>
+      </c>
+      <c r="D11" s="257" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E11" s="263" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="288" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G11" s="264" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H11" s="258" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="268">
         <v>44316</v>
       </c>
-      <c r="C12" s="259" t="s">
-        <v>1402</v>
+      <c r="C12" s="486" t="s">
+        <v>1395</v>
       </c>
       <c r="D12" s="257" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="E12" s="263" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="F12" s="288" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="G12" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H12" s="258"/>
+      <c r="H12" s="258" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="268">
-        <v>44179</v>
-      </c>
-      <c r="C13" s="259" t="s">
-        <v>877</v>
-      </c>
-      <c r="D13" s="257" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E13" s="263" t="s">
-        <v>1359</v>
-      </c>
-      <c r="F13" s="290" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G13" s="264" t="s">
-        <v>1415</v>
-      </c>
-      <c r="H13" s="258" t="s">
-        <v>1416</v>
-      </c>
+      <c r="B13" s="268"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="288"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="258"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="268">
         <v>44179</v>
       </c>
-      <c r="C14" s="403" t="s">
-        <v>1391</v>
+      <c r="C14" s="486" t="s">
+        <v>877</v>
       </c>
       <c r="D14" s="257" t="s">
-        <v>1392</v>
+        <v>1405</v>
       </c>
       <c r="E14" s="263" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F14" s="288" t="s">
-        <v>1394</v>
+        <v>1359</v>
+      </c>
+      <c r="F14" s="290" t="s">
+        <v>1390</v>
       </c>
       <c r="G14" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H14" s="291" t="s">
-        <v>1419</v>
+      <c r="H14" s="258" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="268">
-        <v>44316</v>
-      </c>
-      <c r="C15" s="403" t="s">
-        <v>1395</v>
+        <v>44179</v>
+      </c>
+      <c r="C15" s="486" t="s">
+        <v>1391</v>
       </c>
       <c r="D15" s="257" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="E15" s="263" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="F15" s="288" t="s">
         <v>1394</v>
@@ -29201,50 +29215,40 @@
       <c r="G15" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H15" s="258"/>
+      <c r="H15" s="258" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="268">
         <v>44179</v>
       </c>
       <c r="C16" s="259" t="s">
-        <v>876</v>
+        <v>1399</v>
       </c>
       <c r="D16" s="257" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="E16" s="263" t="s">
-        <v>151</v>
+        <v>1401</v>
       </c>
       <c r="F16" s="288" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="G16" s="264" t="s">
         <v>1415</v>
       </c>
-      <c r="H16" s="266" t="s">
-        <v>875</v>
+      <c r="H16" s="258" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="268">
-        <v>44179</v>
-      </c>
-      <c r="C17" s="259" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D17" s="257" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E17" s="263" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F17" s="288" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G17" s="264" t="s">
-        <v>1415</v>
-      </c>
+      <c r="B17" s="268"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="288"/>
+      <c r="G17" s="264"/>
       <c r="H17" s="258"/>
     </row>
     <row r="18" spans="2:8">
@@ -29257,24 +29261,61 @@
       <c r="H18" s="258"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="268">
-        <v>44196</v>
-      </c>
+      <c r="B19" s="268"/>
       <c r="C19" s="259"/>
       <c r="D19" s="257"/>
-      <c r="E19" s="263" t="s">
+      <c r="E19" s="263"/>
+      <c r="F19" s="288"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="258"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="268"/>
+      <c r="C20" s="259"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="288"/>
+      <c r="G20" s="264"/>
+      <c r="H20" s="258"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="268">
+        <v>44196</v>
+      </c>
+      <c r="C21" s="259"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="263" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F21" s="288" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G21" s="264" t="s">
         <v>1420</v>
       </c>
-      <c r="F19" s="288" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G19" s="264" t="s">
-        <v>1422</v>
-      </c>
-      <c r="H19" s="258"/>
+      <c r="H21" s="258"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="268">
+        <v>44179</v>
+      </c>
+      <c r="C22" s="259" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D22" s="257" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E22" s="263" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F22" s="290"/>
+      <c r="G22" s="264" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H22" s="258"/>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H19" xr:uid="{DF1C36DE-7671-4C4B-A272-B58D135CECFA}"/>
+  <autoFilter ref="B6:H21" xr:uid="{DF1C36DE-7671-4C4B-A272-B58D135CECFA}"/>
   <mergeCells count="4">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -29368,50 +29409,50 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="21"/>
-      <c r="B1" s="441" t="s">
+      <c r="B1" s="440" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="442"/>
-      <c r="D1" s="442"/>
-      <c r="E1" s="442"/>
-      <c r="F1" s="442"/>
-      <c r="G1" s="442"/>
+      <c r="C1" s="441"/>
+      <c r="D1" s="441"/>
+      <c r="E1" s="441"/>
+      <c r="F1" s="441"/>
+      <c r="G1" s="441"/>
       <c r="J1" s="84"/>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="443" t="s">
+      <c r="B2" s="442" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="444"/>
-      <c r="D2" s="444"/>
-      <c r="E2" s="444"/>
-      <c r="F2" s="444"/>
-      <c r="G2" s="444"/>
+      <c r="C2" s="443"/>
+      <c r="D2" s="443"/>
+      <c r="E2" s="443"/>
+      <c r="F2" s="443"/>
+      <c r="G2" s="443"/>
       <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="445">
+      <c r="B3" s="444">
         <v>44133</v>
       </c>
-      <c r="C3" s="446"/>
-      <c r="D3" s="446"/>
-      <c r="E3" s="446"/>
-      <c r="F3" s="446"/>
-      <c r="G3" s="446"/>
+      <c r="C3" s="445"/>
+      <c r="D3" s="445"/>
+      <c r="E3" s="445"/>
+      <c r="F3" s="445"/>
+      <c r="G3" s="445"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="21"/>
       <c r="B4" s="338" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C4" s="339" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D4" s="339" t="s">
         <v>1447</v>
-      </c>
-      <c r="C4" s="339" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D4" s="339" t="s">
-        <v>1449</v>
       </c>
       <c r="E4" s="339" t="s">
         <v>1336</v>
@@ -29432,10 +29473,10 @@
         <v>44581</v>
       </c>
       <c r="C5" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D5" s="329" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E5" s="330"/>
       <c r="F5" s="331" t="s">
@@ -29445,7 +29486,7 @@
         <v>1237</v>
       </c>
       <c r="H5" s="332" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="327" customFormat="1" ht="15">
@@ -29453,22 +29494,22 @@
         <v>44640</v>
       </c>
       <c r="C6" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D6" s="329" t="s">
         <v>942</v>
       </c>
       <c r="E6" s="330" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F6" s="331" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G6" s="333" t="s">
         <v>1577</v>
       </c>
-      <c r="F6" s="331" t="s">
+      <c r="H6" s="332" t="s">
         <v>1578</v>
-      </c>
-      <c r="G6" s="333" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H6" s="332" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="327" customFormat="1" ht="15">
@@ -29476,22 +29517,22 @@
         <v>44640</v>
       </c>
       <c r="C7" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D7" s="329" t="s">
         <v>942</v>
       </c>
       <c r="E7" s="330" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="F7" s="321" t="s">
         <v>129</v>
       </c>
       <c r="G7" s="333" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H7" s="332" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="327" customFormat="1" ht="15">
@@ -29499,7 +29540,7 @@
         <v>44563</v>
       </c>
       <c r="C8" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D8" s="329" t="s">
         <v>1346</v>
@@ -29508,7 +29549,7 @@
         <v>1355</v>
       </c>
       <c r="F8" s="331" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="G8" s="333" t="s">
         <v>979</v>
@@ -29522,16 +29563,16 @@
         <v>44581</v>
       </c>
       <c r="C9" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D9" s="329" t="s">
         <v>1346</v>
       </c>
       <c r="E9" s="330" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="F9" s="331" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="G9" s="333" t="s">
         <v>979</v>
@@ -29543,22 +29584,22 @@
         <v>44581</v>
       </c>
       <c r="C10" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D10" s="329" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E10" s="330" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F10" s="331" t="s">
         <v>1584</v>
-      </c>
-      <c r="E10" s="330" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F10" s="331" t="s">
-        <v>1586</v>
       </c>
       <c r="G10" s="333" t="s">
         <v>895</v>
       </c>
       <c r="H10" s="332" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="327" customFormat="1" ht="15">
@@ -29566,22 +29607,22 @@
         <v>44581</v>
       </c>
       <c r="C11" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D11" s="329" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E11" s="330" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F11" s="331" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="G11" s="333" t="s">
         <v>979</v>
       </c>
       <c r="H11" s="332" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="327" customFormat="1" ht="15">
@@ -29589,22 +29630,22 @@
         <v>44606</v>
       </c>
       <c r="C12" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D12" s="329" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E12" s="330" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F12" s="331" t="s">
         <v>975</v>
       </c>
       <c r="G12" s="333" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H12" s="332" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="327" customFormat="1" ht="15">
@@ -29612,19 +29653,19 @@
         <v>44661</v>
       </c>
       <c r="C13" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D13" s="329" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E13" s="330" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="F13" s="331" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G13" s="333" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H13" s="332"/>
     </row>
@@ -29633,13 +29674,13 @@
         <v>44139</v>
       </c>
       <c r="C14" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D14" s="329" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E14" s="330" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="F14" s="331" t="s">
         <v>47</v>
@@ -29648,19 +29689,19 @@
         <v>1387</v>
       </c>
       <c r="H14" s="332" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="327" customFormat="1" ht="15">
       <c r="B15" s="334"/>
       <c r="C15" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D15" s="329" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E15" s="332" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="F15" s="335" t="s">
         <v>1410</v>
@@ -29673,13 +29714,13 @@
     <row r="16" spans="1:10" s="327" customFormat="1" ht="15">
       <c r="B16" s="334"/>
       <c r="C16" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D16" s="329" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E16" s="332" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="F16" s="335" t="s">
         <v>1406</v>
@@ -29694,13 +29735,13 @@
         <v>44652</v>
       </c>
       <c r="C17" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D17" s="329" t="s">
         <v>751</v>
       </c>
       <c r="E17" s="330" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="F17" s="331" t="s">
         <v>28</v>
@@ -29709,7 +29750,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="332" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15">
@@ -29718,13 +29759,13 @@
         <v>44144</v>
       </c>
       <c r="C18" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D18" s="329" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E18" s="330" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F18" s="331" t="s">
         <v>951</v>
@@ -29733,7 +29774,7 @@
         <v>953</v>
       </c>
       <c r="H18" s="332" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="J18" s="84"/>
     </row>
@@ -29743,22 +29784,22 @@
         <v>44676</v>
       </c>
       <c r="C19" s="329" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D19" s="329" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E19" s="330" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F19" s="321" t="s">
         <v>975</v>
       </c>
       <c r="G19" s="336" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H19" s="337" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="J19" s="84"/>
     </row>
@@ -29830,15 +29871,15 @@
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="21"/>
-      <c r="B26" s="453" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C26" s="454"/>
-      <c r="D26" s="454"/>
-      <c r="E26" s="454"/>
-      <c r="F26" s="454"/>
-      <c r="G26" s="454"/>
-      <c r="H26" s="455"/>
+      <c r="B26" s="452" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C26" s="453"/>
+      <c r="D26" s="453"/>
+      <c r="E26" s="453"/>
+      <c r="F26" s="453"/>
+      <c r="G26" s="453"/>
+      <c r="H26" s="454"/>
       <c r="J26" s="84"/>
     </row>
     <row r="27" spans="1:10" ht="15">
@@ -29847,22 +29888,22 @@
         <v>44165</v>
       </c>
       <c r="C27" s="259" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D27" s="259" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E27" s="296" t="s">
         <v>1450</v>
       </c>
-      <c r="D27" s="259" t="s">
+      <c r="F27" s="263" t="s">
         <v>1451</v>
       </c>
-      <c r="E27" s="296" t="s">
+      <c r="G27" s="263" t="s">
         <v>1452</v>
       </c>
-      <c r="F27" s="263" t="s">
+      <c r="H27" s="266" t="s">
         <v>1453</v>
-      </c>
-      <c r="G27" s="263" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H27" s="266" t="s">
-        <v>1455</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="84"/>
@@ -29873,22 +29914,22 @@
         <v>44165</v>
       </c>
       <c r="C28" s="259" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D28" s="259" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E28" s="296" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F28" s="263" t="s">
         <v>1451</v>
       </c>
-      <c r="E28" s="296" t="s">
-        <v>1456</v>
-      </c>
-      <c r="F28" s="263" t="s">
-        <v>1453</v>
-      </c>
       <c r="G28" s="263" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H28" s="258" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="84"/>
@@ -29897,10 +29938,10 @@
       <c r="A29" s="21"/>
       <c r="B29" s="3"/>
       <c r="C29" s="297" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D29" s="297" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="E29" s="297" t="s">
         <v>1389</v>
@@ -29921,10 +29962,10 @@
         <v>44139</v>
       </c>
       <c r="C30" s="299" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D30" s="299" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E30" s="300"/>
       <c r="F30" s="263" t="s">
@@ -29934,7 +29975,7 @@
         <v>1387</v>
       </c>
       <c r="H30" s="297" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="84"/>
@@ -29943,10 +29984,10 @@
       <c r="A31" s="21"/>
       <c r="B31" s="3"/>
       <c r="C31" s="297" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D31" s="297" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E31" s="297" t="s">
         <v>1411</v>
@@ -29965,10 +30006,10 @@
       <c r="A32" s="21"/>
       <c r="B32" s="3"/>
       <c r="C32" s="297" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D32" s="297" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E32" s="297" t="s">
         <v>1408</v>
@@ -29989,20 +30030,20 @@
         <v>44140</v>
       </c>
       <c r="C33" s="299" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D33" s="299" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E33" s="300"/>
       <c r="F33" s="263" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G33" s="264" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H33" s="297" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="84"/>
@@ -30013,22 +30054,22 @@
         <v>44511</v>
       </c>
       <c r="C34" s="299" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D34" s="299" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E34" s="300" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="F34" s="321" t="s">
         <v>129</v>
       </c>
       <c r="G34" s="264" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="84"/>
@@ -30037,7 +30078,7 @@
       <c r="A35" s="21"/>
       <c r="B35" s="3"/>
       <c r="C35" s="297" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>874</v>
@@ -30047,10 +30088,10 @@
         <v>47</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="84"/>
@@ -30059,7 +30100,7 @@
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
       <c r="C36" s="297" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>874</v>
@@ -30069,10 +30110,10 @@
         <v>47</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="84"/>
@@ -30081,19 +30122,19 @@
       <c r="A37" s="21"/>
       <c r="B37" s="9"/>
       <c r="C37" s="297" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>874</v>
       </c>
       <c r="E37" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>1470</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>1472</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="21"/>
@@ -30103,17 +30144,17 @@
       <c r="A38" s="21"/>
       <c r="B38" s="3"/>
       <c r="C38" s="297" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="21"/>
@@ -30123,19 +30164,19 @@
       <c r="A39" s="21"/>
       <c r="B39" s="3"/>
       <c r="C39" s="297" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>128</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="21"/>
@@ -30145,14 +30186,14 @@
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="297" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D40" s="297" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E40" s="297"/>
       <c r="F40" s="298" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="G40" s="301" t="s">
         <v>845</v>
@@ -30167,16 +30208,16 @@
         <v>44343</v>
       </c>
       <c r="C41" s="297" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D41" s="297" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E41" s="297" t="s">
         <v>1346</v>
       </c>
       <c r="F41" s="301" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="G41" s="302" t="s">
         <v>37</v>
@@ -30191,10 +30232,10 @@
         <v>44133</v>
       </c>
       <c r="C42" s="259" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D42" s="259" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E42" s="300" t="s">
         <v>1383</v>
@@ -30206,7 +30247,7 @@
         <v>37</v>
       </c>
       <c r="H42" s="266" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="I42" s="21"/>
       <c r="J42" s="84"/>
@@ -30217,22 +30258,22 @@
         <v>44329</v>
       </c>
       <c r="C43" s="323" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D43" s="323" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E43" s="323" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F43" s="324" t="s">
         <v>1482</v>
-      </c>
-      <c r="E43" s="323" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F43" s="324" t="s">
-        <v>1484</v>
       </c>
       <c r="G43" s="325" t="s">
         <v>979</v>
       </c>
       <c r="H43" s="326" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="I43" s="21"/>
       <c r="J43" s="84"/>
@@ -30243,13 +30284,13 @@
         <v>44329</v>
       </c>
       <c r="C44" s="323" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D44" s="323" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E44" s="323" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="F44" s="324" t="s">
         <v>116</v>
@@ -30258,7 +30299,7 @@
         <v>895</v>
       </c>
       <c r="H44" s="326" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="I44" s="21"/>
       <c r="J44" s="84"/>
@@ -30269,13 +30310,13 @@
         <v>44144</v>
       </c>
       <c r="C45" s="259" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D45" s="259" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E45" s="300" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F45" s="303" t="s">
         <v>951</v>
@@ -30284,7 +30325,7 @@
         <v>953</v>
       </c>
       <c r="H45" s="266" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="I45" s="21"/>
       <c r="J45" s="84"/>
@@ -30295,19 +30336,19 @@
         <v>44144</v>
       </c>
       <c r="C46" s="259" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D46" s="259" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E46" s="300" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="F46" s="300" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="G46" s="263" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H46" s="266" t="s">
         <v>128</v>
@@ -30321,22 +30362,22 @@
         <v>44369</v>
       </c>
       <c r="C47" s="299" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D47" s="299" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E47" s="300" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F47" s="304" t="s">
         <v>1493</v>
-      </c>
-      <c r="E47" s="300" t="s">
-        <v>1494</v>
-      </c>
-      <c r="F47" s="304" t="s">
-        <v>1495</v>
       </c>
       <c r="G47" s="305" t="s">
         <v>18</v>
       </c>
       <c r="H47" s="297" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I47" s="21"/>
       <c r="J47" s="84"/>
@@ -30347,19 +30388,19 @@
         <v>44334</v>
       </c>
       <c r="C48" s="299" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D48" s="299" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E48" s="300" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="F48" s="263" t="s">
         <v>1395</v>
       </c>
       <c r="G48" s="264" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H48" s="297"/>
       <c r="I48" s="21"/>
@@ -30371,22 +30412,22 @@
         <v>44105</v>
       </c>
       <c r="C49" s="259" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D49" s="300" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E49" s="300" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F49" s="263" t="s">
         <v>1500</v>
-      </c>
-      <c r="E49" s="300" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F49" s="263" t="s">
-        <v>1502</v>
       </c>
       <c r="G49" s="264" t="s">
         <v>979</v>
       </c>
       <c r="H49" s="300" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I49" s="21"/>
       <c r="J49" s="84"/>
@@ -30397,10 +30438,10 @@
         <v>44354</v>
       </c>
       <c r="C50" s="299" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D50" s="299" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E50" s="299"/>
       <c r="F50" s="263" t="s">
@@ -30419,13 +30460,13 @@
         <v>44329</v>
       </c>
       <c r="C51" s="299" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D51" s="299" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E51" s="306" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="F51" s="263" t="s">
         <v>1374</v>
@@ -30434,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="297" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="84"/>
@@ -30445,10 +30486,10 @@
         <v>44329</v>
       </c>
       <c r="C52" s="299" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D52" s="299" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E52" s="300" t="s">
         <v>1383</v>
@@ -30460,7 +30501,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="297" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="84"/>
@@ -30469,13 +30510,13 @@
       <c r="A53" s="21"/>
       <c r="B53" s="9"/>
       <c r="C53" s="299" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D53" s="299" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E53" s="299" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="F53" s="263" t="s">
         <v>975</v>
@@ -30484,7 +30525,7 @@
         <v>953</v>
       </c>
       <c r="H53" s="297" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="84"/>
@@ -30498,10 +30539,10 @@
         <v>751</v>
       </c>
       <c r="D54" s="259" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E54" s="263" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="F54" s="263" t="s">
         <v>28</v>
@@ -30522,19 +30563,19 @@
         <v>751</v>
       </c>
       <c r="D55" s="259" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E55" s="263" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="F55" s="263" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="G55" s="263" t="s">
         <v>845</v>
       </c>
       <c r="H55" s="266" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="84"/>
@@ -30558,7 +30599,7 @@
         <v>18</v>
       </c>
       <c r="H56" s="266" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="84"/>
@@ -30572,10 +30613,10 @@
         <v>751</v>
       </c>
       <c r="D57" s="259" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E57" s="263" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F57" s="263" t="s">
         <v>28</v>
@@ -30584,7 +30625,7 @@
         <v>18</v>
       </c>
       <c r="H57" s="266" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="84"/>
@@ -30595,13 +30636,13 @@
         <v>43945</v>
       </c>
       <c r="C58" s="259" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D58" s="259" t="s">
         <v>1343</v>
       </c>
       <c r="E58" s="263" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="F58" s="263" t="s">
         <v>1331</v>
@@ -30610,7 +30651,7 @@
         <v>1237</v>
       </c>
       <c r="H58" s="300" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="84"/>
@@ -30621,22 +30662,22 @@
         <v>44295</v>
       </c>
       <c r="C59" s="299" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D59" s="299" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E59" s="300" t="s">
         <v>1517</v>
       </c>
-      <c r="D59" s="299" t="s">
+      <c r="F59" s="263" t="s">
         <v>1518</v>
-      </c>
-      <c r="E59" s="300" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F59" s="263" t="s">
-        <v>1520</v>
       </c>
       <c r="G59" s="264" t="s">
         <v>845</v>
       </c>
       <c r="H59" s="297" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="I59" s="21"/>
       <c r="J59" s="84"/>
@@ -30647,22 +30688,22 @@
         <v>44295</v>
       </c>
       <c r="C60" s="299" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D60" s="299" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E60" s="300" t="s">
         <v>1517</v>
       </c>
-      <c r="D60" s="299" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E60" s="300" t="s">
-        <v>1519</v>
-      </c>
       <c r="F60" s="263" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G60" s="264" t="s">
         <v>845</v>
       </c>
       <c r="H60" s="297" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="I60" s="21"/>
       <c r="J60" s="84"/>
@@ -30673,22 +30714,22 @@
         <v>44147</v>
       </c>
       <c r="C61" s="299" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D61" s="299" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E61" s="300" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="F61" s="263" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="G61" s="264" t="s">
         <v>845</v>
       </c>
       <c r="H61" s="297" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="84"/>
@@ -30705,7 +30746,7 @@
         <v>882</v>
       </c>
       <c r="E62" s="297" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F62" s="263">
         <v>1059</v>
@@ -30714,7 +30755,7 @@
         <v>25</v>
       </c>
       <c r="H62" s="297" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="84"/>
@@ -30731,16 +30772,16 @@
         <v>116</v>
       </c>
       <c r="E63" s="297" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F63" s="263" t="s">
         <v>1527</v>
-      </c>
-      <c r="F63" s="263" t="s">
-        <v>1529</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>883</v>
       </c>
       <c r="H63" s="297" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I63" s="21"/>
       <c r="J63" s="84"/>
@@ -30757,14 +30798,14 @@
         <v>118</v>
       </c>
       <c r="E64" s="297" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="F64" s="263">
         <v>1023</v>
       </c>
       <c r="G64" s="264"/>
       <c r="H64" s="297" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I64" s="21"/>
       <c r="J64" s="84"/>
@@ -30775,7 +30816,7 @@
         <v>44133</v>
       </c>
       <c r="C65" s="308" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="D65" s="309" t="s">
         <v>1343</v>
@@ -30790,7 +30831,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="312" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="I65" s="21"/>
       <c r="J65" s="84"/>
@@ -30801,10 +30842,10 @@
         <v>44108</v>
       </c>
       <c r="C66" s="259" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D66" s="259" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E66" s="263" t="s">
         <v>944</v>
@@ -30812,7 +30853,7 @@
       <c r="F66" s="264"/>
       <c r="G66" s="264"/>
       <c r="H66" s="266" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="84"/>
@@ -30829,7 +30870,7 @@
         <v>1305</v>
       </c>
       <c r="E67" s="313" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="F67" s="264" t="s">
         <v>718</v>
@@ -30864,7 +30905,7 @@
         <v>845</v>
       </c>
       <c r="H68" s="297" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="I68" s="21"/>
       <c r="J68" s="84"/>
@@ -30890,7 +30931,7 @@
         <v>51</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="I69" s="21"/>
       <c r="J69" s="84"/>
@@ -31166,13 +31207,13 @@
         <v>1346</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>1355</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>0</v>
@@ -31242,14 +31283,14 @@
       <c r="J90" s="164"/>
     </row>
     <row r="91" spans="2:10" ht="14.25">
-      <c r="B91" s="450" t="s">
+      <c r="B91" s="449" t="s">
         <v>1249</v>
       </c>
-      <c r="C91" s="451"/>
-      <c r="D91" s="451"/>
-      <c r="E91" s="451"/>
-      <c r="F91" s="451"/>
-      <c r="G91" s="452"/>
+      <c r="C91" s="450"/>
+      <c r="D91" s="450"/>
+      <c r="E91" s="450"/>
+      <c r="F91" s="450"/>
+      <c r="G91" s="451"/>
       <c r="H91" s="181"/>
       <c r="J91" s="164"/>
     </row>
@@ -32364,14 +32405,14 @@
       <c r="H163" s="181"/>
     </row>
     <row r="164" spans="2:8">
-      <c r="B164" s="450" t="s">
+      <c r="B164" s="449" t="s">
         <v>1261</v>
       </c>
-      <c r="C164" s="451"/>
-      <c r="D164" s="451"/>
-      <c r="E164" s="451"/>
-      <c r="F164" s="451"/>
-      <c r="G164" s="452"/>
+      <c r="C164" s="450"/>
+      <c r="D164" s="450"/>
+      <c r="E164" s="450"/>
+      <c r="F164" s="450"/>
+      <c r="G164" s="451"/>
       <c r="H164" s="181"/>
     </row>
     <row r="165" spans="2:8">
@@ -32518,14 +32559,14 @@
       <c r="H173" s="181"/>
     </row>
     <row r="174" spans="2:8">
-      <c r="B174" s="450" t="s">
+      <c r="B174" s="449" t="s">
         <v>1261</v>
       </c>
-      <c r="C174" s="451"/>
-      <c r="D174" s="451"/>
-      <c r="E174" s="451"/>
-      <c r="F174" s="451"/>
-      <c r="G174" s="452"/>
+      <c r="C174" s="450"/>
+      <c r="D174" s="450"/>
+      <c r="E174" s="450"/>
+      <c r="F174" s="450"/>
+      <c r="G174" s="451"/>
       <c r="H174" s="181"/>
     </row>
     <row r="175" spans="2:8" ht="14.25">
@@ -32585,45 +32626,45 @@
       <c r="H178" s="181"/>
     </row>
     <row r="179" spans="2:8">
-      <c r="B179" s="405">
+      <c r="B179" s="404">
         <v>44894</v>
       </c>
-      <c r="C179" s="406" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D179" s="406" t="s">
+      <c r="C179" s="405" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D179" s="405" t="s">
         <v>1259</v>
       </c>
-      <c r="E179" s="407"/>
-      <c r="F179" s="407" t="s">
+      <c r="E179" s="406"/>
+      <c r="F179" s="406" t="s">
         <v>873</v>
       </c>
-      <c r="G179" s="407" t="s">
+      <c r="G179" s="406" t="s">
         <v>845</v>
       </c>
       <c r="H179" s="238" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="180" spans="2:8" ht="15">
-      <c r="B180" s="405">
+      <c r="B180" s="404">
         <v>44894</v>
       </c>
-      <c r="C180" s="406" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D180" s="406" t="s">
+      <c r="C180" s="405" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D180" s="405" t="s">
         <v>1259</v>
       </c>
-      <c r="E180" s="407"/>
-      <c r="F180" s="407" t="s">
+      <c r="E180" s="406"/>
+      <c r="F180" s="406" t="s">
         <v>821</v>
       </c>
-      <c r="G180" s="408">
+      <c r="G180" s="407">
         <v>20210</v>
       </c>
       <c r="H180" s="238" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="181" spans="2:8" ht="14.25">
@@ -33030,14 +33071,14 @@
     </row>
     <row r="241" spans="2:7" ht="13.5" thickBot="1"/>
     <row r="242" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B242" s="447" t="s">
+      <c r="B242" s="446" t="s">
         <v>734</v>
       </c>
-      <c r="C242" s="448"/>
-      <c r="D242" s="448"/>
-      <c r="E242" s="448"/>
-      <c r="F242" s="448"/>
-      <c r="G242" s="449"/>
+      <c r="C242" s="447"/>
+      <c r="D242" s="447"/>
+      <c r="E242" s="447"/>
+      <c r="F242" s="447"/>
+      <c r="G242" s="448"/>
     </row>
     <row r="243" spans="2:7" ht="19.5" thickBot="1">
       <c r="B243" s="161"/>
@@ -33071,10 +33112,10 @@
         <v>741</v>
       </c>
       <c r="D245" s="90"/>
-      <c r="E245" s="438" t="s">
+      <c r="E245" s="437" t="s">
         <v>743</v>
       </c>
-      <c r="F245" s="438"/>
+      <c r="F245" s="437"/>
       <c r="G245" s="90" t="s">
         <v>744</v>
       </c>
@@ -33083,32 +33124,32 @@
       <c r="B246" s="87"/>
       <c r="C246" s="90"/>
       <c r="D246" s="90"/>
-      <c r="E246" s="439"/>
-      <c r="F246" s="439"/>
+      <c r="E246" s="438"/>
+      <c r="F246" s="438"/>
       <c r="G246" s="90"/>
     </row>
     <row r="247" spans="2:7" ht="15">
       <c r="B247" s="87"/>
       <c r="C247" s="90"/>
       <c r="D247" s="90"/>
-      <c r="E247" s="439"/>
-      <c r="F247" s="439"/>
+      <c r="E247" s="438"/>
+      <c r="F247" s="438"/>
       <c r="G247" s="90"/>
     </row>
     <row r="248" spans="2:7" ht="15">
       <c r="B248" s="87"/>
       <c r="C248" s="90"/>
       <c r="D248" s="90"/>
-      <c r="E248" s="439"/>
-      <c r="F248" s="439"/>
+      <c r="E248" s="438"/>
+      <c r="F248" s="438"/>
       <c r="G248" s="90"/>
     </row>
     <row r="249" spans="2:7" ht="15">
       <c r="B249" s="87"/>
       <c r="C249" s="90"/>
       <c r="D249" s="90"/>
-      <c r="E249" s="439"/>
-      <c r="F249" s="439"/>
+      <c r="E249" s="438"/>
+      <c r="F249" s="438"/>
       <c r="G249" s="90"/>
     </row>
     <row r="250" spans="2:7" ht="30">
@@ -33119,8 +33160,8 @@
         <v>742</v>
       </c>
       <c r="D250" s="90"/>
-      <c r="E250" s="439"/>
-      <c r="F250" s="439"/>
+      <c r="E250" s="438"/>
+      <c r="F250" s="438"/>
       <c r="G250" s="90" t="s">
         <v>745</v>
       </c>
@@ -33129,8 +33170,8 @@
       <c r="B251" s="88"/>
       <c r="C251" s="90"/>
       <c r="D251" s="90"/>
-      <c r="E251" s="439"/>
-      <c r="F251" s="439"/>
+      <c r="E251" s="438"/>
+      <c r="F251" s="438"/>
       <c r="G251" s="90" t="s">
         <v>746</v>
       </c>
@@ -33139,8 +33180,8 @@
       <c r="B252" s="89"/>
       <c r="C252" s="91"/>
       <c r="D252" s="91"/>
-      <c r="E252" s="440"/>
-      <c r="F252" s="440"/>
+      <c r="E252" s="439"/>
+      <c r="F252" s="439"/>
       <c r="G252" s="91" t="s">
         <v>747</v>
       </c>
@@ -33153,7 +33194,7 @@
         <v>741</v>
       </c>
       <c r="D253" s="92"/>
-      <c r="E253" s="435" t="s">
+      <c r="E253" s="434" t="s">
         <v>750</v>
       </c>
       <c r="F253" s="92" t="s">
@@ -33167,7 +33208,7 @@
       <c r="B254" s="87"/>
       <c r="C254" s="92"/>
       <c r="D254" s="92"/>
-      <c r="E254" s="436"/>
+      <c r="E254" s="435"/>
       <c r="F254" s="92" t="s">
         <v>752</v>
       </c>
@@ -33181,7 +33222,7 @@
         <v>742</v>
       </c>
       <c r="D255" s="92"/>
-      <c r="E255" s="436"/>
+      <c r="E255" s="435"/>
       <c r="F255" s="92" t="s">
         <v>753</v>
       </c>
@@ -33193,7 +33234,7 @@
       <c r="B256" s="88"/>
       <c r="C256" s="92"/>
       <c r="D256" s="92"/>
-      <c r="E256" s="436"/>
+      <c r="E256" s="435"/>
       <c r="F256" s="92" t="s">
         <v>754</v>
       </c>
@@ -33205,7 +33246,7 @@
       <c r="B257" s="88"/>
       <c r="C257" s="93"/>
       <c r="D257" s="93"/>
-      <c r="E257" s="436"/>
+      <c r="E257" s="435"/>
       <c r="F257" s="92" t="s">
         <v>755</v>
       </c>
@@ -33217,7 +33258,7 @@
       <c r="B258" s="88"/>
       <c r="C258" s="93"/>
       <c r="D258" s="93"/>
-      <c r="E258" s="436"/>
+      <c r="E258" s="435"/>
       <c r="F258" s="92" t="s">
         <v>756</v>
       </c>
@@ -33229,7 +33270,7 @@
       <c r="B259" s="88"/>
       <c r="C259" s="93"/>
       <c r="D259" s="93"/>
-      <c r="E259" s="436"/>
+      <c r="E259" s="435"/>
       <c r="F259" s="93"/>
       <c r="G259" s="92" t="s">
         <v>761</v>
@@ -33239,7 +33280,7 @@
       <c r="B260" s="88"/>
       <c r="C260" s="93"/>
       <c r="D260" s="93"/>
-      <c r="E260" s="436"/>
+      <c r="E260" s="435"/>
       <c r="F260" s="93"/>
       <c r="G260" s="92"/>
     </row>
@@ -33247,7 +33288,7 @@
       <c r="B261" s="88"/>
       <c r="C261" s="93"/>
       <c r="D261" s="93"/>
-      <c r="E261" s="436"/>
+      <c r="E261" s="435"/>
       <c r="F261" s="93"/>
       <c r="G261" s="92" t="s">
         <v>16</v>
@@ -33257,7 +33298,7 @@
       <c r="B262" s="88"/>
       <c r="C262" s="93"/>
       <c r="D262" s="93"/>
-      <c r="E262" s="436"/>
+      <c r="E262" s="435"/>
       <c r="F262" s="93"/>
       <c r="G262" s="92" t="s">
         <v>762</v>
@@ -33267,7 +33308,7 @@
       <c r="B263" s="88"/>
       <c r="C263" s="93"/>
       <c r="D263" s="93"/>
-      <c r="E263" s="436"/>
+      <c r="E263" s="435"/>
       <c r="F263" s="93"/>
       <c r="G263" s="92" t="s">
         <v>763</v>
@@ -33277,7 +33318,7 @@
       <c r="B264" s="89"/>
       <c r="C264" s="94"/>
       <c r="D264" s="94"/>
-      <c r="E264" s="437"/>
+      <c r="E264" s="436"/>
       <c r="F264" s="94"/>
       <c r="G264" s="95"/>
     </row>
@@ -33289,7 +33330,7 @@
         <v>741</v>
       </c>
       <c r="D265" s="90"/>
-      <c r="E265" s="438" t="s">
+      <c r="E265" s="437" t="s">
         <v>767</v>
       </c>
       <c r="F265" s="90" t="s">
@@ -33303,7 +33344,7 @@
       <c r="B266" s="87"/>
       <c r="C266" s="90"/>
       <c r="D266" s="90"/>
-      <c r="E266" s="439"/>
+      <c r="E266" s="438"/>
       <c r="F266" s="90" t="s">
         <v>756</v>
       </c>
@@ -33317,7 +33358,7 @@
         <v>766</v>
       </c>
       <c r="D267" s="90"/>
-      <c r="E267" s="439"/>
+      <c r="E267" s="438"/>
       <c r="F267" s="90"/>
       <c r="G267" s="90" t="s">
         <v>119</v>
@@ -33327,7 +33368,7 @@
       <c r="B268" s="96"/>
       <c r="C268" s="91"/>
       <c r="D268" s="91"/>
-      <c r="E268" s="440"/>
+      <c r="E268" s="439"/>
       <c r="F268" s="97"/>
       <c r="G268" s="91" t="s">
         <v>770</v>
@@ -33521,35 +33562,35 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="442" t="s">
+      <c r="B2" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="444" t="s">
+      <c r="B3" s="443" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
       <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="456">
+      <c r="B4" s="455">
         <v>43928</v>
       </c>
-      <c r="C4" s="456"/>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
+      <c r="C4" s="455"/>
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
       <c r="G4" s="21"/>
       <c r="J4" s="11" t="s">
         <v>1288</v>
@@ -33828,13 +33869,13 @@
     </row>
     <row r="2" spans="1:26" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="442" t="s">
+      <c r="B2" s="441" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
       <c r="G2" s="21"/>
       <c r="H2" s="1">
         <v>43487</v>
@@ -33845,13 +33886,13 @@
     </row>
     <row r="3" spans="1:26" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="444" t="s">
+      <c r="B3" s="443" t="s">
         <v>1216</v>
       </c>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
       <c r="G3" s="21"/>
       <c r="H3" s="11" t="s">
         <v>1223</v>
@@ -33862,13 +33903,13 @@
     </row>
     <row r="4" spans="1:26" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="446">
+      <c r="B4" s="445">
         <v>43944</v>
       </c>
-      <c r="C4" s="446"/>
-      <c r="D4" s="446"/>
-      <c r="E4" s="446"/>
-      <c r="F4" s="446"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
       <c r="G4" s="21"/>
       <c r="H4" s="1">
         <v>43944</v>
@@ -33920,15 +33961,15 @@
       <c r="C8" s="21" t="s">
         <v>1218</v>
       </c>
-      <c r="D8" s="410">
+      <c r="D8" s="409">
         <v>44889</v>
       </c>
-      <c r="E8" s="409" t="s">
-        <v>1709</v>
+      <c r="E8" s="408" t="s">
+        <v>1707</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="110" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -33963,10 +34004,10 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="110" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="S11" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -33995,7 +34036,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="Z14" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -34007,10 +34048,10 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="Y15" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="Z15" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -34034,7 +34075,7 @@
         <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -34046,7 +34087,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="Y18" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="Z18" t="s">
         <v>23</v>
@@ -34061,10 +34102,10 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
       <c r="Y19" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="Z19" s="6" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -34106,7 +34147,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="Y23" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -34118,7 +34159,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="Y24" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -34139,7 +34180,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -34151,7 +34192,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="Y27" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -34210,10 +34251,10 @@
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="Y32" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="AA32" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -34224,11 +34265,11 @@
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="Y33" s="457">
+      <c r="Y33" s="456">
         <v>44925</v>
       </c>
-      <c r="Z33" s="457"/>
-      <c r="AA33" s="457"/>
+      <c r="Z33" s="456"/>
+      <c r="AA33" s="456"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="21"/>
@@ -34239,10 +34280,10 @@
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="Y34" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="Z34" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -34334,24 +34375,24 @@
     </row>
     <row r="2" spans="1:11" ht="20.25">
       <c r="A2" s="21"/>
-      <c r="B2" s="442" t="s">
+      <c r="B2" s="441" t="s">
         <v>874</v>
       </c>
-      <c r="C2" s="442"/>
-      <c r="D2" s="442"/>
-      <c r="E2" s="442"/>
-      <c r="F2" s="442"/>
+      <c r="C2" s="441"/>
+      <c r="D2" s="441"/>
+      <c r="E2" s="441"/>
+      <c r="F2" s="441"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="21"/>
-      <c r="B3" s="444" t="s">
+      <c r="B3" s="443" t="s">
         <v>1213</v>
       </c>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
+      <c r="C3" s="443"/>
+      <c r="D3" s="443"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="443"/>
       <c r="G3" s="21"/>
       <c r="K3" s="11" t="s">
         <v>1284</v>
@@ -34359,13 +34400,13 @@
     </row>
     <row r="4" spans="1:11" ht="20.25">
       <c r="A4" s="21"/>
-      <c r="B4" s="446">
+      <c r="B4" s="445">
         <v>43970</v>
       </c>
-      <c r="C4" s="446"/>
-      <c r="D4" s="446"/>
-      <c r="E4" s="446"/>
-      <c r="F4" s="446"/>
+      <c r="C4" s="445"/>
+      <c r="D4" s="445"/>
+      <c r="E4" s="445"/>
+      <c r="F4" s="445"/>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
@@ -34661,7 +34702,7 @@
       <c r="F30" s="194"/>
       <c r="G30" s="21"/>
       <c r="H30" s="134" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
@@ -34677,7 +34718,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="134" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
@@ -34740,7 +34781,7 @@
       <c r="F35" s="189"/>
       <c r="G35" s="21"/>
       <c r="H35" s="134" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -34756,7 +34797,7 @@
       <c r="F36" s="189"/>
       <c r="G36" s="21"/>
       <c r="H36" s="134" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -34772,7 +34813,7 @@
       <c r="F37" s="189"/>
       <c r="G37" s="21"/>
       <c r="H37" s="136" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="I37" s="137"/>
       <c r="J37" s="137"/>
@@ -35022,12 +35063,12 @@
     </row>
     <row r="88" spans="2:2" ht="20.25">
       <c r="B88" s="294" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="14.25">
       <c r="B91" s="214" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="14.25">
@@ -35035,7 +35076,7 @@
     </row>
     <row r="93" spans="2:2" ht="14.25">
       <c r="B93" s="83" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="14.25">
@@ -35043,12 +35084,12 @@
     </row>
     <row r="95" spans="2:2" ht="14.25">
       <c r="B95" s="214" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="14.25">
       <c r="B96" s="214" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="14.25">
@@ -35056,7 +35097,7 @@
     </row>
     <row r="98" spans="2:2" ht="14.25">
       <c r="B98" s="214" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="14.25">
@@ -35073,7 +35114,7 @@
     </row>
     <row r="104" spans="2:2" ht="14.25">
       <c r="B104" s="83" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="14.25">
@@ -35081,12 +35122,12 @@
     </row>
     <row r="106" spans="2:2" ht="14.25">
       <c r="B106" s="214" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="14.25">
       <c r="B107" s="214" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="108" spans="2:2" ht="14.25">
@@ -35094,7 +35135,7 @@
     </row>
     <row r="109" spans="2:2" ht="14.25">
       <c r="B109" s="214" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="14.25">
@@ -35102,7 +35143,7 @@
     </row>
     <row r="111" spans="2:2" ht="14.25">
       <c r="B111" s="214" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="14.25">
@@ -35110,17 +35151,17 @@
     </row>
     <row r="113" spans="2:2" ht="14.25">
       <c r="B113" s="214" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="14.25">
       <c r="B114" s="214" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="14.25">
       <c r="B115" s="214" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="14.25">
@@ -35128,7 +35169,7 @@
     </row>
     <row r="118" spans="2:2" ht="14.25">
       <c r="B118" s="214" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="14.25">
@@ -35136,7 +35177,7 @@
     </row>
     <row r="120" spans="2:2" ht="14.25">
       <c r="B120" s="214" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="14.25">
@@ -35150,7 +35191,7 @@
     </row>
     <row r="125" spans="2:2" ht="14.25">
       <c r="B125" s="83" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="126" spans="2:2" ht="14.25">
@@ -35158,7 +35199,7 @@
     </row>
     <row r="127" spans="2:2" ht="14.25">
       <c r="B127" s="214" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="14.25">
@@ -35166,12 +35207,12 @@
     </row>
     <row r="129" spans="2:2" ht="14.25">
       <c r="B129" s="214" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="14.25">
       <c r="B130" s="214" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
   </sheetData>
@@ -35318,7 +35359,7 @@
         <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="9" spans="2:11">
